--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP118"/>
+  <dimension ref="A1:BP124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.71</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5" t="n">
         <v>1</v>
@@ -1791,7 +1791,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ7" t="n">
         <v>2</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ8" t="n">
         <v>2</v>
@@ -2445,7 +2445,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.57</v>
@@ -3753,7 +3753,7 @@
         <v>3</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.57</v>
@@ -5061,7 +5061,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR21" t="n">
         <v>1.87</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23" t="n">
         <v>2</v>
@@ -5933,7 +5933,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR25" t="n">
         <v>1.1</v>
@@ -6151,7 +6151,7 @@
         <v>3</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR26" t="n">
         <v>2.26</v>
@@ -6366,10 +6366,10 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR27" t="n">
         <v>1.61</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.71</v>
@@ -7459,7 +7459,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR32" t="n">
         <v>0.71</v>
@@ -7674,7 +7674,7 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ33" t="n">
         <v>2.67</v>
@@ -7895,7 +7895,7 @@
         <v>3</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR34" t="n">
         <v>2</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ35" t="n">
         <v>1</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.67</v>
@@ -8549,7 +8549,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR37" t="n">
         <v>1.5</v>
@@ -8985,7 +8985,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR39" t="n">
         <v>0.7</v>
@@ -9203,7 +9203,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR40" t="n">
         <v>1.33</v>
@@ -9418,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.67</v>
@@ -9854,7 +9854,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.57</v>
@@ -10508,10 +10508,10 @@
         <v>0.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR46" t="n">
         <v>1.49</v>
@@ -10726,10 +10726,10 @@
         <v>1.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR47" t="n">
         <v>1.64</v>
@@ -10947,7 +10947,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR48" t="n">
         <v>1.48</v>
@@ -11162,7 +11162,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ49" t="n">
         <v>1</v>
@@ -11383,7 +11383,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR50" t="n">
         <v>1.57</v>
@@ -11816,7 +11816,7 @@
         <v>3</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ52" t="n">
         <v>2.67</v>
@@ -12037,7 +12037,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR53" t="n">
         <v>1.74</v>
@@ -12470,7 +12470,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.71</v>
@@ -12688,7 +12688,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.67</v>
@@ -13127,7 +13127,7 @@
         <v>3</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR58" t="n">
         <v>2.01</v>
@@ -13563,7 +13563,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR60" t="n">
         <v>1.7</v>
@@ -14432,7 +14432,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ64" t="n">
         <v>2</v>
@@ -14871,7 +14871,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR66" t="n">
         <v>1.59</v>
@@ -15089,7 +15089,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR67" t="n">
         <v>1.46</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.57</v>
@@ -15522,10 +15522,10 @@
         <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR69" t="n">
         <v>1.66</v>
@@ -15740,7 +15740,7 @@
         <v>3</v>
       </c>
       <c r="AP70" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ70" t="n">
         <v>2.67</v>
@@ -15961,7 +15961,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR71" t="n">
         <v>1.55</v>
@@ -16176,7 +16176,7 @@
         <v>1.33</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.71</v>
@@ -16830,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.71</v>
@@ -17484,7 +17484,7 @@
         <v>0.33</v>
       </c>
       <c r="AP78" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.67</v>
@@ -18141,7 +18141,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR81" t="n">
         <v>1.54</v>
@@ -18577,7 +18577,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR83" t="n">
         <v>1.5</v>
@@ -18792,7 +18792,7 @@
         <v>3</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.67</v>
@@ -19228,10 +19228,10 @@
         <v>0</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR86" t="n">
         <v>1.68</v>
@@ -19446,10 +19446,10 @@
         <v>2</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR87" t="n">
         <v>1.68</v>
@@ -19664,10 +19664,10 @@
         <v>1.4</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR88" t="n">
         <v>1.3</v>
@@ -20103,7 +20103,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR90" t="n">
         <v>1.86</v>
@@ -20318,7 +20318,7 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.67</v>
@@ -21193,7 +21193,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR95" t="n">
         <v>1.35</v>
@@ -22280,7 +22280,7 @@
         <v>0.75</v>
       </c>
       <c r="AP100" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ100" t="n">
         <v>1</v>
@@ -22498,10 +22498,10 @@
         <v>1.67</v>
       </c>
       <c r="AP101" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR101" t="n">
         <v>1.27</v>
@@ -22934,10 +22934,10 @@
         <v>0.8</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR103" t="n">
         <v>1.61</v>
@@ -23155,7 +23155,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR104" t="n">
         <v>1.68</v>
@@ -23370,10 +23370,10 @@
         <v>0</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR105" t="n">
         <v>1.38</v>
@@ -23588,7 +23588,7 @@
         <v>1.83</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ106" t="n">
         <v>2</v>
@@ -24024,10 +24024,10 @@
         <v>1.2</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR108" t="n">
         <v>1.56</v>
@@ -26283,6 +26283,1314 @@
       </c>
       <c r="BP118" t="n">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>8227675</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>46003.6875</v>
+      </c>
+      <c r="F119" t="n">
+        <v>14</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>3</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="n">
+        <v>4</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>['57', '63', '90+3']</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="R119" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S119" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U119" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="V119" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X119" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="BP119" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>8227680</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>46004.47916666666</v>
+      </c>
+      <c r="F120" t="n">
+        <v>14</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>2</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>2</v>
+      </c>
+      <c r="L120" t="n">
+        <v>4</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="n">
+        <v>5</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>['8', '31', '65', '72']</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R120" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S120" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U120" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="V120" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X120" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO120" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BP120" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>8227678</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>46004.47916666666</v>
+      </c>
+      <c r="F121" t="n">
+        <v>14</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>2</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="n">
+        <v>3</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['35', '53']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R121" t="n">
+        <v>2</v>
+      </c>
+      <c r="S121" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="T121" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U121" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V121" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X121" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO121" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP121" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>8227677</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>46004.47916666666</v>
+      </c>
+      <c r="F122" t="n">
+        <v>14</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R122" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S122" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U122" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V122" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X122" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BN122" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO122" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP122" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>8227676</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>46004.47916666666</v>
+      </c>
+      <c r="F123" t="n">
+        <v>14</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Borussia M'gladbach</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>3</v>
+      </c>
+      <c r="K123" t="n">
+        <v>4</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="n">
+        <v>3</v>
+      </c>
+      <c r="N123" t="n">
+        <v>4</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['4', '30', '34']</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R123" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S123" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U123" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="V123" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X123" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BL123" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN123" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BO123" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP123" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>8227787</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>46004.60416666666</v>
+      </c>
+      <c r="F124" t="n">
+        <v>14</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>2</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>2</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>['66', '72']</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R124" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S124" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T124" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="U124" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V124" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X124" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BL124" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN124" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO124" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BP124" t="n">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP124"/>
+  <dimension ref="A1:BP125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.57</v>
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
@@ -5715,7 +5715,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR24" t="n">
         <v>0.82</v>
@@ -9639,7 +9639,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR42" t="n">
         <v>1.7</v>
@@ -10072,7 +10072,7 @@
         <v>3</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ44" t="n">
         <v>2</v>
@@ -13999,7 +13999,7 @@
         <v>3</v>
       </c>
       <c r="AQ62" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR62" t="n">
         <v>2.7</v>
@@ -14214,7 +14214,7 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.57</v>
@@ -16615,7 +16615,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR74" t="n">
         <v>1.45</v>
@@ -19013,7 +19013,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ85" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR85" t="n">
         <v>1.86</v>
@@ -19882,7 +19882,7 @@
         <v>0.75</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.57</v>
@@ -23591,7 +23591,7 @@
         <v>2</v>
       </c>
       <c r="AQ106" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR106" t="n">
         <v>1.85</v>
@@ -24242,7 +24242,7 @@
         <v>0.8</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.67</v>
@@ -27591,6 +27591,224 @@
       </c>
       <c r="BP124" t="n">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>8227679</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>46005.47916666666</v>
+      </c>
+      <c r="F125" t="n">
+        <v>14</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="n">
+        <v>2</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="R125" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S125" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T125" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V125" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X125" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN125" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO125" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP125" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP125"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.38</v>
@@ -1573,7 +1573,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.67</v>
@@ -4189,7 +4189,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR22" t="n">
         <v>1.66</v>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.29</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.71</v>
@@ -7241,7 +7241,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR31" t="n">
         <v>1.1</v>
@@ -8764,7 +8764,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.71</v>
@@ -10293,7 +10293,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR45" t="n">
         <v>1.71</v>
@@ -11598,7 +11598,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.57</v>
@@ -12255,7 +12255,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR54" t="n">
         <v>1.51</v>
@@ -13345,7 +13345,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR59" t="n">
         <v>1.52</v>
@@ -13996,7 +13996,7 @@
         <v>2.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.88</v>
@@ -14650,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ65" t="n">
         <v>1</v>
@@ -16397,7 +16397,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR73" t="n">
         <v>1.81</v>
@@ -17705,7 +17705,7 @@
         <v>3</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR79" t="n">
         <v>1.67</v>
@@ -17920,7 +17920,7 @@
         <v>2.33</v>
       </c>
       <c r="AP80" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.67</v>
@@ -18574,7 +18574,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.43</v>
@@ -20321,7 +20321,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR91" t="n">
         <v>1.57</v>
@@ -20975,7 +20975,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR94" t="n">
         <v>1.9</v>
@@ -21408,7 +21408,7 @@
         <v>1</v>
       </c>
       <c r="AP96" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.71</v>
@@ -22716,7 +22716,7 @@
         <v>0.6</v>
       </c>
       <c r="AP102" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.57</v>
@@ -23152,7 +23152,7 @@
         <v>1.17</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ104" t="n">
         <v>1</v>
@@ -23809,7 +23809,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR107" t="n">
         <v>1.7</v>
@@ -24245,7 +24245,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR109" t="n">
         <v>1.34</v>
@@ -27809,6 +27809,442 @@
       </c>
       <c r="BP125" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>8227792</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>46005.5625</v>
+      </c>
+      <c r="F126" t="n">
+        <v>14</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="n">
+        <v>2</v>
+      </c>
+      <c r="L126" t="n">
+        <v>2</v>
+      </c>
+      <c r="M126" t="n">
+        <v>2</v>
+      </c>
+      <c r="N126" t="n">
+        <v>4</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>['29', '87']</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['45+2', '67']</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R126" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S126" t="n">
+        <v>11</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U126" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="V126" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W126" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X126" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN126" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO126" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BP126" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>8227791</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>46005.64583333334</v>
+      </c>
+      <c r="F127" t="n">
+        <v>14</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2</v>
+      </c>
+      <c r="K127" t="n">
+        <v>2</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>4</v>
+      </c>
+      <c r="N127" t="n">
+        <v>4</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>['40', '44', '79', '90+7']</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="R127" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S127" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U127" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V127" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X127" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BL127" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BN127" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO127" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP127" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -27242,31 +27242,31 @@
         <v>3.49</v>
       </c>
       <c r="AU127">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV127">
         <v>12</v>
       </c>
       <c r="AW127">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX127">
         <v>12</v>
       </c>
       <c r="AY127">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ127">
         <v>24</v>
       </c>
       <c r="BA127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB127">
         <v>9</v>
       </c>
       <c r="BC127">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD127">
         <v>2.4</v>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="260">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,15 @@
     <t>['29', '87']</t>
   </si>
   <si>
+    <t>['10', '90+7']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['13', '49', '69']</t>
+  </si>
+  <si>
     <t>['32', '42', '45+2']</t>
   </si>
   <si>
@@ -779,6 +788,12 @@
   </si>
   <si>
     <t>['40', '44', '79', '90+7']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['5', '56', '71', '78']</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1605,7 +1620,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q3">
         <v>2.62</v>
@@ -1811,7 +1826,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q4">
         <v>2.07</v>
@@ -1892,7 +1907,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ4">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2017,7 +2032,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q5">
         <v>3.7</v>
@@ -2223,7 +2238,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>3.36</v>
@@ -2429,7 +2444,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q7">
         <v>2.16</v>
@@ -2510,7 +2525,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2635,7 +2650,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q8">
         <v>4.45</v>
@@ -2841,7 +2856,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3253,7 +3268,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q11">
         <v>2.95</v>
@@ -3331,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
         <v>0.57</v>
@@ -3459,7 +3474,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3540,7 +3555,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ12">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3743,10 +3758,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ13">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3871,7 +3886,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q14">
         <v>3.7</v>
@@ -4283,7 +4298,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q16">
         <v>7.3</v>
@@ -4361,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ16">
         <v>2.67</v>
@@ -4489,7 +4504,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q17">
         <v>2.73</v>
@@ -4567,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ17">
         <v>0.71</v>
@@ -4773,10 +4788,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4901,7 +4916,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q19">
         <v>3.12</v>
@@ -4979,10 +4994,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ19">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5107,7 +5122,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q20">
         <v>2.7</v>
@@ -5188,7 +5203,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
         <v>0.96</v>
@@ -5313,7 +5328,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5725,7 +5740,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5806,7 +5821,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR23">
         <v>0.85</v>
@@ -5931,7 +5946,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -6137,7 +6152,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q25">
         <v>2.45</v>
@@ -6215,7 +6230,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6549,7 +6564,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q27">
         <v>2.7</v>
@@ -6755,7 +6770,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6836,7 +6851,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ28">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR28">
         <v>1.83</v>
@@ -7039,7 +7054,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ29">
         <v>0.57</v>
@@ -7167,7 +7182,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q30">
         <v>2.9</v>
@@ -7248,7 +7263,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ30">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.42</v>
@@ -7373,7 +7388,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7451,7 +7466,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ31">
         <v>0.71</v>
@@ -7579,7 +7594,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q32">
         <v>2.4</v>
@@ -7657,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ32">
         <v>0.43</v>
@@ -7785,7 +7800,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q33">
         <v>6.1</v>
@@ -8197,7 +8212,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q35">
         <v>2.11</v>
@@ -8278,7 +8293,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR35">
         <v>1.95</v>
@@ -8403,7 +8418,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q36">
         <v>1.95</v>
@@ -8484,7 +8499,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR36">
         <v>1.43</v>
@@ -8687,7 +8702,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ37">
         <v>1.43</v>
@@ -8896,7 +8911,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ38">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR38">
         <v>2.52</v>
@@ -9021,7 +9036,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q39">
         <v>3.32</v>
@@ -9227,7 +9242,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9305,7 +9320,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ40">
         <v>1.38</v>
@@ -9433,7 +9448,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q41">
         <v>3.85</v>
@@ -9639,7 +9654,7 @@
         <v>95</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q42">
         <v>3.93</v>
@@ -9845,7 +9860,7 @@
         <v>121</v>
       </c>
       <c r="P43" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q43">
         <v>3.58</v>
@@ -9926,7 +9941,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ43">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
         <v>1.84</v>
@@ -10051,7 +10066,7 @@
         <v>122</v>
       </c>
       <c r="P44" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10132,7 +10147,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR44">
         <v>1.74</v>
@@ -10257,7 +10272,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q45">
         <v>2.91</v>
@@ -10335,7 +10350,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ45">
         <v>1.25</v>
@@ -10669,7 +10684,7 @@
         <v>95</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q47">
         <v>2.41</v>
@@ -10953,7 +10968,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ48">
         <v>1.43</v>
@@ -11162,7 +11177,7 @@
         <v>2</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR49">
         <v>1.54</v>
@@ -11287,7 +11302,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q50">
         <v>2.05</v>
@@ -11365,7 +11380,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ50">
         <v>1.38</v>
@@ -11699,7 +11714,7 @@
         <v>95</v>
       </c>
       <c r="P52" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q52">
         <v>5.25</v>
@@ -11983,7 +11998,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ53">
         <v>0.43</v>
@@ -12189,7 +12204,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ54">
         <v>0.71</v>
@@ -12398,7 +12413,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ55">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.71</v>
@@ -12523,7 +12538,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q56">
         <v>2.63</v>
@@ -12604,7 +12619,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR56">
         <v>1.39</v>
@@ -12729,7 +12744,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q57">
         <v>3.04</v>
@@ -12935,7 +12950,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q58">
         <v>1.78</v>
@@ -13141,7 +13156,7 @@
         <v>95</v>
       </c>
       <c r="P59" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>2.9</v>
@@ -13219,7 +13234,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ59">
         <v>1.25</v>
@@ -13347,7 +13362,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13425,7 +13440,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ60">
         <v>0.57</v>
@@ -13553,7 +13568,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q61">
         <v>3.3</v>
@@ -13634,7 +13649,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ61">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR61">
         <v>0.91</v>
@@ -13759,7 +13774,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q62">
         <v>1.72</v>
@@ -13965,7 +13980,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q63">
         <v>3.04</v>
@@ -14046,7 +14061,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ63">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
         <v>1.39</v>
@@ -14171,7 +14186,7 @@
         <v>95</v>
       </c>
       <c r="P64" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14252,7 +14267,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR64">
         <v>1.64</v>
@@ -14458,7 +14473,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR65">
         <v>1.49</v>
@@ -14583,7 +14598,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14661,7 +14676,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ66">
         <v>1.43</v>
@@ -14789,7 +14804,7 @@
         <v>95</v>
       </c>
       <c r="P67" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q67">
         <v>3.25</v>
@@ -14867,7 +14882,7 @@
         <v>1.75</v>
       </c>
       <c r="AP67">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ67">
         <v>1.38</v>
@@ -15407,7 +15422,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q70">
         <v>8.76</v>
@@ -15691,7 +15706,7 @@
         <v>1.75</v>
       </c>
       <c r="AP71">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -15900,7 +15915,7 @@
         <v>2</v>
       </c>
       <c r="AQ72">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.62</v>
@@ -16025,7 +16040,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q73">
         <v>2.25</v>
@@ -16103,7 +16118,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ73">
         <v>0.71</v>
@@ -16231,7 +16246,7 @@
         <v>95</v>
       </c>
       <c r="P74" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q74">
         <v>4.5</v>
@@ -16309,7 +16324,7 @@
         <v>1.75</v>
       </c>
       <c r="AP74">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ74">
         <v>1.88</v>
@@ -16518,7 +16533,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ75">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR75">
         <v>1.47</v>
@@ -16643,7 +16658,7 @@
         <v>120</v>
       </c>
       <c r="P76" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>3.8</v>
@@ -16724,7 +16739,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ76">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR76">
         <v>1.51</v>
@@ -16849,7 +16864,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q77">
         <v>2.3</v>
@@ -16930,7 +16945,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ77">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR77">
         <v>1.43</v>
@@ -17055,7 +17070,7 @@
         <v>95</v>
       </c>
       <c r="P78" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q78">
         <v>2.7</v>
@@ -17136,7 +17151,7 @@
         <v>1</v>
       </c>
       <c r="AQ78">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR78">
         <v>1.51</v>
@@ -17673,7 +17688,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -17751,7 +17766,7 @@
         <v>0.5</v>
       </c>
       <c r="AP81">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ81">
         <v>0.29</v>
@@ -17879,7 +17894,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q82">
         <v>3.25</v>
@@ -17957,10 +17972,10 @@
         <v>2.5</v>
       </c>
       <c r="AP82">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ82">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR82">
         <v>1.61</v>
@@ -18085,7 +18100,7 @@
         <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q83">
         <v>2.5</v>
@@ -18291,7 +18306,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q84">
         <v>9.5</v>
@@ -18497,7 +18512,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18575,7 +18590,7 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ85">
         <v>1.88</v>
@@ -19115,7 +19130,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q88">
         <v>2.7</v>
@@ -19321,7 +19336,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q89">
         <v>2.38</v>
@@ -19527,7 +19542,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19605,7 +19620,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ90">
         <v>0.57</v>
@@ -19939,7 +19954,7 @@
         <v>133</v>
       </c>
       <c r="P92" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -20020,7 +20035,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ92">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR92">
         <v>1.43</v>
@@ -20145,7 +20160,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20226,7 +20241,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ93">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR93">
         <v>1.43</v>
@@ -20351,7 +20366,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20429,7 +20444,7 @@
         <v>1.2</v>
       </c>
       <c r="AP94">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ94">
         <v>1.25</v>
@@ -20635,7 +20650,7 @@
         <v>0.4</v>
       </c>
       <c r="AP95">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ95">
         <v>0.29</v>
@@ -20763,7 +20778,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q96">
         <v>1.5</v>
@@ -20844,7 +20859,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ96">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR96">
         <v>2.37</v>
@@ -20969,7 +20984,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21047,7 +21062,7 @@
         <v>1.75</v>
       </c>
       <c r="AP97">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ97">
         <v>1.67</v>
@@ -21175,7 +21190,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21253,10 +21268,10 @@
         <v>1.6</v>
       </c>
       <c r="AP98">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ98">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR98">
         <v>1.76</v>
@@ -21462,7 +21477,7 @@
         <v>3</v>
       </c>
       <c r="AQ99">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR99">
         <v>1.72</v>
@@ -21587,7 +21602,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21668,7 +21683,7 @@
         <v>1</v>
       </c>
       <c r="AQ100">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR100">
         <v>1.56</v>
@@ -22617,7 +22632,7 @@
         <v>165</v>
       </c>
       <c r="P105" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q105">
         <v>2.22</v>
@@ -22823,7 +22838,7 @@
         <v>111</v>
       </c>
       <c r="P106" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23029,7 +23044,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q107">
         <v>3.35</v>
@@ -23107,7 +23122,7 @@
         <v>1.17</v>
       </c>
       <c r="AP107">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ107">
         <v>1.25</v>
@@ -23235,7 +23250,7 @@
         <v>140</v>
       </c>
       <c r="P108" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q108">
         <v>2.3</v>
@@ -23728,7 +23743,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ110">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR110">
         <v>1.47</v>
@@ -23853,7 +23868,7 @@
         <v>95</v>
       </c>
       <c r="P111" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>4.5</v>
@@ -23931,7 +23946,7 @@
         <v>2.6</v>
       </c>
       <c r="AP111">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ111">
         <v>2.67</v>
@@ -24137,10 +24152,10 @@
         <v>1.2</v>
       </c>
       <c r="AP112">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR112">
         <v>1.73</v>
@@ -24343,7 +24358,7 @@
         <v>2</v>
       </c>
       <c r="AP113">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ113">
         <v>1.67</v>
@@ -24471,7 +24486,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q114">
         <v>2.5</v>
@@ -24549,7 +24564,7 @@
         <v>0.5</v>
       </c>
       <c r="AP114">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ114">
         <v>0.57</v>
@@ -24677,7 +24692,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q115">
         <v>4.5</v>
@@ -24758,7 +24773,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ115">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR115">
         <v>1.31</v>
@@ -24964,7 +24979,7 @@
         <v>3</v>
       </c>
       <c r="AQ116">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR116">
         <v>1.91</v>
@@ -25089,7 +25104,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25167,10 +25182,10 @@
         <v>0.83</v>
       </c>
       <c r="AP117">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ117">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR117">
         <v>1.56</v>
@@ -25373,10 +25388,10 @@
         <v>2.33</v>
       </c>
       <c r="AP118">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ118">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR118">
         <v>1.86</v>
@@ -25501,7 +25516,7 @@
         <v>175</v>
       </c>
       <c r="P119" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q119">
         <v>3.55</v>
@@ -25913,7 +25928,7 @@
         <v>177</v>
       </c>
       <c r="P121" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -26325,7 +26340,7 @@
         <v>164</v>
       </c>
       <c r="P123" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q123">
         <v>2.45</v>
@@ -26737,7 +26752,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q125">
         <v>4.1</v>
@@ -26943,7 +26958,7 @@
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q126">
         <v>1.35</v>
@@ -27149,7 +27164,7 @@
         <v>95</v>
       </c>
       <c r="P127" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q127">
         <v>3.34</v>
@@ -27306,6 +27321,1242 @@
       </c>
       <c r="BP127">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>8227681</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>46010.6875</v>
+      </c>
+      <c r="F128">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s">
+        <v>86</v>
+      </c>
+      <c r="H128" t="s">
+        <v>78</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128" t="s">
+        <v>182</v>
+      </c>
+      <c r="P128" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q128">
+        <v>1.95</v>
+      </c>
+      <c r="R128">
+        <v>2.79</v>
+      </c>
+      <c r="S128">
+        <v>4.8</v>
+      </c>
+      <c r="T128">
+        <v>1.24</v>
+      </c>
+      <c r="U128">
+        <v>3.62</v>
+      </c>
+      <c r="V128">
+        <v>2.1</v>
+      </c>
+      <c r="W128">
+        <v>1.66</v>
+      </c>
+      <c r="X128">
+        <v>4.7</v>
+      </c>
+      <c r="Y128">
+        <v>1.14</v>
+      </c>
+      <c r="Z128">
+        <v>1.6</v>
+      </c>
+      <c r="AA128">
+        <v>4.7</v>
+      </c>
+      <c r="AB128">
+        <v>5.4</v>
+      </c>
+      <c r="AC128">
+        <v>1.02</v>
+      </c>
+      <c r="AD128">
+        <v>19</v>
+      </c>
+      <c r="AE128">
+        <v>1.14</v>
+      </c>
+      <c r="AF128">
+        <v>5.5</v>
+      </c>
+      <c r="AG128">
+        <v>1.46</v>
+      </c>
+      <c r="AH128">
+        <v>2.6</v>
+      </c>
+      <c r="AI128">
+        <v>1.58</v>
+      </c>
+      <c r="AJ128">
+        <v>2.48</v>
+      </c>
+      <c r="AK128">
+        <v>1.15</v>
+      </c>
+      <c r="AL128">
+        <v>1.15</v>
+      </c>
+      <c r="AM128">
+        <v>2.4</v>
+      </c>
+      <c r="AN128">
+        <v>2.33</v>
+      </c>
+      <c r="AO128">
+        <v>1.67</v>
+      </c>
+      <c r="AP128">
+        <v>2.43</v>
+      </c>
+      <c r="AQ128">
+        <v>1.43</v>
+      </c>
+      <c r="AR128">
+        <v>1.73</v>
+      </c>
+      <c r="AS128">
+        <v>1.52</v>
+      </c>
+      <c r="AT128">
+        <v>3.25</v>
+      </c>
+      <c r="AU128">
+        <v>4</v>
+      </c>
+      <c r="AV128">
+        <v>1</v>
+      </c>
+      <c r="AW128">
+        <v>6</v>
+      </c>
+      <c r="AX128">
+        <v>5</v>
+      </c>
+      <c r="AY128">
+        <v>10</v>
+      </c>
+      <c r="AZ128">
+        <v>6</v>
+      </c>
+      <c r="BA128">
+        <v>6</v>
+      </c>
+      <c r="BB128">
+        <v>4</v>
+      </c>
+      <c r="BC128">
+        <v>10</v>
+      </c>
+      <c r="BD128">
+        <v>1.31</v>
+      </c>
+      <c r="BE128">
+        <v>8.5</v>
+      </c>
+      <c r="BF128">
+        <v>4.9</v>
+      </c>
+      <c r="BG128">
+        <v>1.15</v>
+      </c>
+      <c r="BH128">
+        <v>3.95</v>
+      </c>
+      <c r="BI128">
+        <v>1.36</v>
+      </c>
+      <c r="BJ128">
+        <v>2.98</v>
+      </c>
+      <c r="BK128">
+        <v>1.6</v>
+      </c>
+      <c r="BL128">
+        <v>2.27</v>
+      </c>
+      <c r="BM128">
+        <v>2.05</v>
+      </c>
+      <c r="BN128">
+        <v>1.73</v>
+      </c>
+      <c r="BO128">
+        <v>2.7</v>
+      </c>
+      <c r="BP128">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>8227725</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>46011.47916666666</v>
+      </c>
+      <c r="F129">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s">
+        <v>79</v>
+      </c>
+      <c r="H129" t="s">
+        <v>72</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>2</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>183</v>
+      </c>
+      <c r="P129" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q129">
+        <v>3.1</v>
+      </c>
+      <c r="R129">
+        <v>2.3</v>
+      </c>
+      <c r="S129">
+        <v>3.2</v>
+      </c>
+      <c r="T129">
+        <v>1.3</v>
+      </c>
+      <c r="U129">
+        <v>3.24</v>
+      </c>
+      <c r="V129">
+        <v>2.61</v>
+      </c>
+      <c r="W129">
+        <v>1.5</v>
+      </c>
+      <c r="X129">
+        <v>5.75</v>
+      </c>
+      <c r="Y129">
+        <v>1.09</v>
+      </c>
+      <c r="Z129">
+        <v>2.64</v>
+      </c>
+      <c r="AA129">
+        <v>3.53</v>
+      </c>
+      <c r="AB129">
+        <v>2.45</v>
+      </c>
+      <c r="AC129">
+        <v>1.02</v>
+      </c>
+      <c r="AD129">
+        <v>9.5</v>
+      </c>
+      <c r="AE129">
+        <v>1.18</v>
+      </c>
+      <c r="AF129">
+        <v>4.1</v>
+      </c>
+      <c r="AG129">
+        <v>1.57</v>
+      </c>
+      <c r="AH129">
+        <v>2.25</v>
+      </c>
+      <c r="AI129">
+        <v>1.57</v>
+      </c>
+      <c r="AJ129">
+        <v>2.25</v>
+      </c>
+      <c r="AK129">
+        <v>1.51</v>
+      </c>
+      <c r="AL129">
+        <v>1.33</v>
+      </c>
+      <c r="AM129">
+        <v>1.53</v>
+      </c>
+      <c r="AN129">
+        <v>1.86</v>
+      </c>
+      <c r="AO129">
+        <v>1.57</v>
+      </c>
+      <c r="AP129">
+        <v>1.75</v>
+      </c>
+      <c r="AQ129">
+        <v>1.5</v>
+      </c>
+      <c r="AR129">
+        <v>1.56</v>
+      </c>
+      <c r="AS129">
+        <v>1.44</v>
+      </c>
+      <c r="AT129">
+        <v>3</v>
+      </c>
+      <c r="AU129">
+        <v>3</v>
+      </c>
+      <c r="AV129">
+        <v>3</v>
+      </c>
+      <c r="AW129">
+        <v>6</v>
+      </c>
+      <c r="AX129">
+        <v>6</v>
+      </c>
+      <c r="AY129">
+        <v>9</v>
+      </c>
+      <c r="AZ129">
+        <v>9</v>
+      </c>
+      <c r="BA129">
+        <v>5</v>
+      </c>
+      <c r="BB129">
+        <v>5</v>
+      </c>
+      <c r="BC129">
+        <v>10</v>
+      </c>
+      <c r="BD129">
+        <v>1.94</v>
+      </c>
+      <c r="BE129">
+        <v>6.9</v>
+      </c>
+      <c r="BF129">
+        <v>2.21</v>
+      </c>
+      <c r="BG129">
+        <v>1.27</v>
+      </c>
+      <c r="BH129">
+        <v>3.14</v>
+      </c>
+      <c r="BI129">
+        <v>1.6</v>
+      </c>
+      <c r="BJ129">
+        <v>2.25</v>
+      </c>
+      <c r="BK129">
+        <v>1.83</v>
+      </c>
+      <c r="BL129">
+        <v>1.78</v>
+      </c>
+      <c r="BM129">
+        <v>2.48</v>
+      </c>
+      <c r="BN129">
+        <v>1.48</v>
+      </c>
+      <c r="BO129">
+        <v>3.27</v>
+      </c>
+      <c r="BP129">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>8227684</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>46011.47916666666</v>
+      </c>
+      <c r="F130">
+        <v>15</v>
+      </c>
+      <c r="G130" t="s">
+        <v>81</v>
+      </c>
+      <c r="H130" t="s">
+        <v>80</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130" t="s">
+        <v>95</v>
+      </c>
+      <c r="P130" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q130">
+        <v>2.42</v>
+      </c>
+      <c r="R130">
+        <v>2.53</v>
+      </c>
+      <c r="S130">
+        <v>3.6</v>
+      </c>
+      <c r="T130">
+        <v>1.25</v>
+      </c>
+      <c r="U130">
+        <v>3.75</v>
+      </c>
+      <c r="V130">
+        <v>2.19</v>
+      </c>
+      <c r="W130">
+        <v>1.7</v>
+      </c>
+      <c r="X130">
+        <v>4.5</v>
+      </c>
+      <c r="Y130">
+        <v>1.17</v>
+      </c>
+      <c r="Z130">
+        <v>1.93</v>
+      </c>
+      <c r="AA130">
+        <v>3.79</v>
+      </c>
+      <c r="AB130">
+        <v>3.47</v>
+      </c>
+      <c r="AC130">
+        <v>1.01</v>
+      </c>
+      <c r="AD130">
+        <v>17</v>
+      </c>
+      <c r="AE130">
+        <v>1.09</v>
+      </c>
+      <c r="AF130">
+        <v>5.35</v>
+      </c>
+      <c r="AG130">
+        <v>1.46</v>
+      </c>
+      <c r="AH130">
+        <v>2.6</v>
+      </c>
+      <c r="AI130">
+        <v>1.44</v>
+      </c>
+      <c r="AJ130">
+        <v>2.63</v>
+      </c>
+      <c r="AK130">
+        <v>1.35</v>
+      </c>
+      <c r="AL130">
+        <v>1.24</v>
+      </c>
+      <c r="AM130">
+        <v>1.77</v>
+      </c>
+      <c r="AN130">
+        <v>2.5</v>
+      </c>
+      <c r="AO130">
+        <v>2</v>
+      </c>
+      <c r="AP130">
+        <v>2.29</v>
+      </c>
+      <c r="AQ130">
+        <v>1.88</v>
+      </c>
+      <c r="AR130">
+        <v>1.72</v>
+      </c>
+      <c r="AS130">
+        <v>1.47</v>
+      </c>
+      <c r="AT130">
+        <v>3.19</v>
+      </c>
+      <c r="AU130">
+        <v>3</v>
+      </c>
+      <c r="AV130">
+        <v>1</v>
+      </c>
+      <c r="AW130">
+        <v>7</v>
+      </c>
+      <c r="AX130">
+        <v>3</v>
+      </c>
+      <c r="AY130">
+        <v>10</v>
+      </c>
+      <c r="AZ130">
+        <v>4</v>
+      </c>
+      <c r="BA130">
+        <v>4</v>
+      </c>
+      <c r="BB130">
+        <v>2</v>
+      </c>
+      <c r="BC130">
+        <v>6</v>
+      </c>
+      <c r="BD130">
+        <v>1.52</v>
+      </c>
+      <c r="BE130">
+        <v>9</v>
+      </c>
+      <c r="BF130">
+        <v>2.9</v>
+      </c>
+      <c r="BG130">
+        <v>1.24</v>
+      </c>
+      <c r="BH130">
+        <v>3.96</v>
+      </c>
+      <c r="BI130">
+        <v>1.37</v>
+      </c>
+      <c r="BJ130">
+        <v>2.83</v>
+      </c>
+      <c r="BK130">
+        <v>1.63</v>
+      </c>
+      <c r="BL130">
+        <v>2.2</v>
+      </c>
+      <c r="BM130">
+        <v>1.99</v>
+      </c>
+      <c r="BN130">
+        <v>1.76</v>
+      </c>
+      <c r="BO130">
+        <v>2.48</v>
+      </c>
+      <c r="BP130">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>8227701</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>46011.47916666666</v>
+      </c>
+      <c r="F131">
+        <v>15</v>
+      </c>
+      <c r="G131" t="s">
+        <v>87</v>
+      </c>
+      <c r="H131" t="s">
+        <v>73</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>95</v>
+      </c>
+      <c r="P131" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q131">
+        <v>3.1</v>
+      </c>
+      <c r="R131">
+        <v>2.13</v>
+      </c>
+      <c r="S131">
+        <v>3.35</v>
+      </c>
+      <c r="T131">
+        <v>1.42</v>
+      </c>
+      <c r="U131">
+        <v>2.85</v>
+      </c>
+      <c r="V131">
+        <v>2.75</v>
+      </c>
+      <c r="W131">
+        <v>1.42</v>
+      </c>
+      <c r="X131">
+        <v>7</v>
+      </c>
+      <c r="Y131">
+        <v>1.06</v>
+      </c>
+      <c r="Z131">
+        <v>2.4</v>
+      </c>
+      <c r="AA131">
+        <v>3.23</v>
+      </c>
+      <c r="AB131">
+        <v>2.91</v>
+      </c>
+      <c r="AC131">
+        <v>1.05</v>
+      </c>
+      <c r="AD131">
+        <v>9.5</v>
+      </c>
+      <c r="AE131">
+        <v>1.3</v>
+      </c>
+      <c r="AF131">
+        <v>3.4</v>
+      </c>
+      <c r="AG131">
+        <v>1.92</v>
+      </c>
+      <c r="AH131">
+        <v>1.82</v>
+      </c>
+      <c r="AI131">
+        <v>1.7</v>
+      </c>
+      <c r="AJ131">
+        <v>2.03</v>
+      </c>
+      <c r="AK131">
+        <v>1.33</v>
+      </c>
+      <c r="AL131">
+        <v>1.28</v>
+      </c>
+      <c r="AM131">
+        <v>1.44</v>
+      </c>
+      <c r="AN131">
+        <v>1.33</v>
+      </c>
+      <c r="AO131">
+        <v>1</v>
+      </c>
+      <c r="AP131">
+        <v>1.14</v>
+      </c>
+      <c r="AQ131">
+        <v>1.29</v>
+      </c>
+      <c r="AR131">
+        <v>1.65</v>
+      </c>
+      <c r="AS131">
+        <v>1.31</v>
+      </c>
+      <c r="AT131">
+        <v>2.96</v>
+      </c>
+      <c r="AU131">
+        <v>2</v>
+      </c>
+      <c r="AV131">
+        <v>3</v>
+      </c>
+      <c r="AW131">
+        <v>11</v>
+      </c>
+      <c r="AX131">
+        <v>8</v>
+      </c>
+      <c r="AY131">
+        <v>13</v>
+      </c>
+      <c r="AZ131">
+        <v>11</v>
+      </c>
+      <c r="BA131">
+        <v>3</v>
+      </c>
+      <c r="BB131">
+        <v>6</v>
+      </c>
+      <c r="BC131">
+        <v>9</v>
+      </c>
+      <c r="BD131">
+        <v>1.8</v>
+      </c>
+      <c r="BE131">
+        <v>7.4</v>
+      </c>
+      <c r="BF131">
+        <v>2.45</v>
+      </c>
+      <c r="BG131">
+        <v>1.2</v>
+      </c>
+      <c r="BH131">
+        <v>3.6</v>
+      </c>
+      <c r="BI131">
+        <v>1.4</v>
+      </c>
+      <c r="BJ131">
+        <v>2.6</v>
+      </c>
+      <c r="BK131">
+        <v>1.72</v>
+      </c>
+      <c r="BL131">
+        <v>2.05</v>
+      </c>
+      <c r="BM131">
+        <v>2.14</v>
+      </c>
+      <c r="BN131">
+        <v>1.66</v>
+      </c>
+      <c r="BO131">
+        <v>2.68</v>
+      </c>
+      <c r="BP131">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>8227544</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>46011.47916666666</v>
+      </c>
+      <c r="F132">
+        <v>15</v>
+      </c>
+      <c r="G132" t="s">
+        <v>85</v>
+      </c>
+      <c r="H132" t="s">
+        <v>71</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <v>3</v>
+      </c>
+      <c r="M132">
+        <v>4</v>
+      </c>
+      <c r="N132">
+        <v>7</v>
+      </c>
+      <c r="O132" t="s">
+        <v>184</v>
+      </c>
+      <c r="P132" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q132">
+        <v>3</v>
+      </c>
+      <c r="R132">
+        <v>2.2</v>
+      </c>
+      <c r="S132">
+        <v>3.32</v>
+      </c>
+      <c r="T132">
+        <v>1.29</v>
+      </c>
+      <c r="U132">
+        <v>3.12</v>
+      </c>
+      <c r="V132">
+        <v>2.63</v>
+      </c>
+      <c r="W132">
+        <v>1.48</v>
+      </c>
+      <c r="X132">
+        <v>6.2</v>
+      </c>
+      <c r="Y132">
+        <v>1.09</v>
+      </c>
+      <c r="Z132">
+        <v>2.56</v>
+      </c>
+      <c r="AA132">
+        <v>3.56</v>
+      </c>
+      <c r="AB132">
+        <v>2.51</v>
+      </c>
+      <c r="AC132">
+        <v>1.02</v>
+      </c>
+      <c r="AD132">
+        <v>11</v>
+      </c>
+      <c r="AE132">
+        <v>1.28</v>
+      </c>
+      <c r="AF132">
+        <v>3.6</v>
+      </c>
+      <c r="AG132">
+        <v>1.77</v>
+      </c>
+      <c r="AH132">
+        <v>1.98</v>
+      </c>
+      <c r="AI132">
+        <v>1.62</v>
+      </c>
+      <c r="AJ132">
+        <v>2.2</v>
+      </c>
+      <c r="AK132">
+        <v>1.3</v>
+      </c>
+      <c r="AL132">
+        <v>1.25</v>
+      </c>
+      <c r="AM132">
+        <v>1.54</v>
+      </c>
+      <c r="AN132">
+        <v>0.71</v>
+      </c>
+      <c r="AO132">
+        <v>0.71</v>
+      </c>
+      <c r="AP132">
+        <v>0.63</v>
+      </c>
+      <c r="AQ132">
+        <v>1</v>
+      </c>
+      <c r="AR132">
+        <v>1.57</v>
+      </c>
+      <c r="AS132">
+        <v>1.24</v>
+      </c>
+      <c r="AT132">
+        <v>2.81</v>
+      </c>
+      <c r="AU132">
+        <v>6</v>
+      </c>
+      <c r="AV132">
+        <v>8</v>
+      </c>
+      <c r="AW132">
+        <v>7</v>
+      </c>
+      <c r="AX132">
+        <v>7</v>
+      </c>
+      <c r="AY132">
+        <v>13</v>
+      </c>
+      <c r="AZ132">
+        <v>15</v>
+      </c>
+      <c r="BA132">
+        <v>2</v>
+      </c>
+      <c r="BB132">
+        <v>6</v>
+      </c>
+      <c r="BC132">
+        <v>8</v>
+      </c>
+      <c r="BD132">
+        <v>2.23</v>
+      </c>
+      <c r="BE132">
+        <v>6.4</v>
+      </c>
+      <c r="BF132">
+        <v>2.07</v>
+      </c>
+      <c r="BG132">
+        <v>1.27</v>
+      </c>
+      <c r="BH132">
+        <v>2.95</v>
+      </c>
+      <c r="BI132">
+        <v>1.59</v>
+      </c>
+      <c r="BJ132">
+        <v>2.18</v>
+      </c>
+      <c r="BK132">
+        <v>1.96</v>
+      </c>
+      <c r="BL132">
+        <v>1.8</v>
+      </c>
+      <c r="BM132">
+        <v>2.45</v>
+      </c>
+      <c r="BN132">
+        <v>1.44</v>
+      </c>
+      <c r="BO132">
+        <v>3.35</v>
+      </c>
+      <c r="BP132">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>8227795</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>46011.47916666666</v>
+      </c>
+      <c r="F133">
+        <v>15</v>
+      </c>
+      <c r="G133" t="s">
+        <v>84</v>
+      </c>
+      <c r="H133" t="s">
+        <v>82</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133" t="s">
+        <v>95</v>
+      </c>
+      <c r="P133" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q133">
+        <v>2.69</v>
+      </c>
+      <c r="R133">
+        <v>2.1</v>
+      </c>
+      <c r="S133">
+        <v>3.35</v>
+      </c>
+      <c r="T133">
+        <v>1.36</v>
+      </c>
+      <c r="U133">
+        <v>3.12</v>
+      </c>
+      <c r="V133">
+        <v>2.62</v>
+      </c>
+      <c r="W133">
+        <v>1.5</v>
+      </c>
+      <c r="X133">
+        <v>5.5</v>
+      </c>
+      <c r="Y133">
+        <v>1.09</v>
+      </c>
+      <c r="Z133">
+        <v>2.18</v>
+      </c>
+      <c r="AA133">
+        <v>3.5</v>
+      </c>
+      <c r="AB133">
+        <v>3.07</v>
+      </c>
+      <c r="AC133">
+        <v>1.05</v>
+      </c>
+      <c r="AD133">
+        <v>11</v>
+      </c>
+      <c r="AE133">
+        <v>1.19</v>
+      </c>
+      <c r="AF133">
+        <v>4.4</v>
+      </c>
+      <c r="AG133">
+        <v>1.84</v>
+      </c>
+      <c r="AH133">
+        <v>1.97</v>
+      </c>
+      <c r="AI133">
+        <v>1.63</v>
+      </c>
+      <c r="AJ133">
+        <v>2.28</v>
+      </c>
+      <c r="AK133">
+        <v>1.25</v>
+      </c>
+      <c r="AL133">
+        <v>1.25</v>
+      </c>
+      <c r="AM133">
+        <v>1.6</v>
+      </c>
+      <c r="AN133">
+        <v>1.29</v>
+      </c>
+      <c r="AO133">
+        <v>0.71</v>
+      </c>
+      <c r="AP133">
+        <v>1.25</v>
+      </c>
+      <c r="AQ133">
+        <v>0.75</v>
+      </c>
+      <c r="AR133">
+        <v>1.4</v>
+      </c>
+      <c r="AS133">
+        <v>1.21</v>
+      </c>
+      <c r="AT133">
+        <v>2.61</v>
+      </c>
+      <c r="AU133">
+        <v>6</v>
+      </c>
+      <c r="AV133">
+        <v>0</v>
+      </c>
+      <c r="AW133">
+        <v>8</v>
+      </c>
+      <c r="AX133">
+        <v>9</v>
+      </c>
+      <c r="AY133">
+        <v>14</v>
+      </c>
+      <c r="AZ133">
+        <v>9</v>
+      </c>
+      <c r="BA133">
+        <v>6</v>
+      </c>
+      <c r="BB133">
+        <v>11</v>
+      </c>
+      <c r="BC133">
+        <v>17</v>
+      </c>
+      <c r="BD133">
+        <v>1.65</v>
+      </c>
+      <c r="BE133">
+        <v>6.8</v>
+      </c>
+      <c r="BF133">
+        <v>2.5</v>
+      </c>
+      <c r="BG133">
+        <v>1.22</v>
+      </c>
+      <c r="BH133">
+        <v>3.46</v>
+      </c>
+      <c r="BI133">
+        <v>1.5</v>
+      </c>
+      <c r="BJ133">
+        <v>2.52</v>
+      </c>
+      <c r="BK133">
+        <v>1.98</v>
+      </c>
+      <c r="BL133">
+        <v>1.99</v>
+      </c>
+      <c r="BM133">
+        <v>2.21</v>
+      </c>
+      <c r="BN133">
+        <v>1.62</v>
+      </c>
+      <c r="BO133">
+        <v>2.78</v>
+      </c>
+      <c r="BP133">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP134"/>
+  <dimension ref="A1:BP135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AQ9" t="n">
         <v>1</v>
@@ -2881,7 +2881,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.38</v>
@@ -6805,7 +6805,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR29" t="n">
         <v>1.54</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.88</v>
@@ -11601,7 +11601,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR51" t="n">
         <v>1.46</v>
@@ -12906,7 +12906,7 @@
         <v>2</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.86</v>
@@ -15307,7 +15307,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR68" t="n">
         <v>1.67</v>
@@ -17266,7 +17266,7 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.75</v>
@@ -19885,7 +19885,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR89" t="n">
         <v>1.42</v>
@@ -20536,7 +20536,7 @@
         <v>2.6</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.88</v>
@@ -22719,7 +22719,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR102" t="n">
         <v>2.37</v>
@@ -24460,7 +24460,7 @@
         <v>1.4</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.43</v>
@@ -25335,7 +25335,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR114" t="n">
         <v>1.68</v>
@@ -29771,6 +29771,224 @@
       </c>
       <c r="BP134" t="n">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>8227683</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>46012.47916666666</v>
+      </c>
+      <c r="F135" t="n">
+        <v>15</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R135" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="S135" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="T135" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="V135" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X135" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BL135" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM135" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN135" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO135" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BP135" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP135"/>
+  <dimension ref="A1:BP136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.43</v>
@@ -3971,7 +3971,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.88</v>
@@ -7677,7 +7677,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR33" t="n">
         <v>1.91</v>
@@ -8982,7 +8982,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.57</v>
@@ -11819,7 +11819,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ52" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR52" t="n">
         <v>2.17</v>
@@ -13778,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.75</v>
@@ -15743,7 +15743,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ70" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR70" t="n">
         <v>1.58</v>
@@ -17048,7 +17048,7 @@
         <v>1.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.5</v>
@@ -18795,7 +18795,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR84" t="n">
         <v>1.39</v>
@@ -20754,7 +20754,7 @@
         <v>1</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.43</v>
@@ -24681,7 +24681,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ111" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR111" t="n">
         <v>1.85</v>
@@ -25550,7 +25550,7 @@
         <v>0.83</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ115" t="n">
         <v>1</v>
@@ -29989,6 +29989,224 @@
       </c>
       <c r="BP135" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>8227794</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>46012.5625</v>
+      </c>
+      <c r="F136" t="n">
+        <v>15</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2</v>
+      </c>
+      <c r="K136" t="n">
+        <v>2</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>4</v>
+      </c>
+      <c r="N136" t="n">
+        <v>4</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>['15', '32', '86', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="R136" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S136" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T136" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U136" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="V136" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="X136" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL136" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM136" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN136" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO136" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BP136" t="n">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E70" s="2" t="n">
-        <v>45955.4375</v>
+        <v>45955.44791666666</v>
       </c>
       <c r="F70" t="n">
         <v>8</v>
@@ -25466,7 +25466,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>['59', '90+4']</t>
+          <t>['58', '90+4']</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP137"/>
+  <dimension ref="A1:BP140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.57</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.25</v>
@@ -2663,7 +2663,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.25</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.88</v>
@@ -6151,7 +6151,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR26" t="n">
         <v>2.26</v>
@@ -7241,7 +7241,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR31" t="n">
         <v>1.1</v>
@@ -10072,7 +10072,7 @@
         <v>3</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.88</v>
@@ -10508,10 +10508,10 @@
         <v>0.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR46" t="n">
         <v>1.49</v>
@@ -12255,7 +12255,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR54" t="n">
         <v>1.51</v>
@@ -12688,7 +12688,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.43</v>
@@ -13127,7 +13127,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR58" t="n">
         <v>2.01</v>
@@ -14214,7 +14214,7 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.5</v>
@@ -16397,7 +16397,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR73" t="n">
         <v>1.81</v>
@@ -16830,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ75" t="n">
         <v>1</v>
@@ -18141,7 +18141,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR81" t="n">
         <v>1.54</v>
@@ -18792,7 +18792,7 @@
         <v>3</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.71</v>
@@ -19882,7 +19882,7 @@
         <v>0.75</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.63</v>
@@ -20321,7 +20321,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR91" t="n">
         <v>1.57</v>
@@ -21193,7 +21193,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR95" t="n">
         <v>1.35</v>
@@ -23370,7 +23370,7 @@
         <v>0</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.43</v>
@@ -24242,10 +24242,10 @@
         <v>0.8</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR109" t="n">
         <v>1.34</v>
@@ -26422,7 +26422,7 @@
         <v>1.57</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.38</v>
@@ -26643,7 +26643,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR120" t="n">
         <v>1.63</v>
@@ -27730,7 +27730,7 @@
         <v>2</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.78</v>
@@ -27951,7 +27951,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR126" t="n">
         <v>2.34</v>
@@ -30425,6 +30425,660 @@
       </c>
       <c r="BP137" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>8227752</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>46032.47916666666</v>
+      </c>
+      <c r="F138" t="n">
+        <v>16</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>2</v>
+      </c>
+      <c r="M138" t="n">
+        <v>2</v>
+      </c>
+      <c r="N138" t="n">
+        <v>4</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['77', '86']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['30', '69']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R138" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S138" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T138" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="V138" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X138" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL138" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM138" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BN138" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO138" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP138" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>8227793</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>46032.47916666666</v>
+      </c>
+      <c r="F139" t="n">
+        <v>16</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>2</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="n">
+        <v>3</v>
+      </c>
+      <c r="L139" t="n">
+        <v>2</v>
+      </c>
+      <c r="M139" t="n">
+        <v>2</v>
+      </c>
+      <c r="N139" t="n">
+        <v>4</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['15', '26']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['18', '48']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R139" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="S139" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T139" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U139" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="V139" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X139" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BL139" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM139" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN139" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO139" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP139" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>8227565</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>46032.47916666666</v>
+      </c>
+      <c r="F140" t="n">
+        <v>16</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>2</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="n">
+        <v>3</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['53', '83']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="R140" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S140" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="T140" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V140" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X140" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL140" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BM140" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BN140" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO140" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BP140" t="n">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP140"/>
+  <dimension ref="A1:BP141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,7 +1573,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.88</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.5</v>
@@ -5279,7 +5279,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR22" t="n">
         <v>1.66</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.43</v>
@@ -10293,7 +10293,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR45" t="n">
         <v>1.71</v>
@@ -11162,7 +11162,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.29</v>
@@ -13345,7 +13345,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR59" t="n">
         <v>1.52</v>
@@ -16176,7 +16176,7 @@
         <v>1.33</v>
       </c>
       <c r="AP72" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ72" t="n">
         <v>1</v>
@@ -17705,7 +17705,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR79" t="n">
         <v>1.67</v>
@@ -19228,7 +19228,7 @@
         <v>0</v>
       </c>
       <c r="AP86" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.43</v>
@@ -20975,7 +20975,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR94" t="n">
         <v>1.9</v>
@@ -23588,7 +23588,7 @@
         <v>1.83</v>
       </c>
       <c r="AP106" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.78</v>
@@ -23809,7 +23809,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR107" t="n">
         <v>1.7</v>
@@ -27512,7 +27512,7 @@
         <v>1.14</v>
       </c>
       <c r="AP124" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ124" t="n">
         <v>1</v>
@@ -28169,7 +28169,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR127" t="n">
         <v>1.68</v>
@@ -31079,6 +31079,224 @@
       </c>
       <c r="BP140" t="n">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>8227753</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>46032.60416666666</v>
+      </c>
+      <c r="F141" t="n">
+        <v>16</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>4</v>
+      </c>
+      <c r="K141" t="n">
+        <v>4</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="n">
+        <v>4</v>
+      </c>
+      <c r="N141" t="n">
+        <v>5</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['7', '29', '45', '45+2']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R141" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S141" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T141" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U141" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="V141" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X141" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL141" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM141" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BN141" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO141" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP141" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP141"/>
+  <dimension ref="A1:BP143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.38</v>
@@ -1137,7 +1137,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.25</v>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.25</v>
@@ -6369,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR27" t="n">
         <v>1.61</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.75</v>
@@ -8549,7 +8549,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR37" t="n">
         <v>1.5</v>
@@ -8764,7 +8764,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.75</v>
@@ -8985,7 +8985,7 @@
         <v>1</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR39" t="n">
         <v>0.7</v>
@@ -9854,7 +9854,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.5</v>
@@ -10947,7 +10947,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR48" t="n">
         <v>1.48</v>
@@ -12470,7 +12470,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ55" t="n">
         <v>1</v>
@@ -13563,7 +13563,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR60" t="n">
         <v>1.7</v>
@@ -13996,7 +13996,7 @@
         <v>2.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.78</v>
@@ -14871,7 +14871,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR66" t="n">
         <v>1.59</v>
@@ -15740,7 +15740,7 @@
         <v>3</v>
       </c>
       <c r="AP70" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ70" t="n">
         <v>2.71</v>
@@ -17920,7 +17920,7 @@
         <v>2.33</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.86</v>
@@ -18577,7 +18577,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR83" t="n">
         <v>1.5</v>
@@ -19664,7 +19664,7 @@
         <v>1.4</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ88" t="n">
         <v>1</v>
@@ -20103,7 +20103,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR90" t="n">
         <v>1.86</v>
@@ -21408,7 +21408,7 @@
         <v>1</v>
       </c>
       <c r="AP96" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ96" t="n">
         <v>1</v>
@@ -22498,7 +22498,7 @@
         <v>1.67</v>
       </c>
       <c r="AP101" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.38</v>
@@ -22716,7 +22716,7 @@
         <v>0.6</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.63</v>
@@ -22937,7 +22937,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR103" t="n">
         <v>1.61</v>
@@ -24027,7 +24027,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR108" t="n">
         <v>1.56</v>
@@ -27079,7 +27079,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR122" t="n">
         <v>1.58</v>
@@ -27294,10 +27294,10 @@
         <v>1.17</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR123" t="n">
         <v>1.18</v>
@@ -27948,7 +27948,7 @@
         <v>0.67</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.75</v>
@@ -30585,13 +30585,13 @@
         <v>6</v>
       </c>
       <c r="AW138" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX138" t="n">
         <v>3</v>
       </c>
       <c r="AY138" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ138" t="n">
         <v>9</v>
@@ -31297,6 +31297,442 @@
       </c>
       <c r="BP141" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>8227549</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>46033.47916666666</v>
+      </c>
+      <c r="F142" t="n">
+        <v>16</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Borussia M'gladbach</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>3</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>3</v>
+      </c>
+      <c r="L142" t="n">
+        <v>4</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>4</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['8', '20', '36', '61']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R142" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S142" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T142" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U142" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="V142" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X142" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BL142" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM142" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN142" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO142" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP142" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>8227755</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>46033.5625</v>
+      </c>
+      <c r="F143" t="n">
+        <v>16</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>2</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="n">
+        <v>3</v>
+      </c>
+      <c r="L143" t="n">
+        <v>8</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="n">
+        <v>9</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['5', '30', '50', '53', '68', '69', '76', '88']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R143" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S143" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T143" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U143" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="V143" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="W143" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="X143" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>19</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL143" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BM143" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BN143" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BO143" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BP143" t="n">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP143"/>
+  <dimension ref="A1:BP146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AQ9" t="n">
         <v>1</v>
@@ -3099,7 +3099,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.43</v>
@@ -3753,7 +3753,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.29</v>
@@ -4843,7 +4843,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR20" t="n">
         <v>0.96</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.38</v>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR28" t="n">
         <v>1.83</v>
@@ -6802,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.63</v>
@@ -7459,7 +7459,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR32" t="n">
         <v>0.71</v>
@@ -8546,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.25</v>
@@ -8767,7 +8767,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR38" t="n">
         <v>2.52</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.78</v>
@@ -9857,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR43" t="n">
         <v>1.84</v>
@@ -11380,7 +11380,7 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.38</v>
@@ -12034,10 +12034,10 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR53" t="n">
         <v>1.74</v>
@@ -12906,7 +12906,7 @@
         <v>2</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.86</v>
@@ -13781,7 +13781,7 @@
         <v>1</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR61" t="n">
         <v>0.91</v>
@@ -14217,7 +14217,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR63" t="n">
         <v>1.39</v>
@@ -15525,7 +15525,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR69" t="n">
         <v>1.66</v>
@@ -15958,7 +15958,7 @@
         <v>1.75</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ71" t="n">
         <v>1</v>
@@ -16394,7 +16394,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.75</v>
@@ -17051,7 +17051,7 @@
         <v>1</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR76" t="n">
         <v>1.51</v>
@@ -17266,10 +17266,10 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR77" t="n">
         <v>1.43</v>
@@ -19231,7 +19231,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR86" t="n">
         <v>1.68</v>
@@ -20100,7 +20100,7 @@
         <v>1</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.5</v>
@@ -20536,7 +20536,7 @@
         <v>2.6</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.88</v>
@@ -20972,7 +20972,7 @@
         <v>1.2</v>
       </c>
       <c r="AP94" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.44</v>
@@ -21847,7 +21847,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR98" t="n">
         <v>1.76</v>
@@ -22065,7 +22065,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR99" t="n">
         <v>1.72</v>
@@ -23373,7 +23373,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR105" t="n">
         <v>1.38</v>
@@ -24460,7 +24460,7 @@
         <v>1.4</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.43</v>
@@ -24678,7 +24678,7 @@
         <v>2.6</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ111" t="n">
         <v>2.71</v>
@@ -25771,7 +25771,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR116" t="n">
         <v>1.91</v>
@@ -25989,7 +25989,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR117" t="n">
         <v>1.56</v>
@@ -26204,7 +26204,7 @@
         <v>2.33</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.88</v>
@@ -26861,7 +26861,7 @@
         <v>1</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR121" t="n">
         <v>1.54</v>
@@ -28384,7 +28384,7 @@
         <v>1.67</v>
       </c>
       <c r="AP128" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.43</v>
@@ -28605,7 +28605,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR129" t="n">
         <v>1.56</v>
@@ -28820,7 +28820,7 @@
         <v>2</v>
       </c>
       <c r="AP130" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.88</v>
@@ -29477,7 +29477,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR133" t="n">
         <v>1.4</v>
@@ -29910,7 +29910,7 @@
         <v>0.57</v>
       </c>
       <c r="AP135" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AQ135" t="n">
         <v>0.63</v>
@@ -31733,6 +31733,660 @@
       </c>
       <c r="BP143" t="n">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>8227560</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>46035.60416666666</v>
+      </c>
+      <c r="F144" t="n">
+        <v>17</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>2</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="n">
+        <v>3</v>
+      </c>
+      <c r="L144" t="n">
+        <v>3</v>
+      </c>
+      <c r="M144" t="n">
+        <v>2</v>
+      </c>
+      <c r="N144" t="n">
+        <v>5</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['27', '35', '87']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['5', '80']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="R144" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S144" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="T144" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U144" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="V144" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X144" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BL144" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM144" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN144" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO144" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="BP144" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>8227550</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>46035.6875</v>
+      </c>
+      <c r="F145" t="n">
+        <v>17</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>2</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="n">
+        <v>3</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['30', '48']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="R145" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S145" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T145" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U145" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="V145" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X145" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL145" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM145" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BN145" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO145" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP145" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>8227554</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>46035.6875</v>
+      </c>
+      <c r="F146" t="n">
+        <v>17</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>3</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>3</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['11', '75', '83']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R146" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S146" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="T146" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U146" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="V146" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X146" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL146" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BM146" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BN146" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BO146" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP146" t="n">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -26508,7 +26508,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>8227680</v>
+        <v>8227678</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -26528,197 +26528,197 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="n">
         <v>2</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="n">
+        <v>3</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>['35', '53']</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R120" t="n">
         <v>2</v>
       </c>
-      <c r="L120" t="n">
+      <c r="S120" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U120" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V120" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X120" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA120" t="n">
         <v>4</v>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="n">
-        <v>5</v>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>['8', '31', '65', '72']</t>
-        </is>
-      </c>
-      <c r="P120" t="inlineStr">
-        <is>
-          <t>['82']</t>
-        </is>
-      </c>
-      <c r="Q120" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R120" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="S120" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T120" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U120" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="V120" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="W120" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="X120" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="Y120" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Z120" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AA120" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB120" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC120" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD120" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE120" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AF120" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="AG120" t="n">
+      <c r="BB120" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BN120" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH120" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AI120" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AJ120" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AK120" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AL120" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AM120" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AN120" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AO120" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AP120" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AQ120" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AR120" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AS120" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AT120" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AU120" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV120" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW120" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX120" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY120" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ120" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA120" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB120" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC120" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD120" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BE120" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="BF120" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BG120" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="BH120" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="BI120" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="BJ120" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="BK120" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="BL120" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BM120" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="BN120" t="n">
-        <v>1.7</v>
-      </c>
       <c r="BO120" t="n">
-        <v>2.67</v>
+        <v>3.14</v>
       </c>
       <c r="BP120" t="n">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="121">
@@ -26726,7 +26726,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>8227678</v>
+        <v>8227676</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -26746,197 +26746,197 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Borussia M'gladbach</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I121" t="n">
         <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K121" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N121" t="n">
+        <v>4</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>['4', '30', '34']</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R121" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S121" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T121" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U121" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="V121" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X121" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB121" t="n">
         <v>3</v>
       </c>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>['35', '53']</t>
-        </is>
-      </c>
-      <c r="P121" t="inlineStr">
-        <is>
-          <t>['64']</t>
-        </is>
-      </c>
-      <c r="Q121" t="n">
+      <c r="BC121" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BO121" t="n">
         <v>2.5</v>
       </c>
-      <c r="R121" t="n">
-        <v>2</v>
-      </c>
-      <c r="S121" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="T121" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U121" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="V121" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="W121" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X121" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y121" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z121" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AA121" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AB121" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AC121" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD121" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE121" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AF121" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AG121" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AH121" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AI121" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AJ121" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AK121" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AL121" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AM121" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AN121" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AO121" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AP121" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ121" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AR121" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AS121" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT121" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AU121" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV121" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW121" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX121" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY121" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ121" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA121" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB121" t="n">
-        <v>11</v>
-      </c>
-      <c r="BC121" t="n">
-        <v>15</v>
-      </c>
-      <c r="BD121" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="BE121" t="n">
-        <v>8</v>
-      </c>
-      <c r="BF121" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BG121" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BH121" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="BI121" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="BJ121" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="BK121" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="BL121" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="BM121" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="BN121" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BO121" t="n">
-        <v>3.14</v>
-      </c>
       <c r="BP121" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="122">
@@ -27162,7 +27162,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>8227676</v>
+        <v>8227680</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -27182,194 +27182,194 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Borussia M'gladbach</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>2</v>
+      </c>
+      <c r="L123" t="n">
+        <v>4</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="n">
+        <v>5</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['8', '31', '65', '72']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R123" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S123" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U123" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="V123" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X123" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA123" t="n">
         <v>3</v>
-      </c>
-      <c r="K123" t="n">
-        <v>4</v>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="n">
-        <v>3</v>
-      </c>
-      <c r="N123" t="n">
-        <v>4</v>
-      </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>['22']</t>
-        </is>
-      </c>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>['4', '30', '34']</t>
-        </is>
-      </c>
-      <c r="Q123" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="R123" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="S123" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T123" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="U123" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="V123" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="W123" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="X123" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y123" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z123" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AA123" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="AB123" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="AC123" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD123" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE123" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AF123" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AG123" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AH123" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AI123" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AJ123" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AK123" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AL123" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AM123" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AN123" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AO123" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AP123" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ123" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AR123" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AS123" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AT123" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AU123" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV123" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW123" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX123" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY123" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ123" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA123" t="n">
-        <v>6</v>
       </c>
       <c r="BB123" t="n">
         <v>3</v>
       </c>
       <c r="BC123" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BD123" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="BE123" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="BF123" t="n">
-        <v>3.48</v>
+        <v>3.2</v>
       </c>
       <c r="BG123" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="BH123" t="n">
-        <v>4.1</v>
+        <v>3.77</v>
       </c>
       <c r="BI123" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="BJ123" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="BK123" t="n">
-        <v>1.94</v>
+        <v>1.62</v>
       </c>
       <c r="BL123" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="BM123" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="BN123" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="BO123" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="BP123" t="n">
         <v>1.39</v>
@@ -28470,7 +28470,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>8227725</v>
+        <v>8227544</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -28490,12 +28490,12 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I129" t="n">
@@ -28508,179 +28508,179 @@
         <v>2</v>
       </c>
       <c r="L129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M129" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N129" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>['19']</t>
+          <t>['13', '49', '69']</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>['26']</t>
+          <t>['5', '56', '71', '78']</t>
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="R129" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S129" t="n">
-        <v>3.2</v>
+        <v>3.32</v>
       </c>
       <c r="T129" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U129" t="n">
-        <v>3.24</v>
+        <v>3.12</v>
       </c>
       <c r="V129" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="W129" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X129" t="n">
-        <v>5.75</v>
+        <v>6.2</v>
       </c>
       <c r="Y129" t="n">
         <v>1.09</v>
       </c>
       <c r="Z129" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="AA129" t="n">
-        <v>3.53</v>
+        <v>3.56</v>
       </c>
       <c r="AB129" t="n">
-        <v>2.45</v>
+        <v>2.51</v>
       </c>
       <c r="AC129" t="n">
         <v>1.02</v>
       </c>
       <c r="AD129" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AE129" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AF129" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="AG129" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR129" t="n">
         <v>1.57</v>
       </c>
-      <c r="AH129" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AI129" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AJ129" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AK129" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AL129" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AM129" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AN129" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AO129" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AP129" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AQ129" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AR129" t="n">
-        <v>1.56</v>
-      </c>
       <c r="AS129" t="n">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="AT129" t="n">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="AU129" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV129" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW129" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB129" t="n">
         <v>6</v>
       </c>
-      <c r="AX129" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY129" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ129" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA129" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB129" t="n">
-        <v>5</v>
-      </c>
       <c r="BC129" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD129" t="n">
-        <v>1.94</v>
+        <v>2.23</v>
       </c>
       <c r="BE129" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="BF129" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="BG129" t="n">
         <v>1.27</v>
       </c>
       <c r="BH129" t="n">
-        <v>3.14</v>
+        <v>2.95</v>
       </c>
       <c r="BI129" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="BJ129" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="BK129" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="BL129" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="BM129" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="BN129" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="BO129" t="n">
-        <v>3.27</v>
+        <v>3.35</v>
       </c>
       <c r="BP129" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="130">
@@ -28688,7 +28688,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>8227684</v>
+        <v>8227701</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -28708,12 +28708,12 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Köln</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I130" t="n">
@@ -28729,10 +28729,10 @@
         <v>0</v>
       </c>
       <c r="M130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -28741,164 +28741,164 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90+1']</t>
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>2.42</v>
+        <v>3.1</v>
       </c>
       <c r="R130" t="n">
-        <v>2.53</v>
+        <v>2.13</v>
       </c>
       <c r="S130" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V130" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X130" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH130" t="n">
         <v>3.6</v>
       </c>
-      <c r="T130" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U130" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="V130" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="W130" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X130" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Y130" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Z130" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AA130" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="AB130" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="AC130" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD130" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE130" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AF130" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="AG130" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AH130" t="n">
+      <c r="BI130" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ130" t="n">
         <v>2.6</v>
       </c>
-      <c r="AI130" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AJ130" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AK130" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AL130" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AM130" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AN130" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO130" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP130" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AQ130" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AR130" t="n">
+      <c r="BK130" t="n">
         <v>1.72</v>
       </c>
-      <c r="AS130" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AT130" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="AU130" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV130" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW130" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX130" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY130" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ130" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA130" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB130" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC130" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD130" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="BE130" t="n">
-        <v>9</v>
-      </c>
-      <c r="BF130" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="BG130" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="BH130" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="BI130" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="BJ130" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="BK130" t="n">
-        <v>1.63</v>
-      </c>
       <c r="BL130" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="BM130" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="BN130" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="BO130" t="n">
-        <v>2.48</v>
+        <v>2.68</v>
       </c>
       <c r="BP130" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="131">
@@ -28906,7 +28906,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>8227701</v>
+        <v>8227725</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -28926,197 +28926,197 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
       <c r="N131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['19']</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>['90+1']</t>
+          <t>['26']</t>
         </is>
       </c>
       <c r="Q131" t="n">
         <v>3.1</v>
       </c>
       <c r="R131" t="n">
-        <v>2.13</v>
+        <v>2.3</v>
       </c>
       <c r="S131" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="T131" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="U131" t="n">
-        <v>2.85</v>
+        <v>3.24</v>
       </c>
       <c r="V131" t="n">
-        <v>2.75</v>
+        <v>2.61</v>
       </c>
       <c r="W131" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="X131" t="n">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="Y131" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="Z131" t="n">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="AA131" t="n">
-        <v>3.23</v>
+        <v>3.53</v>
       </c>
       <c r="AB131" t="n">
-        <v>2.91</v>
+        <v>2.45</v>
       </c>
       <c r="AC131" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AD131" t="n">
         <v>9.5</v>
       </c>
       <c r="AE131" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AF131" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="AG131" t="n">
-        <v>1.92</v>
+        <v>1.57</v>
       </c>
       <c r="AH131" t="n">
-        <v>1.82</v>
+        <v>2.25</v>
       </c>
       <c r="AI131" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="AJ131" t="n">
-        <v>2.03</v>
+        <v>2.25</v>
       </c>
       <c r="AK131" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL131" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL131" t="n">
-        <v>1.28</v>
-      </c>
       <c r="AM131" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS131" t="n">
         <v>1.44</v>
       </c>
-      <c r="AN131" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AO131" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP131" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AQ131" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AR131" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AS131" t="n">
-        <v>1.31</v>
-      </c>
       <c r="AT131" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="AU131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV131" t="n">
         <v>3</v>
       </c>
       <c r="AW131" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AX131" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY131" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AZ131" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA131" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB131" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC131" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD131" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="BE131" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="BF131" t="n">
-        <v>2.45</v>
+        <v>2.21</v>
       </c>
       <c r="BG131" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="BH131" t="n">
-        <v>3.6</v>
+        <v>3.14</v>
       </c>
       <c r="BI131" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="BJ131" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="BK131" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="BL131" t="n">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="BM131" t="n">
-        <v>2.14</v>
+        <v>2.48</v>
       </c>
       <c r="BN131" t="n">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="BO131" t="n">
-        <v>2.68</v>
+        <v>3.27</v>
       </c>
       <c r="BP131" t="n">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="132">
@@ -29124,7 +29124,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>8227544</v>
+        <v>8227795</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -29144,197 +29144,197 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M132" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N132" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>['13', '49', '69']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>['5', '56', '71', '78']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>3</v>
+        <v>2.69</v>
       </c>
       <c r="R132" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S132" t="n">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="T132" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="U132" t="n">
         <v>3.12</v>
       </c>
       <c r="V132" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W132" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X132" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="Y132" t="n">
         <v>1.09</v>
       </c>
       <c r="Z132" t="n">
-        <v>2.56</v>
+        <v>2.18</v>
       </c>
       <c r="AA132" t="n">
-        <v>3.56</v>
+        <v>3.5</v>
       </c>
       <c r="AB132" t="n">
-        <v>2.51</v>
+        <v>3.07</v>
       </c>
       <c r="AC132" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AD132" t="n">
         <v>11</v>
       </c>
       <c r="AE132" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="AF132" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="AG132" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="AH132" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="AI132" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AJ132" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="AK132" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AL132" t="n">
         <v>1.25</v>
       </c>
       <c r="AM132" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="AN132" t="n">
-        <v>0.71</v>
+        <v>1.29</v>
       </c>
       <c r="AO132" t="n">
         <v>0.71</v>
       </c>
       <c r="AP132" t="n">
-        <v>0.63</v>
+        <v>1.25</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR132" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AT132" t="n">
-        <v>2.81</v>
+        <v>2.61</v>
       </c>
       <c r="AU132" t="n">
         <v>6</v>
       </c>
       <c r="AV132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW132" t="n">
         <v>8</v>
       </c>
-      <c r="AW132" t="n">
-        <v>7</v>
-      </c>
       <c r="AX132" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY132" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ132" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BA132" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB132" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BC132" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="BD132" t="n">
-        <v>2.23</v>
+        <v>1.65</v>
       </c>
       <c r="BE132" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="BF132" t="n">
-        <v>2.07</v>
+        <v>2.5</v>
       </c>
       <c r="BG132" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="BH132" t="n">
-        <v>2.95</v>
+        <v>3.46</v>
       </c>
       <c r="BI132" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="BJ132" t="n">
-        <v>2.18</v>
+        <v>2.52</v>
       </c>
       <c r="BK132" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="BL132" t="n">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="BM132" t="n">
-        <v>2.45</v>
+        <v>2.21</v>
       </c>
       <c r="BN132" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="BO132" t="n">
-        <v>3.35</v>
+        <v>2.78</v>
       </c>
       <c r="BP132" t="n">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="133">
@@ -29342,7 +29342,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>8227795</v>
+        <v>8227684</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -29362,12 +29362,12 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I133" t="n">
@@ -29399,160 +29399,160 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>2.69</v>
+        <v>2.42</v>
       </c>
       <c r="R133" t="n">
-        <v>2.1</v>
+        <v>2.53</v>
       </c>
       <c r="S133" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="T133" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="U133" t="n">
-        <v>3.12</v>
+        <v>3.75</v>
       </c>
       <c r="V133" t="n">
-        <v>2.62</v>
+        <v>2.19</v>
       </c>
       <c r="W133" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="X133" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y133" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE133" t="n">
         <v>1.09</v>
       </c>
-      <c r="Z133" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AA133" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AB133" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AC133" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD133" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE133" t="n">
-        <v>1.19</v>
-      </c>
       <c r="AF133" t="n">
-        <v>4.4</v>
+        <v>5.35</v>
       </c>
       <c r="AG133" t="n">
-        <v>1.84</v>
+        <v>1.46</v>
       </c>
       <c r="AH133" t="n">
-        <v>1.97</v>
+        <v>2.6</v>
       </c>
       <c r="AI133" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BK133" t="n">
         <v>1.63</v>
       </c>
-      <c r="AJ133" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AK133" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AL133" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AM133" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AN133" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AO133" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AP133" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AQ133" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AR133" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AS133" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AT133" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="AU133" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW133" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX133" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY133" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ133" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA133" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB133" t="n">
-        <v>11</v>
-      </c>
-      <c r="BC133" t="n">
-        <v>17</v>
-      </c>
-      <c r="BD133" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BE133" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="BF133" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BG133" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BH133" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="BI133" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BJ133" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="BK133" t="n">
-        <v>1.98</v>
-      </c>
       <c r="BL133" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM133" t="n">
         <v>1.99</v>
       </c>
-      <c r="BM133" t="n">
-        <v>2.21</v>
-      </c>
       <c r="BN133" t="n">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="BO133" t="n">
-        <v>2.78</v>
+        <v>2.48</v>
       </c>
       <c r="BP133" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="134">
@@ -31958,7 +31958,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>8227550</v>
+        <v>8227554</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -31978,12 +31978,12 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="I145" t="n">
@@ -31996,179 +31996,179 @@
         <v>1</v>
       </c>
       <c r="L145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N145" t="n">
         <v>3</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>['30', '48']</t>
+          <t>['11', '75', '83']</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>['60']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>2.33</v>
+        <v>1.86</v>
       </c>
       <c r="R145" t="n">
-        <v>2.21</v>
+        <v>2.58</v>
       </c>
       <c r="S145" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="T145" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="U145" t="n">
-        <v>3.12</v>
+        <v>3.7</v>
       </c>
       <c r="V145" t="n">
-        <v>2.57</v>
+        <v>2.18</v>
       </c>
       <c r="W145" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="X145" t="n">
-        <v>6.3</v>
+        <v>4.5</v>
       </c>
       <c r="Y145" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="Z145" t="n">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="AA145" t="n">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="AB145" t="n">
-        <v>4.95</v>
+        <v>8</v>
       </c>
       <c r="AC145" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="AD145" t="n">
-        <v>13.7</v>
+        <v>19.5</v>
       </c>
       <c r="AE145" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK145" t="n">
         <v>1.2</v>
       </c>
-      <c r="AF145" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AG145" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AH145" t="n">
+      <c r="AL145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL145" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BM145" t="n">
         <v>2.15</v>
       </c>
-      <c r="AI145" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AJ145" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AK145" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AL145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM145" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AN145" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AO145" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AP145" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AQ145" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AR145" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AS145" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AT145" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AU145" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV145" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW145" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX145" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY145" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ145" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA145" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB145" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC145" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD145" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="BE145" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="BF145" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="BG145" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="BH145" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BI145" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="BJ145" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="BK145" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="BL145" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="BM145" t="n">
-        <v>2.27</v>
-      </c>
       <c r="BN145" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="BO145" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="BP145" t="n">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="146">
@@ -32176,7 +32176,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>8227554</v>
+        <v>8227550</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -32196,12 +32196,12 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="I146" t="n">
@@ -32214,179 +32214,179 @@
         <v>1</v>
       </c>
       <c r="L146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N146" t="n">
         <v>3</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>['11', '75', '83']</t>
+          <t>['30', '48']</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['60']</t>
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>1.86</v>
+        <v>2.33</v>
       </c>
       <c r="R146" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S146" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T146" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U146" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="V146" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X146" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT146" t="n">
         <v>2.58</v>
       </c>
-      <c r="S146" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="T146" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U146" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="V146" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="W146" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X146" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Y146" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z146" t="n">
+      <c r="AU146" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD146" t="n">
         <v>1.38</v>
       </c>
-      <c r="AA146" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AB146" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC146" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD146" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE146" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AF146" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AG146" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AH146" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AI146" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AJ146" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AK146" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AL146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM146" t="n">
+      <c r="BE146" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF146" t="n">
         <v>3.1</v>
       </c>
-      <c r="AN146" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AO146" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AP146" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AQ146" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AR146" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AS146" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AT146" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AU146" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV146" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW146" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX146" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY146" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ146" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA146" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB146" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC146" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD146" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="BE146" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BF146" t="n">
-        <v>5.7</v>
-      </c>
       <c r="BG146" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="BH146" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="BI146" t="n">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="BJ146" t="n">
-        <v>2.8</v>
+        <v>2.38</v>
       </c>
       <c r="BK146" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="BL146" t="n">
-        <v>2.18</v>
+        <v>1.85</v>
       </c>
       <c r="BM146" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="BN146" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="BO146" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="BP146" t="n">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP146"/>
+  <dimension ref="A1:BP147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2881,7 +2881,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.75</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ25" t="n">
         <v>1</v>
@@ -6805,7 +6805,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR29" t="n">
         <v>1.54</v>
@@ -9200,7 +9200,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.38</v>
@@ -11601,7 +11601,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR51" t="n">
         <v>1.46</v>
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.44</v>
@@ -15307,7 +15307,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR68" t="n">
         <v>1.67</v>
@@ -18356,7 +18356,7 @@
         <v>2.5</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.88</v>
@@ -19885,7 +19885,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR89" t="n">
         <v>1.42</v>
@@ -21626,7 +21626,7 @@
         <v>1.75</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.86</v>
@@ -22719,7 +22719,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR102" t="n">
         <v>2.37</v>
@@ -24896,7 +24896,7 @@
         <v>1.2</v>
       </c>
       <c r="AP112" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.29</v>
@@ -25335,7 +25335,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR114" t="n">
         <v>1.68</v>
@@ -28602,7 +28602,7 @@
         <v>0.71</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ129" t="n">
         <v>1</v>
@@ -29913,7 +29913,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR135" t="n">
         <v>1.41</v>
@@ -32224,7 +32224,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>['30', '48']</t>
+          <t>['30', '49']</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
@@ -32387,6 +32387,224 @@
       </c>
       <c r="BP146" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>8227686</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>46036.60416666666</v>
+      </c>
+      <c r="F147" t="n">
+        <v>17</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2</v>
+      </c>
+      <c r="L147" t="n">
+        <v>2</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="n">
+        <v>3</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['25', '88']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R147" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S147" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="T147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V147" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X147" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL147" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM147" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BN147" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO147" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BP147" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP147"/>
+  <dimension ref="A1:BP150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.33</v>
@@ -3317,7 +3317,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.38</v>
@@ -3971,7 +3971,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -7023,7 +7023,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR30" t="n">
         <v>1.42</v>
@@ -7674,10 +7674,10 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR33" t="n">
         <v>1.91</v>
@@ -7892,7 +7892,7 @@
         <v>2</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ34" t="n">
         <v>1</v>
@@ -8331,7 +8331,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR36" t="n">
         <v>1.43</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.44</v>
@@ -10726,7 +10726,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ47" t="n">
         <v>1</v>
@@ -11819,7 +11819,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ52" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR52" t="n">
         <v>2.17</v>
@@ -12473,7 +12473,7 @@
         <v>1</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR55" t="n">
         <v>1.71</v>
@@ -12691,7 +12691,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR56" t="n">
         <v>1.39</v>
@@ -13124,7 +13124,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.25</v>
@@ -13560,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.5</v>
@@ -15522,7 +15522,7 @@
         <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.38</v>
@@ -15743,7 +15743,7 @@
         <v>1</v>
       </c>
       <c r="AQ70" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR70" t="n">
         <v>1.58</v>
@@ -16179,7 +16179,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR72" t="n">
         <v>1.62</v>
@@ -16833,7 +16833,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR75" t="n">
         <v>1.47</v>
@@ -17487,7 +17487,7 @@
         <v>1</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR78" t="n">
         <v>1.51</v>
@@ -17702,7 +17702,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.44</v>
@@ -18138,7 +18138,7 @@
         <v>0.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.25</v>
@@ -18795,7 +18795,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR84" t="n">
         <v>1.39</v>
@@ -19446,7 +19446,7 @@
         <v>2</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.38</v>
@@ -20757,7 +20757,7 @@
         <v>1</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR93" t="n">
         <v>1.43</v>
@@ -21411,7 +21411,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR96" t="n">
         <v>2.37</v>
@@ -21844,7 +21844,7 @@
         <v>1.6</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.33</v>
@@ -22062,7 +22062,7 @@
         <v>1</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.67</v>
@@ -22934,7 +22934,7 @@
         <v>0.8</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.5</v>
@@ -24463,7 +24463,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR110" t="n">
         <v>1.47</v>
@@ -24681,7 +24681,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ111" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR111" t="n">
         <v>1.85</v>
@@ -25332,7 +25332,7 @@
         <v>0.5</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.5600000000000001</v>
@@ -25553,7 +25553,7 @@
         <v>1</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR115" t="n">
         <v>1.31</v>
@@ -25768,7 +25768,7 @@
         <v>1.83</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.33</v>
@@ -27294,7 +27294,7 @@
         <v>0.33</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.25</v>
@@ -28387,7 +28387,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR128" t="n">
         <v>1.73</v>
@@ -28605,7 +28605,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR129" t="n">
         <v>1.57</v>
@@ -28820,7 +28820,7 @@
         <v>1</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.29</v>
@@ -29692,7 +29692,7 @@
         <v>1.67</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.86</v>
@@ -30131,7 +30131,7 @@
         <v>1</v>
       </c>
       <c r="AQ136" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR136" t="n">
         <v>1.34</v>
@@ -32605,6 +32605,660 @@
       </c>
       <c r="BP147" t="n">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>8227685</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>46036.6875</v>
+      </c>
+      <c r="F148" t="n">
+        <v>17</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>2</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>2</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['53', '56']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="R148" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S148" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T148" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U148" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V148" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X148" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL148" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BM148" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BN148" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO148" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP148" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>8227757</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>46036.6875</v>
+      </c>
+      <c r="F149" t="n">
+        <v>17</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="n">
+        <v>2</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="n">
+        <v>3</v>
+      </c>
+      <c r="N149" t="n">
+        <v>4</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['45+5', '71', '84']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="R149" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="S149" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T149" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="U149" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="V149" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="X149" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL149" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BM149" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN149" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO149" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP149" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>8227556</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>46036.6875</v>
+      </c>
+      <c r="F150" t="n">
+        <v>17</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Borussia M'gladbach</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>4</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>4</v>
+      </c>
+      <c r="L150" t="n">
+        <v>5</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="n">
+        <v>6</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['22', '24', '45+1', '45+4', '77']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R150" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S150" t="n">
+        <v>4</v>
+      </c>
+      <c r="T150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U150" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="V150" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X150" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL150" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM150" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN150" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO150" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP150" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP150"/>
+  <dimension ref="A1:BP151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ16" t="n">
         <v>2.75</v>
@@ -4407,7 +4407,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.75</v>
@@ -8113,7 +8113,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR35" t="n">
         <v>1.95</v>
@@ -10944,7 +10944,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.25</v>
@@ -11165,7 +11165,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR49" t="n">
         <v>1.54</v>
@@ -14653,7 +14653,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR65" t="n">
         <v>1.49</v>
@@ -15086,7 +15086,7 @@
         <v>1.75</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.38</v>
@@ -16612,7 +16612,7 @@
         <v>1.75</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.78</v>
@@ -21190,7 +21190,7 @@
         <v>0.4</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.25</v>
@@ -22283,7 +22283,7 @@
         <v>1</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR100" t="n">
         <v>1.56</v>
@@ -24899,7 +24899,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR112" t="n">
         <v>1.73</v>
@@ -25114,7 +25114,7 @@
         <v>2</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.86</v>
@@ -28823,7 +28823,7 @@
         <v>1</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR130" t="n">
         <v>1.65</v>
@@ -29256,7 +29256,7 @@
         <v>0.71</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.67</v>
@@ -33259,6 +33259,224 @@
       </c>
       <c r="BP150" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>8227551</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>46037.6875</v>
+      </c>
+      <c r="F151" t="n">
+        <v>17</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="n">
+        <v>2</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['45+6']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="R151" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S151" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T151" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="V151" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X151" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BL151" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BM151" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN151" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO151" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP151" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP151"/>
+  <dimension ref="A1:BP152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3099,7 +3099,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.86</v>
@@ -4843,7 +4843,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR20" t="n">
         <v>0.96</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.89</v>
@@ -9857,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR43" t="n">
         <v>1.84</v>
@@ -11598,7 +11598,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.5600000000000001</v>
@@ -14217,7 +14217,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR63" t="n">
         <v>1.39</v>
@@ -14650,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.25</v>
@@ -17051,7 +17051,7 @@
         <v>1</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR76" t="n">
         <v>1.51</v>
@@ -18574,7 +18574,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.25</v>
@@ -21847,7 +21847,7 @@
         <v>1</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR98" t="n">
         <v>1.76</v>
@@ -23152,7 +23152,7 @@
         <v>1.17</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ104" t="n">
         <v>1</v>
@@ -25771,7 +25771,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR116" t="n">
         <v>1.91</v>
@@ -28166,7 +28166,7 @@
         <v>1</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.44</v>
@@ -29041,7 +29041,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR131" t="n">
         <v>1.56</v>
@@ -31875,7 +31875,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR144" t="n">
         <v>1.63</v>
@@ -33477,6 +33477,224 @@
       </c>
       <c r="BP151" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>8227552</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>46038.6875</v>
+      </c>
+      <c r="F152" t="n">
+        <v>18</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="n">
+        <v>2</v>
+      </c>
+      <c r="L152" t="n">
+        <v>3</v>
+      </c>
+      <c r="M152" t="n">
+        <v>3</v>
+      </c>
+      <c r="N152" t="n">
+        <v>6</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['29', '78', '80']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['1', '56', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R152" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S152" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U152" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V152" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X152" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BL152" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM152" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BN152" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO152" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP152" t="n">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -20622,7 +20622,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>8227783</v>
+        <v>8227665</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -20642,197 +20642,197 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Bayern München</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Borussia M'gladbach</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N93" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['22', '45+2', '55', '60', '78', '84']</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>['45+1', '55', '76']</t>
+          <t>['12', '17']</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="R93" t="n">
-        <v>2.3</v>
+        <v>3.11</v>
       </c>
       <c r="S93" t="n">
-        <v>2.7</v>
+        <v>8.4</v>
       </c>
       <c r="T93" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="U93" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="V93" t="n">
-        <v>2.48</v>
+        <v>2.03</v>
       </c>
       <c r="W93" t="n">
-        <v>1.54</v>
+        <v>1.8</v>
       </c>
       <c r="X93" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Y93" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="Z93" t="n">
-        <v>3.1</v>
+        <v>1.19</v>
       </c>
       <c r="AA93" t="n">
-        <v>3.4</v>
+        <v>7.6</v>
       </c>
       <c r="AB93" t="n">
-        <v>2.25</v>
+        <v>13</v>
       </c>
       <c r="AC93" t="n">
         <v>1.01</v>
       </c>
       <c r="AD93" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW93" t="n">
         <v>14</v>
       </c>
-      <c r="AE93" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AF93" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AG93" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AH93" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AL93" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AM93" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AN93" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO93" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP93" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ93" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AR93" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AS93" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AT93" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AU93" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV93" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW93" t="n">
-        <v>5</v>
-      </c>
       <c r="AX93" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AY93" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="AZ93" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BA93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB93" t="n">
         <v>5</v>
       </c>
       <c r="BC93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD93" t="n">
-        <v>2.16</v>
+        <v>1.08</v>
       </c>
       <c r="BE93" t="n">
-        <v>6.55</v>
+        <v>11.5</v>
       </c>
       <c r="BF93" t="n">
-        <v>2.08</v>
+        <v>9.6</v>
       </c>
       <c r="BG93" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP93" t="n">
         <v>1.22</v>
-      </c>
-      <c r="BH93" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BI93" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="BJ93" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="BK93" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="BL93" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="BM93" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="BN93" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="BO93" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="BP93" t="n">
-        <v>1.38</v>
       </c>
     </row>
     <row r="94">
@@ -20840,7 +20840,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>8227747</v>
+        <v>8227667</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -20860,197 +20860,197 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M94" t="n">
         <v>3</v>
       </c>
       <c r="N94" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>['34', '41', '89']</t>
+          <t>['57']</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>['47', '71', '90+1']</t>
+          <t>['9', '24', '33']</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="R94" t="n">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="S94" t="n">
-        <v>3.9</v>
+        <v>2.45</v>
       </c>
       <c r="T94" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="U94" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="V94" t="n">
-        <v>2.28</v>
+        <v>2.35</v>
       </c>
       <c r="W94" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="X94" t="n">
-        <v>5.15</v>
+        <v>5</v>
       </c>
       <c r="Y94" t="n">
         <v>1.14</v>
       </c>
       <c r="Z94" t="n">
-        <v>1.79</v>
+        <v>3.58</v>
       </c>
       <c r="AA94" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="AB94" t="n">
-        <v>4.28</v>
+        <v>2</v>
       </c>
       <c r="AC94" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD94" t="n">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="AE94" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AF94" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="AG94" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AH94" t="n">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="AI94" t="n">
         <v>1.53</v>
       </c>
       <c r="AJ94" t="n">
-        <v>2.44</v>
+        <v>2.45</v>
       </c>
       <c r="AK94" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AL94" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="AM94" t="n">
-        <v>2.1</v>
+        <v>1.32</v>
       </c>
       <c r="AN94" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="AO94" t="n">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="AP94" t="n">
-        <v>2.5</v>
+        <v>0.89</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.44</v>
+        <v>1.86</v>
       </c>
       <c r="AR94" t="n">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.85</v>
+        <v>1.23</v>
       </c>
       <c r="AT94" t="n">
-        <v>3.75</v>
+        <v>2.81</v>
       </c>
       <c r="AU94" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV94" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW94" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AX94" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC94" t="n">
         <v>10</v>
       </c>
-      <c r="AY94" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ94" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA94" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB94" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC94" t="n">
-        <v>6</v>
-      </c>
       <c r="BD94" t="n">
-        <v>1.5</v>
+        <v>2.86</v>
       </c>
       <c r="BE94" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF94" t="n">
-        <v>3.36</v>
+        <v>1.67</v>
       </c>
       <c r="BG94" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="BH94" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="BI94" t="n">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="BJ94" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="BK94" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="BL94" t="n">
         <v>2.05</v>
       </c>
       <c r="BM94" t="n">
-        <v>2.05</v>
+        <v>2.13</v>
       </c>
       <c r="BN94" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="BO94" t="n">
-        <v>2.7</v>
+        <v>2.83</v>
       </c>
       <c r="BP94" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="95">
@@ -21058,7 +21058,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>8227664</v>
+        <v>8227747</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -21078,131 +21078,131 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N95" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>['76']</t>
+          <t>['34', '41', '89']</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['47', '71', '90+1']</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="R95" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S95" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="T95" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="U95" t="n">
-        <v>3.18</v>
+        <v>3.8</v>
       </c>
       <c r="V95" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X95" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN95" t="n">
         <v>2.5</v>
       </c>
-      <c r="W95" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X95" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="Y95" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z95" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AA95" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AB95" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AC95" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD95" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE95" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AF95" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AG95" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AH95" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AI95" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AJ95" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AK95" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AL95" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AM95" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AN95" t="n">
-        <v>0.6</v>
-      </c>
       <c r="AO95" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.22</v>
+        <v>2.5</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR95" t="n">
-        <v>1.35</v>
+        <v>1.9</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.21</v>
+        <v>1.85</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.56</v>
+        <v>3.75</v>
       </c>
       <c r="AU95" t="n">
         <v>6</v>
@@ -21211,64 +21211,64 @@
         <v>6</v>
       </c>
       <c r="AW95" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX95" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY95" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ95" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA95" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB95" t="n">
         <v>4</v>
       </c>
-      <c r="BB95" t="n">
-        <v>3</v>
-      </c>
       <c r="BC95" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN95" t="n">
         <v>1.7</v>
       </c>
-      <c r="BE95" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="BF95" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="BG95" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BH95" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="BI95" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="BJ95" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="BK95" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="BL95" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="BM95" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="BN95" t="n">
-        <v>1.57</v>
-      </c>
       <c r="BO95" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="BP95" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="96">
@@ -21276,7 +21276,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>8227665</v>
+        <v>8227664</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -21296,197 +21296,197 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Bayern München</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S96" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U96" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="V96" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X96" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA96" t="n">
         <v>4</v>
       </c>
-      <c r="L96" t="n">
-        <v>6</v>
-      </c>
-      <c r="M96" t="n">
-        <v>2</v>
-      </c>
-      <c r="N96" t="n">
-        <v>8</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>['22', '45+2', '55', '60', '78', '84']</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>['12', '17']</t>
-        </is>
-      </c>
-      <c r="Q96" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R96" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="S96" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="T96" t="n">
+      <c r="BB96" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BG96" t="n">
         <v>1.2</v>
       </c>
-      <c r="U96" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="V96" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="W96" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X96" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Y96" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Z96" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AA96" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AB96" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC96" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD96" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE96" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AF96" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG96" t="n">
+      <c r="BH96" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BI96" t="n">
         <v>1.41</v>
       </c>
-      <c r="AH96" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI96" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AJ96" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AK96" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AL96" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AM96" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AN96" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO96" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP96" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AQ96" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AR96" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AS96" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AT96" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="AU96" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV96" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW96" t="n">
-        <v>14</v>
-      </c>
-      <c r="AX96" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY96" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ96" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA96" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB96" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC96" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD96" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="BE96" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BF96" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="BG96" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="BH96" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="BI96" t="n">
-        <v>1.58</v>
-      </c>
       <c r="BJ96" t="n">
-        <v>2.3</v>
+        <v>2.53</v>
       </c>
       <c r="BK96" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="BL96" t="n">
-        <v>1.81</v>
+        <v>2.04</v>
       </c>
       <c r="BM96" t="n">
-        <v>2.65</v>
+        <v>2.19</v>
       </c>
       <c r="BN96" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="BO96" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="BP96" t="n">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="97">
@@ -21494,7 +21494,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>8227667</v>
+        <v>8227783</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -21514,197 +21514,197 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Borussia M'gladbach</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M97" t="n">
         <v>3</v>
       </c>
       <c r="N97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>['57']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>['9', '24', '33']</t>
+          <t>['45+1', '55', '76']</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="R97" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="S97" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="T97" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="U97" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="V97" t="n">
-        <v>2.35</v>
+        <v>2.48</v>
       </c>
       <c r="W97" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="X97" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y97" t="n">
         <v>1.14</v>
       </c>
       <c r="Z97" t="n">
-        <v>3.58</v>
+        <v>3.1</v>
       </c>
       <c r="AA97" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AB97" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU97" t="n">
         <v>2</v>
       </c>
-      <c r="AC97" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD97" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE97" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AF97" t="n">
+      <c r="AV97" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW97" t="n">
         <v>5</v>
       </c>
-      <c r="AG97" t="n">
+      <c r="AX97" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BN97" t="n">
         <v>1.61</v>
       </c>
-      <c r="AH97" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AI97" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AJ97" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AK97" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AL97" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AM97" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AN97" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AO97" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AP97" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AQ97" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AR97" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AS97" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AT97" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="AU97" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV97" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW97" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX97" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY97" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ97" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA97" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB97" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC97" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD97" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="BE97" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BF97" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="BG97" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="BH97" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="BI97" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BJ97" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="BK97" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BL97" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="BM97" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="BN97" t="n">
-        <v>1.59</v>
-      </c>
       <c r="BO97" t="n">
-        <v>2.83</v>
+        <v>2.8</v>
       </c>
       <c r="BP97" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="98">
@@ -22802,7 +22802,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>8227750</v>
+        <v>8227749</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -22822,194 +22822,194 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Köln</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>['16', '26', '45']</t>
+          <t>['22']</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90+1']</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>2.28</v>
+        <v>2.74</v>
       </c>
       <c r="R103" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="S103" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="T103" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="U103" t="n">
-        <v>3.58</v>
+        <v>3.75</v>
       </c>
       <c r="V103" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="W103" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X103" t="n">
-        <v>5.2</v>
+        <v>5.15</v>
       </c>
       <c r="Y103" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Z103" t="n">
-        <v>1.69</v>
+        <v>2.2</v>
       </c>
       <c r="AA103" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="AB103" t="n">
-        <v>4.33</v>
+        <v>2.92</v>
       </c>
       <c r="AC103" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD103" t="n">
         <v>17</v>
       </c>
       <c r="AE103" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AF103" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AG103" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AH103" t="n">
         <v>2.4</v>
       </c>
       <c r="AI103" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AJ103" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AK103" t="n">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="AL103" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AM103" t="n">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="AN103" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AO103" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR103" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AT103" t="n">
-        <v>2.91</v>
+        <v>2.99</v>
       </c>
       <c r="AU103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV103" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW103" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX103" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY103" t="n">
         <v>17</v>
       </c>
       <c r="AZ103" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA103" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC103" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BD103" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="BE103" t="n">
-        <v>9.1</v>
+        <v>7.4</v>
       </c>
       <c r="BF103" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="BG103" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="BH103" t="n">
         <v>3.68</v>
       </c>
       <c r="BI103" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="BJ103" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="BK103" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="BL103" t="n">
         <v>2.05</v>
       </c>
       <c r="BM103" t="n">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="BN103" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="BO103" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="BP103" t="n">
         <v>1.42</v>
@@ -23020,7 +23020,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>8227749</v>
+        <v>8227750</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -23040,194 +23040,194 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Köln</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>['22']</t>
+          <t>['16', '26', '45']</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>['90+1']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>2.74</v>
+        <v>2.28</v>
       </c>
       <c r="R104" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="S104" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="T104" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="U104" t="n">
-        <v>3.75</v>
+        <v>3.58</v>
       </c>
       <c r="V104" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="W104" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="X104" t="n">
-        <v>5.15</v>
+        <v>5.2</v>
       </c>
       <c r="Y104" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Z104" t="n">
-        <v>2.2</v>
+        <v>1.69</v>
       </c>
       <c r="AA104" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="AB104" t="n">
-        <v>2.92</v>
+        <v>4.33</v>
       </c>
       <c r="AC104" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD104" t="n">
         <v>17</v>
       </c>
       <c r="AE104" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AF104" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AG104" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AH104" t="n">
         <v>2.4</v>
       </c>
       <c r="AI104" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AJ104" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AK104" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="AL104" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AM104" t="n">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="AN104" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AO104" t="n">
-        <v>1.17</v>
+        <v>0.8</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR104" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.99</v>
+        <v>2.91</v>
       </c>
       <c r="AU104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV104" t="n">
         <v>4</v>
       </c>
-      <c r="AV104" t="n">
-        <v>2</v>
-      </c>
       <c r="AW104" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX104" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY104" t="n">
         <v>17</v>
       </c>
       <c r="AZ104" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA104" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC104" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BD104" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="BE104" t="n">
-        <v>7.4</v>
+        <v>9.1</v>
       </c>
       <c r="BF104" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="BG104" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BH104" t="n">
         <v>3.68</v>
       </c>
       <c r="BI104" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="BJ104" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="BK104" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="BL104" t="n">
         <v>2.05</v>
       </c>
       <c r="BM104" t="n">
-        <v>2.05</v>
+        <v>2.13</v>
       </c>
       <c r="BN104" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="BO104" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="BP104" t="n">
         <v>1.42</v>
@@ -24764,7 +24764,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>8227789</v>
+        <v>8227564</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -24784,12 +24784,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I112" t="n">
@@ -24802,179 +24802,179 @@
         <v>2</v>
       </c>
       <c r="L112" t="n">
+        <v>2</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>2</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['6', '28']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>4</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S112" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U112" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="V112" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X112" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO112" t="n">
         <v>3</v>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="n">
-        <v>4</v>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>['10', '30', '59']</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>['68']</t>
-        </is>
-      </c>
-      <c r="Q112" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="R112" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S112" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T112" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U112" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="V112" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="W112" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X112" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="Y112" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z112" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AA112" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AB112" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AC112" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD112" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE112" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AF112" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AG112" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AH112" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AI112" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AJ112" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK112" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AL112" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AM112" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AN112" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AO112" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AP112" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AQ112" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AR112" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AS112" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AT112" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AU112" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV112" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW112" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX112" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY112" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ112" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA112" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB112" t="n">
-        <v>11</v>
-      </c>
-      <c r="BC112" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD112" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="BE112" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="BF112" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="BG112" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="BH112" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="BI112" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BJ112" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="BK112" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="BL112" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="BM112" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="BN112" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BO112" t="n">
-        <v>2.63</v>
-      </c>
       <c r="BP112" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="113">
@@ -24982,7 +24982,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>8227564</v>
+        <v>8227784</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -25002,197 +25002,197 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L113" t="n">
         <v>2</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>['6', '28']</t>
+          <t>['58', '90+4']</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['40']</t>
         </is>
       </c>
       <c r="Q113" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S113" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U113" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="V113" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X113" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z113" t="n">
         <v>4</v>
       </c>
-      <c r="R113" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="S113" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T113" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U113" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="V113" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W113" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X113" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="Y113" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Z113" t="n">
-        <v>3.7</v>
-      </c>
       <c r="AA113" t="n">
-        <v>4</v>
+        <v>3.63</v>
       </c>
       <c r="AB113" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="AC113" t="n">
         <v>1.03</v>
       </c>
       <c r="AD113" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE113" t="n">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="AF113" t="n">
-        <v>4.45</v>
+        <v>3.3</v>
       </c>
       <c r="AG113" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AH113" t="n">
-        <v>2.41</v>
+        <v>1.8</v>
       </c>
       <c r="AI113" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="AJ113" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="AK113" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AL113" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AM113" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AN113" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AO113" t="n">
-        <v>2</v>
+        <v>0.83</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.86</v>
+        <v>0.89</v>
       </c>
       <c r="AR113" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="AT113" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="AU113" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV113" t="n">
         <v>2</v>
       </c>
       <c r="AW113" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE113" t="n">
         <v>7</v>
       </c>
-      <c r="AX113" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY113" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ113" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA113" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB113" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC113" t="n">
-        <v>12</v>
-      </c>
-      <c r="BD113" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BE113" t="n">
-        <v>6.6</v>
-      </c>
       <c r="BF113" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="BG113" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="BH113" t="n">
-        <v>3.14</v>
+        <v>2.68</v>
       </c>
       <c r="BI113" t="n">
-        <v>1.56</v>
+        <v>1.71</v>
       </c>
       <c r="BJ113" t="n">
-        <v>2.34</v>
+        <v>2.07</v>
       </c>
       <c r="BK113" t="n">
-        <v>1.92</v>
+        <v>2.14</v>
       </c>
       <c r="BL113" t="n">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="BM113" t="n">
-        <v>2.4</v>
+        <v>2.92</v>
       </c>
       <c r="BN113" t="n">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
       <c r="BO113" t="n">
-        <v>3</v>
+        <v>3.67</v>
       </c>
       <c r="BP113" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="114">
@@ -25200,7 +25200,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>8227751</v>
+        <v>8227789</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -25220,197 +25220,197 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Köln</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
       <c r="N114" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>['51']</t>
+          <t>['10', '30', '59']</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>['90+4']</t>
+          <t>['68']</t>
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>2.5</v>
+        <v>2.91</v>
       </c>
       <c r="R114" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S114" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T114" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="U114" t="n">
-        <v>2.98</v>
+        <v>2.89</v>
       </c>
       <c r="V114" t="n">
-        <v>2.87</v>
+        <v>2.81</v>
       </c>
       <c r="W114" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="X114" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="Y114" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z114" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AA114" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="AB114" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="AC114" t="n">
         <v>1.01</v>
       </c>
       <c r="AD114" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE114" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AF114" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AG114" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AH114" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="AI114" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="AJ114" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AK114" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AL114" t="n">
         <v>1.25</v>
       </c>
       <c r="AM114" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="AN114" t="n">
-        <v>1.4</v>
+        <v>0.33</v>
       </c>
       <c r="AO114" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="AP114" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="AR114" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT114" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="AU114" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AV114" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX114" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY114" t="n">
         <v>4</v>
       </c>
-      <c r="AY114" t="n">
+      <c r="AZ114" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB114" t="n">
         <v>11</v>
       </c>
-      <c r="AZ114" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA114" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB114" t="n">
-        <v>4</v>
-      </c>
       <c r="BC114" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD114" t="n">
-        <v>1.71</v>
+        <v>1.84</v>
       </c>
       <c r="BE114" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="BF114" t="n">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="BG114" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="BH114" t="n">
-        <v>3.21</v>
+        <v>3.68</v>
       </c>
       <c r="BI114" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="BJ114" t="n">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="BK114" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="BL114" t="n">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="BM114" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="BN114" t="n">
-        <v>1.52</v>
+        <v>1.7</v>
       </c>
       <c r="BO114" t="n">
-        <v>3.05</v>
+        <v>2.63</v>
       </c>
       <c r="BP114" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="115">
@@ -25418,7 +25418,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>8227784</v>
+        <v>8227751</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -25438,197 +25438,197 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Köln</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="n">
         <v>2</v>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="n">
-        <v>3</v>
-      </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>['58', '90+4']</t>
+          <t>['51']</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>['40']</t>
+          <t>['90+4']</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="R115" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S115" t="n">
-        <v>2.38</v>
+        <v>3.75</v>
       </c>
       <c r="T115" t="n">
         <v>1.39</v>
       </c>
       <c r="U115" t="n">
-        <v>3.02</v>
+        <v>2.98</v>
       </c>
       <c r="V115" t="n">
-        <v>2.89</v>
+        <v>2.87</v>
       </c>
       <c r="W115" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X115" t="n">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="Y115" t="n">
         <v>1.06</v>
       </c>
       <c r="Z115" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX115" t="n">
         <v>4</v>
       </c>
-      <c r="AA115" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AB115" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AC115" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD115" t="n">
+      <c r="AY115" t="n">
         <v>11</v>
       </c>
-      <c r="AE115" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AF115" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AG115" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH115" t="n">
+      <c r="AZ115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK115" t="n">
         <v>1.8</v>
       </c>
-      <c r="AI115" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AJ115" t="n">
+      <c r="BL115" t="n">
         <v>1.91</v>
       </c>
-      <c r="AK115" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AL115" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AM115" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AN115" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AO115" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AP115" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ115" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AR115" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AS115" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AT115" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AU115" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV115" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW115" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX115" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY115" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ115" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA115" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB115" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC115" t="n">
-        <v>14</v>
-      </c>
-      <c r="BD115" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="BE115" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF115" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="BG115" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="BH115" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="BI115" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="BJ115" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="BK115" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="BL115" t="n">
-        <v>1.68</v>
-      </c>
       <c r="BM115" t="n">
-        <v>2.92</v>
+        <v>2.35</v>
       </c>
       <c r="BN115" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="BO115" t="n">
-        <v>3.67</v>
+        <v>3.05</v>
       </c>
       <c r="BP115" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="116">
@@ -26508,7 +26508,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>8227678</v>
+        <v>8227680</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -26528,197 +26528,197 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L120" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
       <c r="N120" t="n">
+        <v>5</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>['8', '31', '65', '72']</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R120" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S120" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U120" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="V120" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X120" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA120" t="n">
         <v>3</v>
       </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>['35', '53']</t>
-        </is>
-      </c>
-      <c r="P120" t="inlineStr">
-        <is>
-          <t>['64']</t>
-        </is>
-      </c>
-      <c r="Q120" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R120" t="n">
-        <v>2</v>
-      </c>
-      <c r="S120" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="T120" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U120" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="V120" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="W120" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X120" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y120" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z120" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AA120" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AB120" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AC120" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD120" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE120" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AF120" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AG120" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AH120" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AI120" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AJ120" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AK120" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AL120" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AM120" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AN120" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AO120" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AP120" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ120" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AR120" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AS120" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT120" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AU120" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV120" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW120" t="n">
+      <c r="BB120" t="n">
         <v>3</v>
       </c>
-      <c r="AX120" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY120" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ120" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA120" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB120" t="n">
-        <v>11</v>
-      </c>
       <c r="BC120" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="BD120" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="BE120" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="BF120" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="BG120" t="n">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="BH120" t="n">
-        <v>3.34</v>
+        <v>3.77</v>
       </c>
       <c r="BI120" t="n">
-        <v>1.54</v>
+        <v>1.34</v>
       </c>
       <c r="BJ120" t="n">
-        <v>2.42</v>
+        <v>2.78</v>
       </c>
       <c r="BK120" t="n">
-        <v>1.84</v>
+        <v>1.62</v>
       </c>
       <c r="BL120" t="n">
-        <v>1.86</v>
+        <v>2.1</v>
       </c>
       <c r="BM120" t="n">
-        <v>2.34</v>
+        <v>2.05</v>
       </c>
       <c r="BN120" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="BO120" t="n">
-        <v>3.14</v>
+        <v>2.67</v>
       </c>
       <c r="BP120" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="121">
@@ -26944,7 +26944,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>8227677</v>
+        <v>8227678</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -26964,197 +26964,197 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>['68']</t>
+          <t>['35', '53']</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['64']</t>
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="R122" t="n">
-        <v>2.46</v>
+        <v>2</v>
       </c>
       <c r="S122" t="n">
-        <v>4.25</v>
+        <v>4.92</v>
       </c>
       <c r="T122" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="U122" t="n">
-        <v>3.4</v>
+        <v>2.65</v>
       </c>
       <c r="V122" t="n">
-        <v>2.4</v>
+        <v>3.33</v>
       </c>
       <c r="W122" t="n">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="X122" t="n">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
       <c r="Y122" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="Z122" t="n">
-        <v>1.66</v>
+        <v>1.84</v>
       </c>
       <c r="AA122" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="AB122" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AC122" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD122" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE122" t="n">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AF122" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="AG122" t="n">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="AH122" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AI122" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="AJ122" t="n">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="AK122" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AL122" t="n">
         <v>1.25</v>
       </c>
       <c r="AM122" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="AN122" t="n">
-        <v>1.67</v>
+        <v>0.67</v>
       </c>
       <c r="AO122" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="AR122" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.89</v>
+        <v>2.54</v>
       </c>
       <c r="AU122" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA122" t="n">
         <v>4</v>
       </c>
-      <c r="AV122" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW122" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX122" t="n">
+      <c r="BB122" t="n">
         <v>11</v>
       </c>
-      <c r="AY122" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ122" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA122" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB122" t="n">
-        <v>6</v>
-      </c>
       <c r="BC122" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE122" t="n">
         <v>8</v>
       </c>
-      <c r="BD122" t="n">
+      <c r="BF122" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BN122" t="n">
         <v>1.5</v>
       </c>
-      <c r="BE122" t="n">
-        <v>9</v>
-      </c>
-      <c r="BF122" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="BG122" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BH122" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="BI122" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="BJ122" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="BK122" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="BL122" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="BM122" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="BN122" t="n">
-        <v>1.49</v>
-      </c>
       <c r="BO122" t="n">
-        <v>3.6</v>
+        <v>3.14</v>
       </c>
       <c r="BP122" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="123">
@@ -27162,7 +27162,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>8227680</v>
+        <v>8227677</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -27182,197 +27182,197 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R123" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S123" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U123" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V123" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X123" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA123" t="n">
         <v>2</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="n">
-        <v>2</v>
-      </c>
-      <c r="L123" t="n">
-        <v>4</v>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="n">
-        <v>5</v>
-      </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>['8', '31', '65', '72']</t>
-        </is>
-      </c>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>['82']</t>
-        </is>
-      </c>
-      <c r="Q123" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R123" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="S123" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T123" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U123" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="V123" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="W123" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="X123" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="Y123" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Z123" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AA123" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB123" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC123" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD123" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE123" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AF123" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="AG123" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH123" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AI123" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AJ123" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AK123" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AL123" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AM123" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AN123" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AO123" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AP123" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AQ123" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AR123" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AS123" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AT123" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AU123" t="n">
+      <c r="BB123" t="n">
         <v>6</v>
       </c>
-      <c r="AV123" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW123" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX123" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY123" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ123" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA123" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB123" t="n">
-        <v>3</v>
-      </c>
       <c r="BC123" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD123" t="n">
         <v>1.5</v>
       </c>
       <c r="BE123" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="BF123" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="BG123" t="n">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="BH123" t="n">
-        <v>3.77</v>
+        <v>2.7</v>
       </c>
       <c r="BI123" t="n">
-        <v>1.34</v>
+        <v>1.72</v>
       </c>
       <c r="BJ123" t="n">
-        <v>2.78</v>
+        <v>2.11</v>
       </c>
       <c r="BK123" t="n">
-        <v>1.62</v>
+        <v>2.12</v>
       </c>
       <c r="BL123" t="n">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="BM123" t="n">
-        <v>2.05</v>
+        <v>2.51</v>
       </c>
       <c r="BN123" t="n">
-        <v>1.7</v>
+        <v>1.49</v>
       </c>
       <c r="BO123" t="n">
-        <v>2.67</v>
+        <v>3.6</v>
       </c>
       <c r="BP123" t="n">
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="124">
@@ -28470,7 +28470,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>8227544</v>
+        <v>8227795</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -28490,197 +28490,197 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M129" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N129" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>['13', '49', '69']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>['5', '56', '71', '78']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>3</v>
+        <v>2.69</v>
       </c>
       <c r="R129" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S129" t="n">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="T129" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="U129" t="n">
         <v>3.12</v>
       </c>
       <c r="V129" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W129" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X129" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="Y129" t="n">
         <v>1.09</v>
       </c>
       <c r="Z129" t="n">
-        <v>2.56</v>
+        <v>2.18</v>
       </c>
       <c r="AA129" t="n">
-        <v>3.56</v>
+        <v>3.5</v>
       </c>
       <c r="AB129" t="n">
-        <v>2.51</v>
+        <v>3.07</v>
       </c>
       <c r="AC129" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AD129" t="n">
         <v>11</v>
       </c>
       <c r="AE129" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="AF129" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="AG129" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="AH129" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="AI129" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AJ129" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="AK129" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AL129" t="n">
         <v>1.25</v>
       </c>
       <c r="AM129" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="AN129" t="n">
-        <v>0.71</v>
+        <v>1.29</v>
       </c>
       <c r="AO129" t="n">
         <v>0.71</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.89</v>
+        <v>1.22</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="AR129" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AT129" t="n">
-        <v>2.81</v>
+        <v>2.61</v>
       </c>
       <c r="AU129" t="n">
         <v>6</v>
       </c>
       <c r="AV129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW129" t="n">
         <v>8</v>
       </c>
-      <c r="AW129" t="n">
-        <v>7</v>
-      </c>
       <c r="AX129" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY129" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ129" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BA129" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB129" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BC129" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="BD129" t="n">
-        <v>2.23</v>
+        <v>1.65</v>
       </c>
       <c r="BE129" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="BF129" t="n">
-        <v>2.07</v>
+        <v>2.5</v>
       </c>
       <c r="BG129" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="BH129" t="n">
-        <v>2.95</v>
+        <v>3.46</v>
       </c>
       <c r="BI129" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="BJ129" t="n">
-        <v>2.18</v>
+        <v>2.52</v>
       </c>
       <c r="BK129" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="BL129" t="n">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="BM129" t="n">
-        <v>2.45</v>
+        <v>2.21</v>
       </c>
       <c r="BN129" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="BO129" t="n">
-        <v>3.35</v>
+        <v>2.78</v>
       </c>
       <c r="BP129" t="n">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="130">
@@ -28688,7 +28688,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>8227701</v>
+        <v>8227544</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -28708,197 +28708,197 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Köln</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M130" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N130" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['13', '49', '69']</t>
         </is>
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>['90+1']</t>
+          <t>['5', '56', '71', '78']</t>
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="R130" t="n">
-        <v>2.13</v>
+        <v>2.2</v>
       </c>
       <c r="S130" t="n">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="T130" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="U130" t="n">
-        <v>2.85</v>
+        <v>3.12</v>
       </c>
       <c r="V130" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W130" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="X130" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW130" t="n">
         <v>7</v>
       </c>
-      <c r="Y130" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z130" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AA130" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AB130" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AC130" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD130" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE130" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AF130" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AG130" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AH130" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AI130" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AJ130" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AK130" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AL130" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AM130" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AN130" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AO130" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP130" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ130" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AR130" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AS130" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AT130" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AU130" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV130" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW130" t="n">
-        <v>11</v>
-      </c>
       <c r="AX130" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY130" t="n">
         <v>13</v>
       </c>
       <c r="AZ130" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB130" t="n">
         <v>6</v>
       </c>
       <c r="BC130" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD130" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BL130" t="n">
         <v>1.8</v>
       </c>
-      <c r="BE130" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="BF130" t="n">
+      <c r="BM130" t="n">
         <v>2.45</v>
       </c>
-      <c r="BG130" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BH130" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="BI130" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BJ130" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BK130" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="BL130" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="BM130" t="n">
-        <v>2.14</v>
-      </c>
       <c r="BN130" t="n">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="BO130" t="n">
-        <v>2.68</v>
+        <v>3.35</v>
       </c>
       <c r="BP130" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="131">
@@ -28906,7 +28906,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>8227725</v>
+        <v>8227701</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -28926,197 +28926,197 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Köln</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
       <c r="N131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>['19']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>['26']</t>
+          <t>['90+1']</t>
         </is>
       </c>
       <c r="Q131" t="n">
         <v>3.1</v>
       </c>
       <c r="R131" t="n">
-        <v>2.3</v>
+        <v>2.13</v>
       </c>
       <c r="S131" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="T131" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="U131" t="n">
-        <v>3.24</v>
+        <v>2.85</v>
       </c>
       <c r="V131" t="n">
-        <v>2.61</v>
+        <v>2.75</v>
       </c>
       <c r="W131" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="X131" t="n">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="Y131" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="Z131" t="n">
-        <v>2.64</v>
+        <v>2.4</v>
       </c>
       <c r="AA131" t="n">
-        <v>3.53</v>
+        <v>3.23</v>
       </c>
       <c r="AB131" t="n">
-        <v>2.45</v>
+        <v>2.91</v>
       </c>
       <c r="AC131" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AD131" t="n">
         <v>9.5</v>
       </c>
       <c r="AE131" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AF131" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="AG131" t="n">
-        <v>1.57</v>
+        <v>1.92</v>
       </c>
       <c r="AH131" t="n">
-        <v>2.25</v>
+        <v>1.82</v>
       </c>
       <c r="AI131" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AJ131" t="n">
-        <v>2.25</v>
+        <v>2.03</v>
       </c>
       <c r="AK131" t="n">
-        <v>1.51</v>
+        <v>1.33</v>
       </c>
       <c r="AL131" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN131" t="n">
         <v>1.33</v>
       </c>
-      <c r="AM131" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AN131" t="n">
-        <v>1.86</v>
-      </c>
       <c r="AO131" t="n">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AR131" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AT131" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="AU131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV131" t="n">
         <v>3</v>
       </c>
       <c r="AW131" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB131" t="n">
         <v>6</v>
       </c>
-      <c r="AX131" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY131" t="n">
+      <c r="BC131" t="n">
         <v>9</v>
       </c>
-      <c r="AZ131" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA131" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB131" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC131" t="n">
-        <v>10</v>
-      </c>
       <c r="BD131" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="BE131" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="BF131" t="n">
-        <v>2.21</v>
+        <v>2.45</v>
       </c>
       <c r="BG131" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="BH131" t="n">
-        <v>3.14</v>
+        <v>3.6</v>
       </c>
       <c r="BI131" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="BJ131" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="BK131" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="BL131" t="n">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="BM131" t="n">
-        <v>2.48</v>
+        <v>2.14</v>
       </c>
       <c r="BN131" t="n">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="BO131" t="n">
-        <v>3.27</v>
+        <v>2.68</v>
       </c>
       <c r="BP131" t="n">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="132">
@@ -29124,7 +29124,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>8227795</v>
+        <v>8227684</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -29144,12 +29144,12 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I132" t="n">
@@ -29181,160 +29181,160 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>2.69</v>
+        <v>2.42</v>
       </c>
       <c r="R132" t="n">
-        <v>2.1</v>
+        <v>2.53</v>
       </c>
       <c r="S132" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="T132" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="U132" t="n">
-        <v>3.12</v>
+        <v>3.75</v>
       </c>
       <c r="V132" t="n">
-        <v>2.62</v>
+        <v>2.19</v>
       </c>
       <c r="W132" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="X132" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y132" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE132" t="n">
         <v>1.09</v>
       </c>
-      <c r="Z132" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AA132" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AB132" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AC132" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD132" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE132" t="n">
-        <v>1.19</v>
-      </c>
       <c r="AF132" t="n">
-        <v>4.4</v>
+        <v>5.35</v>
       </c>
       <c r="AG132" t="n">
-        <v>1.84</v>
+        <v>1.46</v>
       </c>
       <c r="AH132" t="n">
-        <v>1.97</v>
+        <v>2.6</v>
       </c>
       <c r="AI132" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BK132" t="n">
         <v>1.63</v>
       </c>
-      <c r="AJ132" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AK132" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AL132" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AM132" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AN132" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AO132" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AP132" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AQ132" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AR132" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AS132" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AT132" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="AU132" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW132" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX132" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY132" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ132" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA132" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB132" t="n">
-        <v>11</v>
-      </c>
-      <c r="BC132" t="n">
-        <v>17</v>
-      </c>
-      <c r="BD132" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BE132" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="BF132" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BG132" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BH132" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="BI132" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BJ132" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="BK132" t="n">
-        <v>1.98</v>
-      </c>
       <c r="BL132" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM132" t="n">
         <v>1.99</v>
       </c>
-      <c r="BM132" t="n">
-        <v>2.21</v>
-      </c>
       <c r="BN132" t="n">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="BO132" t="n">
-        <v>2.78</v>
+        <v>2.48</v>
       </c>
       <c r="BP132" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="133">
@@ -29342,7 +29342,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>8227684</v>
+        <v>8227725</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -29362,197 +29362,197 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['19']</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['26']</t>
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>2.42</v>
+        <v>3.1</v>
       </c>
       <c r="R133" t="n">
-        <v>2.53</v>
+        <v>2.3</v>
       </c>
       <c r="S133" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="T133" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U133" t="n">
-        <v>3.75</v>
+        <v>3.24</v>
       </c>
       <c r="V133" t="n">
-        <v>2.19</v>
+        <v>2.61</v>
       </c>
       <c r="W133" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="X133" t="n">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Y133" t="n">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="Z133" t="n">
-        <v>1.93</v>
+        <v>2.64</v>
       </c>
       <c r="AA133" t="n">
-        <v>3.79</v>
+        <v>3.53</v>
       </c>
       <c r="AB133" t="n">
-        <v>3.47</v>
+        <v>2.45</v>
       </c>
       <c r="AC133" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD133" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AE133" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="AF133" t="n">
-        <v>5.35</v>
+        <v>4.1</v>
       </c>
       <c r="AG133" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AH133" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="AI133" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS133" t="n">
         <v>1.44</v>
       </c>
-      <c r="AJ133" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AK133" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AL133" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AM133" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AN133" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO133" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP133" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AQ133" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AR133" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AS133" t="n">
-        <v>1.47</v>
-      </c>
       <c r="AT133" t="n">
-        <v>3.19</v>
+        <v>3</v>
       </c>
       <c r="AU133" t="n">
         <v>3</v>
       </c>
       <c r="AV133" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW133" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX133" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY133" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC133" t="n">
         <v>10</v>
       </c>
-      <c r="AZ133" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA133" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB133" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC133" t="n">
-        <v>6</v>
-      </c>
       <c r="BD133" t="n">
-        <v>1.52</v>
+        <v>1.94</v>
       </c>
       <c r="BE133" t="n">
-        <v>9</v>
+        <v>6.9</v>
       </c>
       <c r="BF133" t="n">
-        <v>2.9</v>
+        <v>2.21</v>
       </c>
       <c r="BG133" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="BH133" t="n">
-        <v>3.96</v>
+        <v>3.14</v>
       </c>
       <c r="BI133" t="n">
-        <v>1.37</v>
+        <v>1.6</v>
       </c>
       <c r="BJ133" t="n">
-        <v>2.83</v>
+        <v>2.25</v>
       </c>
       <c r="BK133" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="BL133" t="n">
-        <v>2.2</v>
+        <v>1.78</v>
       </c>
       <c r="BM133" t="n">
-        <v>1.99</v>
+        <v>2.48</v>
       </c>
       <c r="BN133" t="n">
-        <v>1.76</v>
+        <v>1.48</v>
       </c>
       <c r="BO133" t="n">
-        <v>2.48</v>
+        <v>3.27</v>
       </c>
       <c r="BP133" t="n">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="134">
@@ -30432,7 +30432,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>8227752</v>
+        <v>8227565</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -30452,194 +30452,194 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>2</v>
       </c>
       <c r="M138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N138" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>['77', '86']</t>
+          <t>['53', '83']</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>['30', '69']</t>
+          <t>['48']</t>
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>2.8</v>
+        <v>2.31</v>
       </c>
       <c r="R138" t="n">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="S138" t="n">
-        <v>3.7</v>
+        <v>5.15</v>
       </c>
       <c r="T138" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="U138" t="n">
-        <v>2.66</v>
+        <v>2.85</v>
       </c>
       <c r="V138" t="n">
-        <v>3.41</v>
+        <v>2.77</v>
       </c>
       <c r="W138" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="X138" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="Y138" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="Z138" t="n">
-        <v>2.01</v>
+        <v>1.61</v>
       </c>
       <c r="AA138" t="n">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="AB138" t="n">
-        <v>3.25</v>
+        <v>5.01</v>
       </c>
       <c r="AC138" t="n">
         <v>1.05</v>
       </c>
       <c r="AD138" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="AE138" t="n">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AF138" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="AG138" t="n">
-        <v>2.29</v>
+        <v>1.95</v>
       </c>
       <c r="AH138" t="n">
-        <v>1.69</v>
+        <v>1.93</v>
       </c>
       <c r="AI138" t="n">
-        <v>2.03</v>
+        <v>1.79</v>
       </c>
       <c r="AJ138" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="AK138" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AL138" t="n">
         <v>0</v>
       </c>
       <c r="AM138" t="n">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="AN138" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AO138" t="n">
-        <v>0.71</v>
+        <v>0.29</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.44</v>
+        <v>1.88</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AR138" t="n">
-        <v>1.34</v>
+        <v>1.63</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.08</v>
+        <v>1.3</v>
       </c>
       <c r="AT138" t="n">
-        <v>2.42</v>
+        <v>2.93</v>
       </c>
       <c r="AU138" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV138" t="n">
         <v>5</v>
       </c>
-      <c r="AV138" t="n">
-        <v>6</v>
-      </c>
       <c r="AW138" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX138" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB138" t="n">
         <v>3</v>
-      </c>
-      <c r="AY138" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ138" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA138" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB138" t="n">
-        <v>1</v>
       </c>
       <c r="BC138" t="n">
         <v>3</v>
       </c>
       <c r="BD138" t="n">
-        <v>1.92</v>
+        <v>1.49</v>
       </c>
       <c r="BE138" t="n">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="BF138" t="n">
-        <v>2.41</v>
+        <v>3.6</v>
       </c>
       <c r="BG138" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="BH138" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="BI138" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="BJ138" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="BK138" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="BL138" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="BM138" t="n">
-        <v>2.43</v>
+        <v>2.46</v>
       </c>
       <c r="BN138" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="BO138" t="n">
-        <v>3.28</v>
+        <v>3.24</v>
       </c>
       <c r="BP138" t="n">
         <v>1.28</v>
@@ -30868,7 +30868,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>8227565</v>
+        <v>8227752</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -30888,194 +30888,194 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L140" t="n">
         <v>2</v>
       </c>
       <c r="M140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N140" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>['53', '83']</t>
+          <t>['77', '86']</t>
         </is>
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>['48']</t>
+          <t>['30', '69']</t>
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>2.31</v>
+        <v>2.8</v>
       </c>
       <c r="R140" t="n">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="S140" t="n">
-        <v>5.15</v>
+        <v>3.7</v>
       </c>
       <c r="T140" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="U140" t="n">
-        <v>2.85</v>
+        <v>2.66</v>
       </c>
       <c r="V140" t="n">
-        <v>2.77</v>
+        <v>3.41</v>
       </c>
       <c r="W140" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="X140" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="Y140" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="Z140" t="n">
-        <v>1.61</v>
+        <v>2.01</v>
       </c>
       <c r="AA140" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="AB140" t="n">
-        <v>5.01</v>
+        <v>3.25</v>
       </c>
       <c r="AC140" t="n">
         <v>1.05</v>
       </c>
       <c r="AD140" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="AE140" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AF140" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="AG140" t="n">
-        <v>1.95</v>
+        <v>2.29</v>
       </c>
       <c r="AH140" t="n">
-        <v>1.93</v>
+        <v>1.69</v>
       </c>
       <c r="AI140" t="n">
-        <v>1.79</v>
+        <v>2.03</v>
       </c>
       <c r="AJ140" t="n">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="AK140" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AL140" t="n">
         <v>0</v>
       </c>
       <c r="AM140" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="AN140" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AO140" t="n">
-        <v>0.29</v>
+        <v>0.71</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.88</v>
+        <v>1.44</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR140" t="n">
-        <v>1.63</v>
+        <v>1.34</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.3</v>
+        <v>1.08</v>
       </c>
       <c r="AT140" t="n">
-        <v>2.93</v>
+        <v>2.42</v>
       </c>
       <c r="AU140" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV140" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW140" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX140" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY140" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ140" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC140" t="n">
         <v>3</v>
       </c>
       <c r="BD140" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL140" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM140" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BN140" t="n">
         <v>1.49</v>
       </c>
-      <c r="BE140" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="BF140" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="BG140" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BH140" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="BI140" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="BJ140" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="BK140" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BL140" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="BM140" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="BN140" t="n">
-        <v>1.48</v>
-      </c>
       <c r="BO140" t="n">
-        <v>3.24</v>
+        <v>3.28</v>
       </c>
       <c r="BP140" t="n">
         <v>1.28</v>
@@ -32830,7 +32830,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>8227757</v>
+        <v>8227556</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -32850,197 +32850,197 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Köln</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Bayern München</t>
+          <t>Borussia M'gladbach</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K149" t="n">
+        <v>4</v>
+      </c>
+      <c r="L149" t="n">
+        <v>5</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="n">
+        <v>6</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['22', '24', '45+1', '45+4', '77']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R149" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S149" t="n">
+        <v>4</v>
+      </c>
+      <c r="T149" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U149" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="V149" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X149" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX149" t="n">
         <v>2</v>
       </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="n">
-        <v>3</v>
-      </c>
-      <c r="N149" t="n">
-        <v>4</v>
-      </c>
-      <c r="O149" t="inlineStr">
-        <is>
-          <t>['41']</t>
-        </is>
-      </c>
-      <c r="P149" t="inlineStr">
-        <is>
-          <t>['45+5', '71', '84']</t>
-        </is>
-      </c>
-      <c r="Q149" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="R149" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="S149" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T149" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="U149" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="V149" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W149" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="X149" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Y149" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Z149" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AA149" t="n">
+      <c r="AY149" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ149" t="n">
         <v>7</v>
       </c>
-      <c r="AB149" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AC149" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD149" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE149" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AF149" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AG149" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AH149" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AI149" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AJ149" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AK149" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AL149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM149" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AN149" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AO149" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AP149" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ149" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AR149" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AS149" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AT149" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="AU149" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV149" t="n">
+      <c r="BA149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC149" t="n">
         <v>8</v>
       </c>
-      <c r="AW149" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX149" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY149" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ149" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA149" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB149" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC149" t="n">
-        <v>10</v>
-      </c>
       <c r="BD149" t="n">
-        <v>5.3</v>
+        <v>1.52</v>
       </c>
       <c r="BE149" t="n">
-        <v>12.25</v>
+        <v>9</v>
       </c>
       <c r="BF149" t="n">
-        <v>1.25</v>
+        <v>3.08</v>
       </c>
       <c r="BG149" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="BH149" t="n">
-        <v>3.2</v>
+        <v>3.58</v>
       </c>
       <c r="BI149" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="BJ149" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="BK149" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="BL149" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="BM149" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="BN149" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="BO149" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="BP149" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="150">
@@ -33048,7 +33048,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>8227556</v>
+        <v>8227757</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -33068,197 +33068,197 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Köln</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Borussia M'gladbach</t>
+          <t>Bayern München</t>
         </is>
       </c>
       <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="n">
+        <v>2</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="n">
+        <v>3</v>
+      </c>
+      <c r="N150" t="n">
         <v>4</v>
       </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
-      <c r="K150" t="n">
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['45+5', '71', '84']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="R150" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="S150" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T150" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="U150" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="V150" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="X150" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA150" t="n">
         <v>4</v>
       </c>
-      <c r="L150" t="n">
-        <v>5</v>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="n">
+      <c r="BB150" t="n">
         <v>6</v>
       </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>['22', '24', '45+1', '45+4', '77']</t>
-        </is>
-      </c>
-      <c r="P150" t="inlineStr">
-        <is>
-          <t>['69']</t>
-        </is>
-      </c>
-      <c r="Q150" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R150" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S150" t="n">
-        <v>4</v>
-      </c>
-      <c r="T150" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U150" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="V150" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="W150" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X150" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Y150" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z150" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AA150" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="AB150" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AC150" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD150" t="n">
+      <c r="BC150" t="n">
         <v>10</v>
       </c>
-      <c r="AE150" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AF150" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AG150" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AH150" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AI150" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AJ150" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AK150" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AL150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM150" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AN150" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AO150" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AP150" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AQ150" t="n">
+      <c r="BD150" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="BF150" t="n">
         <v>1.25</v>
       </c>
-      <c r="AR150" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AS150" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AT150" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AU150" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV150" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW150" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX150" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY150" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ150" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA150" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB150" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC150" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD150" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="BE150" t="n">
-        <v>9</v>
-      </c>
-      <c r="BF150" t="n">
-        <v>3.08</v>
-      </c>
       <c r="BG150" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="BH150" t="n">
-        <v>3.58</v>
+        <v>3.2</v>
       </c>
       <c r="BI150" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="BJ150" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="BK150" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="BL150" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="BM150" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="BN150" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="BO150" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="BP150" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="151">

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP152"/>
+  <dimension ref="A1:BP158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.3</v>
@@ -3317,7 +3317,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.25</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.89</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ25" t="n">
         <v>1</v>
@@ -6805,7 +6805,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR29" t="n">
         <v>1.54</v>
@@ -7241,7 +7241,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR31" t="n">
         <v>1.1</v>
@@ -7456,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR32" t="n">
         <v>0.71</v>
@@ -7674,10 +7674,10 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AR33" t="n">
         <v>1.91</v>
@@ -7892,7 +7892,7 @@
         <v>2</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ34" t="n">
         <v>1</v>
@@ -8331,7 +8331,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR36" t="n">
         <v>1.43</v>
@@ -8546,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.25</v>
@@ -9200,7 +9200,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.38</v>
@@ -9421,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR41" t="n">
         <v>1.62</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="AP45" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.44</v>
@@ -10726,7 +10726,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ47" t="n">
         <v>1</v>
@@ -11380,7 +11380,7 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.38</v>
@@ -11601,7 +11601,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR51" t="n">
         <v>1.46</v>
@@ -11819,7 +11819,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ52" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AR52" t="n">
         <v>2.17</v>
@@ -12037,7 +12037,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR53" t="n">
         <v>1.74</v>
@@ -12252,10 +12252,10 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR54" t="n">
         <v>1.51</v>
@@ -12691,7 +12691,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR56" t="n">
         <v>1.39</v>
@@ -12909,7 +12909,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR57" t="n">
         <v>1.47</v>
@@ -13124,7 +13124,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.25</v>
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.44</v>
@@ -13560,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.5</v>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.25</v>
@@ -15307,7 +15307,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR68" t="n">
         <v>1.67</v>
@@ -15522,10 +15522,10 @@
         <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR69" t="n">
         <v>1.66</v>
@@ -15743,7 +15743,7 @@
         <v>1</v>
       </c>
       <c r="AQ70" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AR70" t="n">
         <v>1.58</v>
@@ -15958,7 +15958,7 @@
         <v>1.75</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ71" t="n">
         <v>1</v>
@@ -16397,7 +16397,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR73" t="n">
         <v>1.81</v>
@@ -17487,7 +17487,7 @@
         <v>1</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR78" t="n">
         <v>1.51</v>
@@ -17702,7 +17702,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.44</v>
@@ -17923,7 +17923,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR80" t="n">
         <v>2.46</v>
@@ -18138,7 +18138,7 @@
         <v>0.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.25</v>
@@ -18356,7 +18356,7 @@
         <v>2.5</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.88</v>
@@ -18795,7 +18795,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AR84" t="n">
         <v>1.39</v>
@@ -19010,7 +19010,7 @@
         <v>2</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.78</v>
@@ -19231,7 +19231,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR86" t="n">
         <v>1.68</v>
@@ -19446,7 +19446,7 @@
         <v>2</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.38</v>
@@ -19885,7 +19885,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR89" t="n">
         <v>1.42</v>
@@ -20321,7 +20321,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR91" t="n">
         <v>1.57</v>
@@ -20972,10 +20972,10 @@
         <v>1.75</v>
       </c>
       <c r="AP94" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR94" t="n">
         <v>1.58</v>
@@ -21190,7 +21190,7 @@
         <v>1.2</v>
       </c>
       <c r="AP95" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.44</v>
@@ -21629,7 +21629,7 @@
         <v>1</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR97" t="n">
         <v>1.43</v>
@@ -21844,7 +21844,7 @@
         <v>1.6</v>
       </c>
       <c r="AP98" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.3</v>
@@ -22062,7 +22062,7 @@
         <v>1</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.67</v>
@@ -22719,7 +22719,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR102" t="n">
         <v>2.37</v>
@@ -23152,7 +23152,7 @@
         <v>0.8</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.5</v>
@@ -23373,7 +23373,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR105" t="n">
         <v>1.38</v>
@@ -23806,7 +23806,7 @@
         <v>1.17</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.44</v>
@@ -24245,7 +24245,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR109" t="n">
         <v>1.34</v>
@@ -24463,7 +24463,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR110" t="n">
         <v>1.47</v>
@@ -24681,7 +24681,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ111" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AR111" t="n">
         <v>1.85</v>
@@ -24899,7 +24899,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR112" t="n">
         <v>1.39</v>
@@ -25332,7 +25332,7 @@
         <v>1.2</v>
       </c>
       <c r="AP114" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.25</v>
@@ -25550,10 +25550,10 @@
         <v>0.5</v>
       </c>
       <c r="AP115" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR115" t="n">
         <v>1.68</v>
@@ -25768,7 +25768,7 @@
         <v>1.83</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.3</v>
@@ -25986,7 +25986,7 @@
         <v>0.83</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.67</v>
@@ -26204,7 +26204,7 @@
         <v>2.33</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.88</v>
@@ -26640,7 +26640,7 @@
         <v>0.33</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.25</v>
@@ -27079,7 +27079,7 @@
         <v>1</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR122" t="n">
         <v>1.54</v>
@@ -27951,7 +27951,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR126" t="n">
         <v>2.34</v>
@@ -28384,10 +28384,10 @@
         <v>1.67</v>
       </c>
       <c r="AP128" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR128" t="n">
         <v>1.73</v>
@@ -28820,7 +28820,7 @@
         <v>0.71</v>
       </c>
       <c r="AP130" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ130" t="n">
         <v>0.89</v>
@@ -29038,7 +29038,7 @@
         <v>1</v>
       </c>
       <c r="AP131" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.25</v>
@@ -29474,7 +29474,7 @@
         <v>1.57</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.3</v>
@@ -29692,10 +29692,10 @@
         <v>1.67</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR134" t="n">
         <v>1.9</v>
@@ -29913,7 +29913,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR135" t="n">
         <v>1.41</v>
@@ -30131,7 +30131,7 @@
         <v>1</v>
       </c>
       <c r="AQ136" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AR136" t="n">
         <v>1.34</v>
@@ -31003,7 +31003,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR140" t="n">
         <v>1.34</v>
@@ -32090,7 +32090,7 @@
         <v>0.75</v>
       </c>
       <c r="AP145" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ145" t="n">
         <v>0.67</v>
@@ -32311,7 +32311,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR146" t="n">
         <v>1.4</v>
@@ -32526,10 +32526,10 @@
         <v>0.63</v>
       </c>
       <c r="AP147" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR147" t="n">
         <v>1.56</v>
@@ -32744,7 +32744,7 @@
         <v>1</v>
       </c>
       <c r="AP148" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.89</v>
@@ -32962,10 +32962,10 @@
         <v>1.43</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR149" t="n">
         <v>1.61</v>
@@ -33180,10 +33180,10 @@
         <v>2.71</v>
       </c>
       <c r="AP150" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ150" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AR150" t="n">
         <v>1.6</v>
@@ -33695,6 +33695,1314 @@
       </c>
       <c r="BP152" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>8227570</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>46039.47916666666</v>
+      </c>
+      <c r="F153" t="n">
+        <v>18</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R153" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S153" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="T153" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U153" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="V153" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X153" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BL153" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM153" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN153" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO153" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP153" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>8227546</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>46039.47916666666</v>
+      </c>
+      <c r="F154" t="n">
+        <v>18</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>3</v>
+      </c>
+      <c r="M154" t="n">
+        <v>2</v>
+      </c>
+      <c r="N154" t="n">
+        <v>5</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['45+1', '54', '90+5']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['62', '72']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R154" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S154" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="T154" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U154" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="V154" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X154" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL154" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM154" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO154" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="BP154" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>8227682</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>46039.47916666666</v>
+      </c>
+      <c r="F155" t="n">
+        <v>18</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Borussia M'gladbach</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R155" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S155" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T155" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U155" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="V155" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X155" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL155" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM155" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BN155" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO155" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP155" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>8227797</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>46039.47916666666</v>
+      </c>
+      <c r="F156" t="n">
+        <v>18</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="n">
+        <v>2</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R156" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S156" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T156" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U156" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="V156" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X156" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BL156" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM156" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN156" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO156" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP156" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>8227796</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>46039.47916666666</v>
+      </c>
+      <c r="F157" t="n">
+        <v>18</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>2</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="n">
+        <v>3</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['57', '85']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R157" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S157" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T157" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U157" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="V157" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X157" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BL157" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM157" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN157" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO157" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BP157" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>8227568</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>46039.60416666666</v>
+      </c>
+      <c r="F158" t="n">
+        <v>18</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="n">
+        <v>5</v>
+      </c>
+      <c r="N158" t="n">
+        <v>6</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['50', '67', '82', '85', '88']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R158" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S158" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T158" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U158" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V158" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X158" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL158" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM158" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BN158" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP158" t="n">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -34291,13 +34291,13 @@
         <v>0</v>
       </c>
       <c r="AW155" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX155" t="n">
         <v>6</v>
       </c>
       <c r="AY155" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ155" t="n">
         <v>6</v>
@@ -34730,13 +34730,13 @@
         <v>14</v>
       </c>
       <c r="AX157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY157" t="n">
         <v>20</v>
       </c>
       <c r="AZ157" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA157" t="n">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP158"/>
+  <dimension ref="A1:BP160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.22</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ16" t="n">
         <v>2.78</v>
@@ -4407,7 +4407,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.5</v>
@@ -7023,7 +7023,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR30" t="n">
         <v>1.42</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.67</v>
@@ -8113,7 +8113,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR35" t="n">
         <v>1.95</v>
@@ -10944,7 +10944,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.25</v>
@@ -11165,7 +11165,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR49" t="n">
         <v>1.54</v>
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.44</v>
@@ -12473,7 +12473,7 @@
         <v>1</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR55" t="n">
         <v>1.71</v>
@@ -14653,7 +14653,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR65" t="n">
         <v>1.49</v>
@@ -15086,7 +15086,7 @@
         <v>1.75</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.38</v>
@@ -16179,7 +16179,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR72" t="n">
         <v>1.62</v>
@@ -16394,7 +16394,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.67</v>
@@ -16612,7 +16612,7 @@
         <v>1.75</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.78</v>
@@ -16833,7 +16833,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR75" t="n">
         <v>1.47</v>
@@ -20100,7 +20100,7 @@
         <v>1</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.5</v>
@@ -20757,7 +20757,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR93" t="n">
         <v>2.37</v>
@@ -21408,7 +21408,7 @@
         <v>0.4</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.25</v>
@@ -22283,7 +22283,7 @@
         <v>1</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR100" t="n">
         <v>1.56</v>
@@ -24678,7 +24678,7 @@
         <v>2.6</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ111" t="n">
         <v>2.78</v>
@@ -24896,7 +24896,7 @@
         <v>2</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.63</v>
@@ -25117,7 +25117,7 @@
         <v>1</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR113" t="n">
         <v>1.31</v>
@@ -25335,7 +25335,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR114" t="n">
         <v>1.73</v>
@@ -28602,7 +28602,7 @@
         <v>0.71</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.67</v>
@@ -28823,7 +28823,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR130" t="n">
         <v>1.57</v>
@@ -29041,7 +29041,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR131" t="n">
         <v>1.65</v>
@@ -29256,7 +29256,7 @@
         <v>2</v>
       </c>
       <c r="AP132" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.88</v>
@@ -31872,7 +31872,7 @@
         <v>1.5</v>
       </c>
       <c r="AP144" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.3</v>
@@ -32747,7 +32747,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR148" t="n">
         <v>1.93</v>
@@ -33398,10 +33398,10 @@
         <v>1.29</v>
       </c>
       <c r="AP151" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ151" t="n">
         <v>1.22</v>
-      </c>
-      <c r="AQ151" t="n">
-        <v>1.25</v>
       </c>
       <c r="AR151" t="n">
         <v>1.43</v>
@@ -35003,6 +35003,442 @@
       </c>
       <c r="BP158" t="n">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>8227571</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>46040.47916666666</v>
+      </c>
+      <c r="F159" t="n">
+        <v>18</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="n">
+        <v>2</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R159" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S159" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U159" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="V159" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X159" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BL159" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BM159" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BN159" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO159" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP159" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>8227758</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>46040.5625</v>
+      </c>
+      <c r="F160" t="n">
+        <v>18</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>2</v>
+      </c>
+      <c r="M160" t="n">
+        <v>2</v>
+      </c>
+      <c r="N160" t="n">
+        <v>4</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['47', '49']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['59', '62']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R160" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S160" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T160" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="V160" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X160" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BL160" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM160" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN160" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO160" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP160" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -35163,13 +35163,13 @@
         <v>3</v>
       </c>
       <c r="AW159" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX159" t="n">
         <v>17</v>
       </c>
       <c r="AY159" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ159" t="n">
         <v>20</v>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -35384,13 +35384,13 @@
         <v>8</v>
       </c>
       <c r="AX160" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY160" t="n">
         <v>13</v>
       </c>
       <c r="AZ160" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA160" t="n">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP160"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2663,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR26" t="n">
         <v>2.26</v>
@@ -10511,7 +10511,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR46" t="n">
         <v>1.49</v>
@@ -13127,7 +13127,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR58" t="n">
         <v>2.01</v>
@@ -18141,7 +18141,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR81" t="n">
         <v>1.54</v>
@@ -21411,7 +21411,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR96" t="n">
         <v>1.35</v>
@@ -26643,7 +26643,7 @@
         <v>2</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR120" t="n">
         <v>1.63</v>
@@ -30567,7 +30567,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR138" t="n">
         <v>1.63</v>
@@ -35439,6 +35439,224 @@
       </c>
       <c r="BP160" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>8227573</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>46045.6875</v>
+      </c>
+      <c r="F161" t="n">
+        <v>19</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R161" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S161" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T161" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V161" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X161" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BL161" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM161" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BN161" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO161" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BP161" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ9" t="n">
         <v>1</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.3</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR21" t="n">
         <v>1.87</v>
@@ -5497,7 +5497,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR23" t="n">
         <v>0.85</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.78</v>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.33</v>
@@ -6369,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR27" t="n">
         <v>1.61</v>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR28" t="n">
         <v>1.83</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.22</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.22</v>
@@ -8549,7 +8549,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR37" t="n">
         <v>1.5</v>
@@ -8764,10 +8764,10 @@
         <v>1.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR38" t="n">
         <v>2.52</v>
@@ -8982,10 +8982,10 @@
         <v>1.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR39" t="n">
         <v>0.7</v>
@@ -9203,7 +9203,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR40" t="n">
         <v>1.33</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.78</v>
@@ -10075,7 +10075,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR44" t="n">
         <v>1.74</v>
@@ -10947,7 +10947,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR48" t="n">
         <v>1.48</v>
@@ -11162,7 +11162,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.22</v>
@@ -11383,7 +11383,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR50" t="n">
         <v>1.57</v>
@@ -11816,7 +11816,7 @@
         <v>3</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ52" t="n">
         <v>2.78</v>
@@ -12906,7 +12906,7 @@
         <v>2</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.63</v>
@@ -13563,7 +13563,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR60" t="n">
         <v>1.7</v>
@@ -13778,10 +13778,10 @@
         <v>1</v>
       </c>
       <c r="AP61" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR61" t="n">
         <v>0.91</v>
@@ -13996,7 +13996,7 @@
         <v>2.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.78</v>
@@ -14435,7 +14435,7 @@
         <v>1</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR64" t="n">
         <v>1.64</v>
@@ -14871,7 +14871,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR66" t="n">
         <v>1.59</v>
@@ -15089,7 +15089,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR67" t="n">
         <v>1.46</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.5</v>
@@ -16176,7 +16176,7 @@
         <v>1.33</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.9</v>
@@ -17048,7 +17048,7 @@
         <v>1.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.3</v>
@@ -17266,10 +17266,10 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR77" t="n">
         <v>1.43</v>
@@ -17920,7 +17920,7 @@
         <v>2.33</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.63</v>
@@ -18359,7 +18359,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR82" t="n">
         <v>1.61</v>
@@ -18577,7 +18577,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR83" t="n">
         <v>1.5</v>
@@ -19228,7 +19228,7 @@
         <v>0</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.44</v>
@@ -19449,7 +19449,7 @@
         <v>2</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR87" t="n">
         <v>1.68</v>
@@ -20103,7 +20103,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR90" t="n">
         <v>1.86</v>
@@ -20318,7 +20318,7 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.67</v>
@@ -20536,10 +20536,10 @@
         <v>2.6</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR92" t="n">
         <v>1.43</v>
@@ -20754,7 +20754,7 @@
         <v>1</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.9</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.22</v>
@@ -22065,7 +22065,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR99" t="n">
         <v>1.72</v>
@@ -22501,7 +22501,7 @@
         <v>1</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR101" t="n">
         <v>1.27</v>
@@ -22716,7 +22716,7 @@
         <v>0.6</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.5</v>
@@ -23155,7 +23155,7 @@
         <v>2</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR104" t="n">
         <v>1.61</v>
@@ -23588,7 +23588,7 @@
         <v>1.83</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.78</v>
@@ -24024,10 +24024,10 @@
         <v>1.2</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR108" t="n">
         <v>1.56</v>
@@ -24460,7 +24460,7 @@
         <v>1.4</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.22</v>
@@ -25114,7 +25114,7 @@
         <v>0.83</v>
       </c>
       <c r="AP113" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.9</v>
@@ -25989,7 +25989,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR117" t="n">
         <v>1.56</v>
@@ -26207,7 +26207,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR118" t="n">
         <v>1.86</v>
@@ -26425,7 +26425,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR119" t="n">
         <v>1.33</v>
@@ -26861,7 +26861,7 @@
         <v>1</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR121" t="n">
         <v>1.18</v>
@@ -27294,10 +27294,10 @@
         <v>0.67</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR123" t="n">
         <v>1.58</v>
@@ -27512,7 +27512,7 @@
         <v>1.14</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ124" t="n">
         <v>1</v>
@@ -27948,7 +27948,7 @@
         <v>0.67</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.67</v>
@@ -28605,7 +28605,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR129" t="n">
         <v>1.4</v>
@@ -29259,7 +29259,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR132" t="n">
         <v>1.72</v>
@@ -29910,7 +29910,7 @@
         <v>0.57</v>
       </c>
       <c r="AP135" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ135" t="n">
         <v>0.5</v>
@@ -30128,7 +30128,7 @@
         <v>2.67</v>
       </c>
       <c r="AP136" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ136" t="n">
         <v>2.78</v>
@@ -30346,7 +30346,7 @@
         <v>1.88</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.78</v>
@@ -30782,7 +30782,7 @@
         <v>1</v>
       </c>
       <c r="AP139" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ139" t="n">
         <v>1</v>
@@ -31218,7 +31218,7 @@
         <v>1.25</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.44</v>
@@ -31439,7 +31439,7 @@
         <v>1</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR142" t="n">
         <v>1.24</v>
@@ -31654,10 +31654,10 @@
         <v>1.43</v>
       </c>
       <c r="AP143" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR143" t="n">
         <v>2.41</v>
@@ -32093,7 +32093,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR145" t="n">
         <v>1.68</v>
@@ -32308,7 +32308,7 @@
         <v>0.43</v>
       </c>
       <c r="AP146" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ146" t="n">
         <v>0.44</v>
@@ -35657,6 +35657,1096 @@
       </c>
       <c r="BP161" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>8227759</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>46046.47916666666</v>
+      </c>
+      <c r="F162" t="n">
+        <v>19</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>3</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="n">
+        <v>4</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['68', '73', '83']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S162" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T162" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U162" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="V162" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X162" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BL162" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM162" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BN162" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO162" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BP162" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>8227557</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>46046.47916666666</v>
+      </c>
+      <c r="F163" t="n">
+        <v>19</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="n">
+        <v>3</v>
+      </c>
+      <c r="N163" t="n">
+        <v>4</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['52', '60', '65']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R163" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S163" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U163" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="V163" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X163" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BL163" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM163" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BN163" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO163" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP163" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>8227572</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>46046.47916666666</v>
+      </c>
+      <c r="F164" t="n">
+        <v>19</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="n">
+        <v>2</v>
+      </c>
+      <c r="N164" t="n">
+        <v>3</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['75', '81']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R164" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S164" t="n">
+        <v>13</v>
+      </c>
+      <c r="T164" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U164" t="n">
+        <v>6</v>
+      </c>
+      <c r="V164" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W164" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="X164" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>23</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL164" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM164" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BN164" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO164" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BP164" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>8227800</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>46046.47916666666</v>
+      </c>
+      <c r="F165" t="n">
+        <v>19</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>2</v>
+      </c>
+      <c r="R165" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S165" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T165" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U165" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="V165" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X165" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BL165" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BM165" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BN165" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO165" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP165" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>8227566</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>46046.47916666666</v>
+      </c>
+      <c r="F166" t="n">
+        <v>19</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>3</v>
+      </c>
+      <c r="N166" t="n">
+        <v>3</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['62', '68', '70']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R166" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S166" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T166" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="U166" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="V166" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="X166" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL166" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM166" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BN166" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO166" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP166" t="n">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP166"/>
+  <dimension ref="A1:BP167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.44</v>
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ23" t="n">
         <v>2</v>
@@ -5715,7 +5715,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR24" t="n">
         <v>0.82</v>
@@ -9639,7 +9639,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR42" t="n">
         <v>1.7</v>
@@ -10508,7 +10508,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.33</v>
@@ -12688,7 +12688,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.22</v>
@@ -13999,7 +13999,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR62" t="n">
         <v>2.7</v>
@@ -16615,7 +16615,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR74" t="n">
         <v>1.45</v>
@@ -16830,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.9</v>
@@ -18792,7 +18792,7 @@
         <v>3</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.78</v>
@@ -19013,7 +19013,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR85" t="n">
         <v>1.86</v>
@@ -23370,7 +23370,7 @@
         <v>0</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.44</v>
@@ -23591,7 +23591,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR106" t="n">
         <v>1.85</v>
@@ -26422,7 +26422,7 @@
         <v>1.57</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.56</v>
@@ -27733,7 +27733,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR125" t="n">
         <v>1.54</v>
@@ -30349,7 +30349,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR137" t="n">
         <v>1.54</v>
@@ -31000,7 +31000,7 @@
         <v>0.71</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ140" t="n">
         <v>0.67</v>
@@ -36686,13 +36686,13 @@
         <v>2</v>
       </c>
       <c r="AV166" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW166" t="n">
         <v>5</v>
       </c>
       <c r="AX166" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY166" t="n">
         <v>7</v>
@@ -36747,6 +36747,224 @@
       </c>
       <c r="BP166" t="n">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>8227790</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>46046.60416666666</v>
+      </c>
+      <c r="F167" t="n">
+        <v>19</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>3</v>
+      </c>
+      <c r="N167" t="n">
+        <v>3</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['10', '53', '84']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="R167" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S167" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T167" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V167" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X167" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BL167" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM167" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN167" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO167" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP167" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP167"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.78</v>
@@ -1573,7 +1573,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.33</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR22" t="n">
         <v>1.66</v>
@@ -5933,7 +5933,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR25" t="n">
         <v>1.1</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.6</v>
@@ -7895,7 +7895,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR34" t="n">
         <v>2</v>
@@ -9854,7 +9854,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.3</v>
@@ -10072,7 +10072,7 @@
         <v>3</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ44" t="n">
         <v>2</v>
@@ -10293,7 +10293,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR45" t="n">
         <v>1.71</v>
@@ -10729,7 +10729,7 @@
         <v>2</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR47" t="n">
         <v>1.64</v>
@@ -12470,7 +12470,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.9</v>
@@ -13345,7 +13345,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR59" t="n">
         <v>1.52</v>
@@ -14214,7 +14214,7 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.3</v>
@@ -15740,7 +15740,7 @@
         <v>3</v>
       </c>
       <c r="AP70" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ70" t="n">
         <v>2.78</v>
@@ -15961,7 +15961,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR71" t="n">
         <v>1.55</v>
@@ -17705,7 +17705,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR79" t="n">
         <v>1.67</v>
@@ -19664,10 +19664,10 @@
         <v>1.4</v>
       </c>
       <c r="AP88" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR88" t="n">
         <v>1.3</v>
@@ -19882,7 +19882,7 @@
         <v>0.75</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.5</v>
@@ -21193,7 +21193,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR95" t="n">
         <v>1.9</v>
@@ -22498,7 +22498,7 @@
         <v>1.67</v>
       </c>
       <c r="AP101" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.56</v>
@@ -22937,7 +22937,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR103" t="n">
         <v>1.68</v>
@@ -23809,7 +23809,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR107" t="n">
         <v>1.7</v>
@@ -24242,7 +24242,7 @@
         <v>0.8</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.67</v>
@@ -26858,7 +26858,7 @@
         <v>1.17</v>
       </c>
       <c r="AP121" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.11</v>
@@ -27515,7 +27515,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR124" t="n">
         <v>1.81</v>
@@ -27730,7 +27730,7 @@
         <v>2</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.9</v>
@@ -28169,7 +28169,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR127" t="n">
         <v>1.68</v>
@@ -30564,7 +30564,7 @@
         <v>0.29</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ138" t="n">
         <v>0.33</v>
@@ -30785,7 +30785,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR139" t="n">
         <v>1.26</v>
@@ -31221,7 +31221,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR141" t="n">
         <v>1.83</v>
@@ -31436,7 +31436,7 @@
         <v>0.57</v>
       </c>
       <c r="AP142" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ142" t="n">
         <v>0.78</v>
@@ -36965,6 +36965,442 @@
       </c>
       <c r="BP167" t="n">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>8227802</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>46047.47916666666</v>
+      </c>
+      <c r="F168" t="n">
+        <v>19</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Borussia M'gladbach</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>3</v>
+      </c>
+      <c r="N168" t="n">
+        <v>3</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['30', '67', '74']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="R168" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S168" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="T168" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U168" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="V168" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X168" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL168" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BM168" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BN168" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO168" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BP168" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>8227801</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>46047.5625</v>
+      </c>
+      <c r="F169" t="n">
+        <v>19</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>2</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
+      <c r="K169" t="n">
+        <v>3</v>
+      </c>
+      <c r="L169" t="n">
+        <v>2</v>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="n">
+        <v>3</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['11', '44']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R169" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S169" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T169" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U169" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="V169" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X169" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BL169" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM169" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BN169" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO169" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP169" t="n">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.63</v>
@@ -5061,7 +5061,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR21" t="n">
         <v>1.87</v>
@@ -5497,7 +5497,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR23" t="n">
         <v>0.85</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.9</v>
@@ -9203,7 +9203,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR40" t="n">
         <v>1.33</v>
@@ -10075,7 +10075,7 @@
         <v>2</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR44" t="n">
         <v>1.74</v>
@@ -11383,7 +11383,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR50" t="n">
         <v>1.57</v>
@@ -11598,7 +11598,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.5</v>
@@ -14435,7 +14435,7 @@
         <v>1</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR64" t="n">
         <v>1.64</v>
@@ -14650,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.22</v>
@@ -15089,7 +15089,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR67" t="n">
         <v>1.46</v>
@@ -18359,7 +18359,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ82" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR82" t="n">
         <v>1.61</v>
@@ -18574,7 +18574,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.11</v>
@@ -19449,7 +19449,7 @@
         <v>2</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR87" t="n">
         <v>1.68</v>
@@ -20539,7 +20539,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ92" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR92" t="n">
         <v>1.43</v>
@@ -22501,7 +22501,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR101" t="n">
         <v>1.27</v>
@@ -22934,7 +22934,7 @@
         <v>1.17</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.9</v>
@@ -26207,7 +26207,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ118" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR118" t="n">
         <v>1.86</v>
@@ -26425,7 +26425,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR119" t="n">
         <v>1.33</v>
@@ -28166,7 +28166,7 @@
         <v>1</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.6</v>
@@ -29259,7 +29259,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ132" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR132" t="n">
         <v>1.72</v>
@@ -33616,7 +33616,7 @@
         <v>1.33</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.3</v>
@@ -36017,7 +36017,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ163" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR163" t="n">
         <v>1.52</v>
@@ -36671,7 +36671,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR166" t="n">
         <v>1.3</v>
@@ -37400,6 +37400,442 @@
         <v>3.1</v>
       </c>
       <c r="BP169" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>8227545</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>46049.6875</v>
+      </c>
+      <c r="F170" t="n">
+        <v>16</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="n">
+        <v>2</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="R170" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S170" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="T170" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V170" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X170" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL170" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM170" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BN170" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO170" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP170" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>8227772</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>46049.6875</v>
+      </c>
+      <c r="F171" t="n">
+        <v>16</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>2</v>
+      </c>
+      <c r="N171" t="n">
+        <v>2</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['44', '54']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="R171" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S171" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T171" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U171" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="V171" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X171" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>24</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL171" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM171" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BN171" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO171" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP171" t="n">
         <v>1.34</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -37779,13 +37779,13 @@
         <v>3</v>
       </c>
       <c r="AW171" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX171" t="n">
         <v>9</v>
       </c>
       <c r="AY171" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ171" t="n">
         <v>12</v>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP171"/>
+  <dimension ref="A1:BP178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.6</v>
@@ -1791,7 +1791,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.3</v>
@@ -3317,7 +3317,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.44</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.9</v>
@@ -6805,7 +6805,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR29" t="n">
         <v>1.54</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.9</v>
@@ -7238,10 +7238,10 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR31" t="n">
         <v>1.1</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.44</v>
@@ -7674,10 +7674,10 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AR33" t="n">
         <v>1.91</v>
@@ -7892,7 +7892,7 @@
         <v>2</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.9</v>
@@ -8110,10 +8110,10 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR35" t="n">
         <v>1.95</v>
@@ -8331,7 +8331,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR36" t="n">
         <v>1.43</v>
@@ -8549,7 +8549,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR37" t="n">
         <v>1.5</v>
@@ -9421,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR41" t="n">
         <v>1.62</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.6</v>
@@ -10726,7 +10726,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.9</v>
@@ -10944,10 +10944,10 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR48" t="n">
         <v>1.48</v>
@@ -11165,7 +11165,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR49" t="n">
         <v>1.54</v>
@@ -11598,10 +11598,10 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR51" t="n">
         <v>1.46</v>
@@ -11816,10 +11816,10 @@
         <v>3</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ52" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AR52" t="n">
         <v>2.17</v>
@@ -12252,10 +12252,10 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR54" t="n">
         <v>1.51</v>
@@ -12691,7 +12691,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR56" t="n">
         <v>1.39</v>
@@ -12909,7 +12909,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR57" t="n">
         <v>1.47</v>
@@ -13124,7 +13124,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.33</v>
@@ -13560,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.78</v>
@@ -14650,10 +14650,10 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR65" t="n">
         <v>1.49</v>
@@ -14868,10 +14868,10 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR66" t="n">
         <v>1.59</v>
@@ -15086,7 +15086,7 @@
         <v>1.75</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.5</v>
@@ -15304,10 +15304,10 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR68" t="n">
         <v>1.67</v>
@@ -15522,7 +15522,7 @@
         <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.44</v>
@@ -15743,7 +15743,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ70" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AR70" t="n">
         <v>1.58</v>
@@ -16397,7 +16397,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR73" t="n">
         <v>1.81</v>
@@ -16612,7 +16612,7 @@
         <v>1.75</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.9</v>
@@ -17487,7 +17487,7 @@
         <v>1</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR78" t="n">
         <v>1.51</v>
@@ -17702,7 +17702,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.6</v>
@@ -17923,7 +17923,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR80" t="n">
         <v>2.46</v>
@@ -18138,7 +18138,7 @@
         <v>0.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.33</v>
@@ -18574,10 +18574,10 @@
         <v>1.5</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR83" t="n">
         <v>1.5</v>
@@ -18795,7 +18795,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AR84" t="n">
         <v>1.39</v>
@@ -19010,7 +19010,7 @@
         <v>2</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.9</v>
@@ -19446,7 +19446,7 @@
         <v>2</v>
       </c>
       <c r="AP87" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.5</v>
@@ -19885,7 +19885,7 @@
         <v>2</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR89" t="n">
         <v>1.42</v>
@@ -20318,10 +20318,10 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR91" t="n">
         <v>1.57</v>
@@ -20975,7 +20975,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR94" t="n">
         <v>1.58</v>
@@ -21408,7 +21408,7 @@
         <v>0.4</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.33</v>
@@ -21629,7 +21629,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR97" t="n">
         <v>1.43</v>
@@ -21844,7 +21844,7 @@
         <v>1.6</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.3</v>
@@ -22062,7 +22062,7 @@
         <v>1</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.6</v>
@@ -22283,7 +22283,7 @@
         <v>1</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR100" t="n">
         <v>1.56</v>
@@ -22719,7 +22719,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR102" t="n">
         <v>2.37</v>
@@ -22934,7 +22934,7 @@
         <v>1.17</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.9</v>
@@ -23152,7 +23152,7 @@
         <v>0.8</v>
       </c>
       <c r="AP104" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.78</v>
@@ -23806,7 +23806,7 @@
         <v>1.17</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.6</v>
@@ -24024,10 +24024,10 @@
         <v>1.2</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR108" t="n">
         <v>1.56</v>
@@ -24245,7 +24245,7 @@
         <v>2</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR109" t="n">
         <v>1.34</v>
@@ -24463,7 +24463,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR110" t="n">
         <v>1.47</v>
@@ -24681,7 +24681,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ111" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AR111" t="n">
         <v>1.85</v>
@@ -24896,10 +24896,10 @@
         <v>2</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR112" t="n">
         <v>1.39</v>
@@ -25335,7 +25335,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR114" t="n">
         <v>1.73</v>
@@ -25550,10 +25550,10 @@
         <v>0.5</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR115" t="n">
         <v>1.68</v>
@@ -25768,7 +25768,7 @@
         <v>1.83</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.3</v>
@@ -25986,7 +25986,7 @@
         <v>0.83</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.6</v>
@@ -26640,7 +26640,7 @@
         <v>0.33</v>
       </c>
       <c r="AP120" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.33</v>
@@ -26861,7 +26861,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR121" t="n">
         <v>1.18</v>
@@ -27294,7 +27294,7 @@
         <v>0.67</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.78</v>
@@ -27951,7 +27951,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR126" t="n">
         <v>2.34</v>
@@ -28166,7 +28166,7 @@
         <v>1</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.6</v>
@@ -28387,7 +28387,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR128" t="n">
         <v>1.73</v>
@@ -28602,7 +28602,7 @@
         <v>0.71</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.6</v>
@@ -29038,10 +29038,10 @@
         <v>1</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR131" t="n">
         <v>1.65</v>
@@ -29474,7 +29474,7 @@
         <v>1.57</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.3</v>
@@ -29692,10 +29692,10 @@
         <v>1.67</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR134" t="n">
         <v>1.9</v>
@@ -29913,7 +29913,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR135" t="n">
         <v>1.41</v>
@@ -30131,7 +30131,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ136" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AR136" t="n">
         <v>1.34</v>
@@ -30346,7 +30346,7 @@
         <v>1.88</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.9</v>
@@ -31003,7 +31003,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR140" t="n">
         <v>1.34</v>
@@ -31657,7 +31657,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR143" t="n">
         <v>2.41</v>
@@ -32529,7 +32529,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR147" t="n">
         <v>1.56</v>
@@ -32744,7 +32744,7 @@
         <v>1</v>
       </c>
       <c r="AP148" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.9</v>
@@ -32962,10 +32962,10 @@
         <v>1.43</v>
       </c>
       <c r="AP149" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR149" t="n">
         <v>1.61</v>
@@ -33180,10 +33180,10 @@
         <v>2.71</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ150" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AR150" t="n">
         <v>1.6</v>
@@ -33398,10 +33398,10 @@
         <v>1.29</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR151" t="n">
         <v>1.43</v>
@@ -33616,7 +33616,7 @@
         <v>1.33</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.3</v>
@@ -33834,10 +33834,10 @@
         <v>1.86</v>
       </c>
       <c r="AP153" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR153" t="n">
         <v>1.7</v>
@@ -34055,7 +34055,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR154" t="n">
         <v>1.71</v>
@@ -34270,10 +34270,10 @@
         <v>1.25</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR155" t="n">
         <v>1.49</v>
@@ -34706,10 +34706,10 @@
         <v>0.75</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR157" t="n">
         <v>1.53</v>
@@ -34924,10 +34924,10 @@
         <v>2.75</v>
       </c>
       <c r="AP158" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ158" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AR158" t="n">
         <v>1.96</v>
@@ -35145,7 +35145,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR159" t="n">
         <v>1.72</v>
@@ -35360,7 +35360,7 @@
         <v>0.89</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ160" t="n">
         <v>0.9</v>
@@ -35799,7 +35799,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR162" t="n">
         <v>1.42</v>
@@ -36014,7 +36014,7 @@
         <v>1.88</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ163" t="n">
         <v>2.1</v>
@@ -37758,7 +37758,7 @@
         <v>2</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ171" t="n">
         <v>2.1</v>
@@ -37837,6 +37837,1532 @@
       </c>
       <c r="BP171" t="n">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>8227798</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>46052.6875</v>
+      </c>
+      <c r="F172" t="n">
+        <v>20</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R172" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S172" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T172" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U172" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="V172" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X172" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL172" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BM172" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN172" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO172" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP172" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>8227799</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>46053.47916666666</v>
+      </c>
+      <c r="F173" t="n">
+        <v>20</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
+      <c r="K173" t="n">
+        <v>2</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="n">
+        <v>2</v>
+      </c>
+      <c r="N173" t="n">
+        <v>3</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['45+6', '49']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R173" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S173" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="T173" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U173" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V173" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X173" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BL173" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM173" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN173" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO173" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BP173" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>8227579</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>46053.47916666666</v>
+      </c>
+      <c r="F174" t="n">
+        <v>20</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
+      <c r="K174" t="n">
+        <v>2</v>
+      </c>
+      <c r="L174" t="n">
+        <v>2</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="n">
+        <v>3</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['41', '59']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="R174" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S174" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T174" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="V174" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X174" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BL174" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM174" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN174" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO174" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BP174" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>8227581</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>46053.47916666666</v>
+      </c>
+      <c r="F175" t="n">
+        <v>20</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>2</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>2</v>
+      </c>
+      <c r="L175" t="n">
+        <v>3</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="n">
+        <v>4</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['42', '45', '47']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R175" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S175" t="n">
+        <v>4</v>
+      </c>
+      <c r="T175" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="V175" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X175" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL175" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM175" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN175" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO175" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP175" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>8227586</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>46053.47916666666</v>
+      </c>
+      <c r="F176" t="n">
+        <v>20</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Borussia M'gladbach</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="n">
+        <v>2</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R176" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S176" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T176" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U176" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="V176" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X176" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL176" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM176" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BN176" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO176" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP176" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>8227555</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>46053.47916666666</v>
+      </c>
+      <c r="F177" t="n">
+        <v>20</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>2</v>
+      </c>
+      <c r="K177" t="n">
+        <v>2</v>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="n">
+        <v>3</v>
+      </c>
+      <c r="N177" t="n">
+        <v>4</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['26', '33', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R177" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S177" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="T177" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U177" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="V177" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X177" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL177" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM177" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN177" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO177" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BP177" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>8227558</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>46053.60416666666</v>
+      </c>
+      <c r="F178" t="n">
+        <v>20</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
+      <c r="K178" t="n">
+        <v>2</v>
+      </c>
+      <c r="L178" t="n">
+        <v>2</v>
+      </c>
+      <c r="M178" t="n">
+        <v>2</v>
+      </c>
+      <c r="N178" t="n">
+        <v>4</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['34', '53']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['42', '46']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R178" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S178" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="T178" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U178" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="V178" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X178" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL178" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM178" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BN178" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO178" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BP178" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP178"/>
+  <dimension ref="A1:BP179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.2</v>
@@ -4625,7 +4625,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.45</v>
@@ -7023,7 +7023,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR30" t="n">
         <v>1.42</v>
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.44</v>
@@ -12473,7 +12473,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR55" t="n">
         <v>1.71</v>
@@ -16179,7 +16179,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR72" t="n">
         <v>1.62</v>
@@ -16394,7 +16394,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.9</v>
@@ -16833,7 +16833,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR75" t="n">
         <v>1.47</v>
@@ -20100,7 +20100,7 @@
         <v>1</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.78</v>
@@ -20757,7 +20757,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR93" t="n">
         <v>2.37</v>
@@ -24678,7 +24678,7 @@
         <v>2.6</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ111" t="n">
         <v>2.6</v>
@@ -25117,7 +25117,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR113" t="n">
         <v>1.31</v>
@@ -28823,7 +28823,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR130" t="n">
         <v>1.57</v>
@@ -29256,7 +29256,7 @@
         <v>2</v>
       </c>
       <c r="AP132" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ132" t="n">
         <v>2.1</v>
@@ -31872,7 +31872,7 @@
         <v>1.5</v>
       </c>
       <c r="AP144" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.3</v>
@@ -32747,7 +32747,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR148" t="n">
         <v>1.93</v>
@@ -35142,7 +35142,7 @@
         <v>1.25</v>
       </c>
       <c r="AP159" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.1</v>
@@ -35363,7 +35363,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR160" t="n">
         <v>1.4</v>
@@ -39363,6 +39363,224 @@
       </c>
       <c r="BP178" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>8227580</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>46054.47916666666</v>
+      </c>
+      <c r="F179" t="n">
+        <v>20</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>1</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R179" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S179" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T179" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U179" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V179" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X179" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BL179" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM179" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BN179" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO179" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BP179" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP179"/>
+  <dimension ref="A1:BP180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3753,7 +3753,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.1</v>
@@ -7459,7 +7459,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR32" t="n">
         <v>0.71</v>
@@ -8546,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ37" t="n">
         <v>1</v>
@@ -11380,7 +11380,7 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.5</v>
@@ -12037,7 +12037,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR53" t="n">
         <v>1.74</v>
@@ -15525,7 +15525,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR69" t="n">
         <v>1.66</v>
@@ -15958,7 +15958,7 @@
         <v>1.75</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.9</v>
@@ -19231,7 +19231,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR86" t="n">
         <v>1.68</v>
@@ -21190,7 +21190,7 @@
         <v>1.2</v>
       </c>
       <c r="AP95" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.6</v>
@@ -23373,7 +23373,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR105" t="n">
         <v>1.38</v>
@@ -26204,7 +26204,7 @@
         <v>2.33</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ118" t="n">
         <v>2.1</v>
@@ -27079,7 +27079,7 @@
         <v>1</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR122" t="n">
         <v>1.54</v>
@@ -28384,7 +28384,7 @@
         <v>1.67</v>
       </c>
       <c r="AP128" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.2</v>
@@ -32090,7 +32090,7 @@
         <v>0.75</v>
       </c>
       <c r="AP145" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ145" t="n">
         <v>0.6</v>
@@ -32311,7 +32311,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR146" t="n">
         <v>1.4</v>
@@ -34052,7 +34052,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP154" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ154" t="n">
         <v>0.45</v>
@@ -34491,7 +34491,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR156" t="n">
         <v>1.56</v>
@@ -39581,6 +39581,224 @@
       </c>
       <c r="BP179" t="n">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>8227574</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>46054.5625</v>
+      </c>
+      <c r="F180" t="n">
+        <v>20</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
+      <c r="K180" t="n">
+        <v>2</v>
+      </c>
+      <c r="L180" t="n">
+        <v>3</v>
+      </c>
+      <c r="M180" t="n">
+        <v>2</v>
+      </c>
+      <c r="N180" t="n">
+        <v>5</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['44', '68', '69']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['45+5', '48']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R180" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S180" t="n">
+        <v>8</v>
+      </c>
+      <c r="T180" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U180" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V180" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X180" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL180" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM180" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO180" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP180" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP180"/>
+  <dimension ref="A1:BP189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ6" t="n">
         <v>1</v>
@@ -2009,7 +2009,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.9</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.9</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.82</v>
@@ -4843,7 +4843,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR20" t="n">
         <v>0.96</v>
@@ -5058,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.9</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR22" t="n">
         <v>1.87</v>
@@ -5494,10 +5494,10 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR23" t="n">
         <v>0.82</v>
@@ -5712,10 +5712,10 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR24" t="n">
         <v>1.66</v>
@@ -5930,10 +5930,10 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR25" t="n">
         <v>0.85</v>
@@ -6148,10 +6148,10 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR26" t="n">
         <v>2.26</v>
@@ -6366,10 +6366,10 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR27" t="n">
         <v>1.61</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR28" t="n">
         <v>1.83</v>
@@ -8764,10 +8764,10 @@
         <v>1.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR38" t="n">
         <v>2.52</v>
@@ -8982,10 +8982,10 @@
         <v>1.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR39" t="n">
         <v>0.7</v>
@@ -9200,10 +9200,10 @@
         <v>1.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR40" t="n">
         <v>1.33</v>
@@ -9418,10 +9418,10 @@
         <v>1</v>
       </c>
       <c r="AP41" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR41" t="n">
         <v>1.62</v>
@@ -9636,10 +9636,10 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR42" t="n">
         <v>1.7</v>
@@ -9854,10 +9854,10 @@
         <v>1.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR43" t="n">
         <v>1.84</v>
@@ -10072,10 +10072,10 @@
         <v>3</v>
       </c>
       <c r="AP44" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR44" t="n">
         <v>1.74</v>
@@ -10290,10 +10290,10 @@
         <v>0</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR45" t="n">
         <v>1.71</v>
@@ -10508,10 +10508,10 @@
         <v>0.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR46" t="n">
         <v>1.49</v>
@@ -11165,7 +11165,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR49" t="n">
         <v>1.57</v>
@@ -12470,7 +12470,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.82</v>
@@ -12688,7 +12688,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.2</v>
@@ -12906,10 +12906,10 @@
         <v>1</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR57" t="n">
         <v>0.91</v>
@@ -13124,10 +13124,10 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR58" t="n">
         <v>1.7</v>
@@ -13342,10 +13342,10 @@
         <v>2</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR59" t="n">
         <v>1.47</v>
@@ -13560,10 +13560,10 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR60" t="n">
         <v>1.52</v>
@@ -13781,7 +13781,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR61" t="n">
         <v>2.01</v>
@@ -13996,10 +13996,10 @@
         <v>2.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR62" t="n">
         <v>2.7</v>
@@ -14214,10 +14214,10 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR63" t="n">
         <v>1.39</v>
@@ -14432,10 +14432,10 @@
         <v>2.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR64" t="n">
         <v>1.64</v>
@@ -15525,7 +15525,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR69" t="n">
         <v>1.46</v>
@@ -15740,7 +15740,7 @@
         <v>3</v>
       </c>
       <c r="AP70" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ70" t="n">
         <v>2.6</v>
@@ -16615,7 +16615,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR74" t="n">
         <v>1.45</v>
@@ -16830,10 +16830,10 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR75" t="n">
         <v>1.43</v>
@@ -17051,7 +17051,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR76" t="n">
         <v>1.67</v>
@@ -17266,10 +17266,10 @@
         <v>1.75</v>
       </c>
       <c r="AP77" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR77" t="n">
         <v>1.51</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.82</v>
@@ -17702,7 +17702,7 @@
         <v>0.33</v>
       </c>
       <c r="AP79" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.2</v>
@@ -17920,10 +17920,10 @@
         <v>2.33</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR80" t="n">
         <v>2.46</v>
@@ -18138,10 +18138,10 @@
         <v>0.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR81" t="n">
         <v>1.54</v>
@@ -18356,10 +18356,10 @@
         <v>2.5</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ82" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR82" t="n">
         <v>1.61</v>
@@ -18792,7 +18792,7 @@
         <v>3</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.6</v>
@@ -19231,7 +19231,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR86" t="n">
         <v>1.68</v>
@@ -19449,7 +19449,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR87" t="n">
         <v>1.86</v>
@@ -19664,7 +19664,7 @@
         <v>1.4</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.9</v>
@@ -19882,7 +19882,7 @@
         <v>0.75</v>
       </c>
       <c r="AP89" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.45</v>
@@ -20103,7 +20103,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR90" t="n">
         <v>1.86</v>
@@ -20536,10 +20536,10 @@
         <v>2.6</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ92" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR92" t="n">
         <v>1.43</v>
@@ -20757,7 +20757,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR93" t="n">
         <v>1.35</v>
@@ -20975,7 +20975,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR94" t="n">
         <v>1.9</v>
@@ -21190,7 +21190,7 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.2</v>
@@ -21408,10 +21408,10 @@
         <v>1.75</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR96" t="n">
         <v>1.58</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.82</v>
@@ -21844,10 +21844,10 @@
         <v>1.6</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR98" t="n">
         <v>1.76</v>
@@ -22065,7 +22065,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR99" t="n">
         <v>1.72</v>
@@ -22280,7 +22280,7 @@
         <v>0.75</v>
       </c>
       <c r="AP100" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.1</v>
@@ -22498,10 +22498,10 @@
         <v>1.67</v>
       </c>
       <c r="AP101" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR101" t="n">
         <v>1.27</v>
@@ -22719,7 +22719,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR102" t="n">
         <v>1.61</v>
@@ -22934,7 +22934,7 @@
         <v>0.6</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.45</v>
@@ -23370,7 +23370,7 @@
         <v>0</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.4</v>
@@ -23591,7 +23591,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR106" t="n">
         <v>1.85</v>
@@ -23809,7 +23809,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR107" t="n">
         <v>1.7</v>
@@ -24242,7 +24242,7 @@
         <v>0.8</v>
       </c>
       <c r="AP109" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.9</v>
@@ -24460,7 +24460,7 @@
         <v>1.4</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.2</v>
@@ -24678,7 +24678,7 @@
         <v>0.83</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ111" t="n">
         <v>0.82</v>
@@ -24899,7 +24899,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR112" t="n">
         <v>1.39</v>
@@ -25332,7 +25332,7 @@
         <v>1.2</v>
       </c>
       <c r="AP114" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.1</v>
@@ -25550,7 +25550,7 @@
         <v>0.5</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.45</v>
@@ -25771,7 +25771,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR116" t="n">
         <v>1.91</v>
@@ -25989,7 +25989,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR117" t="n">
         <v>1.56</v>
@@ -26207,7 +26207,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ118" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR118" t="n">
         <v>1.86</v>
@@ -26422,10 +26422,10 @@
         <v>1.57</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR119" t="n">
         <v>1.33</v>
@@ -26640,7 +26640,7 @@
         <v>0.5</v>
       </c>
       <c r="AP120" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.4</v>
@@ -26858,7 +26858,7 @@
         <v>1.17</v>
       </c>
       <c r="AP121" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ121" t="n">
         <v>1</v>
@@ -27079,7 +27079,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR122" t="n">
         <v>1.63</v>
@@ -27297,7 +27297,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR123" t="n">
         <v>1.58</v>
@@ -27730,10 +27730,10 @@
         <v>2</v>
       </c>
       <c r="AP125" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ125" t="n">
         <v>2</v>
-      </c>
-      <c r="AQ125" t="n">
-        <v>1.9</v>
       </c>
       <c r="AR125" t="n">
         <v>1.54</v>
@@ -27948,7 +27948,7 @@
         <v>0.67</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.9</v>
@@ -28169,7 +28169,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR127" t="n">
         <v>1.68</v>
@@ -28602,7 +28602,7 @@
         <v>1</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.1</v>
@@ -28820,7 +28820,7 @@
         <v>0.71</v>
       </c>
       <c r="AP130" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ130" t="n">
         <v>0.82</v>
@@ -29041,7 +29041,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ131" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR131" t="n">
         <v>1.72</v>
@@ -29259,7 +29259,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR132" t="n">
         <v>1.4</v>
@@ -29477,7 +29477,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR133" t="n">
         <v>1.56</v>
@@ -29695,7 +29695,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR134" t="n">
         <v>1.9</v>
@@ -29910,7 +29910,7 @@
         <v>0.57</v>
       </c>
       <c r="AP135" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ135" t="n">
         <v>0.45</v>
@@ -30128,7 +30128,7 @@
         <v>2.67</v>
       </c>
       <c r="AP136" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ136" t="n">
         <v>2.6</v>
@@ -30349,7 +30349,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR137" t="n">
         <v>1.54</v>
@@ -30564,10 +30564,10 @@
         <v>0.29</v>
       </c>
       <c r="AP138" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR138" t="n">
         <v>1.63</v>
@@ -30782,7 +30782,7 @@
         <v>1</v>
       </c>
       <c r="AP139" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ139" t="n">
         <v>0.9</v>
@@ -31000,7 +31000,7 @@
         <v>0.71</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ140" t="n">
         <v>0.9</v>
@@ -31221,7 +31221,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR141" t="n">
         <v>1.83</v>
@@ -31436,10 +31436,10 @@
         <v>0.57</v>
       </c>
       <c r="AP142" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR142" t="n">
         <v>1.24</v>
@@ -31654,7 +31654,7 @@
         <v>1.43</v>
       </c>
       <c r="AP143" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ143" t="n">
         <v>1</v>
@@ -31875,7 +31875,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR144" t="n">
         <v>1.63</v>
@@ -32090,7 +32090,7 @@
         <v>0.43</v>
       </c>
       <c r="AP145" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ145" t="n">
         <v>0.4</v>
@@ -32311,7 +32311,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR146" t="n">
         <v>1.68</v>
@@ -32526,7 +32526,7 @@
         <v>0.63</v>
       </c>
       <c r="AP147" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ147" t="n">
         <v>0.45</v>
@@ -32962,7 +32962,7 @@
         <v>2.71</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ149" t="n">
         <v>2.6</v>
@@ -33619,7 +33619,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR152" t="n">
         <v>1.61</v>
@@ -33834,7 +33834,7 @@
         <v>0.38</v>
       </c>
       <c r="AP153" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ153" t="n">
         <v>0.4</v>
@@ -34273,7 +34273,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR155" t="n">
         <v>1.7</v>
@@ -34488,7 +34488,7 @@
         <v>0.75</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ156" t="n">
         <v>0.9</v>
@@ -35578,10 +35578,10 @@
         <v>0.25</v>
       </c>
       <c r="AP161" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ161" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR161" t="n">
         <v>1.48</v>
@@ -35799,7 +35799,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ162" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR162" t="n">
         <v>1.52</v>
@@ -36014,10 +36014,10 @@
         <v>1.38</v>
       </c>
       <c r="AP163" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR163" t="n">
         <v>1.3</v>
@@ -36235,7 +36235,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ164" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR164" t="n">
         <v>1.81</v>
@@ -36450,10 +36450,10 @@
         <v>0.5</v>
       </c>
       <c r="AP165" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ165" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR165" t="n">
         <v>2.38</v>
@@ -36668,7 +36668,7 @@
         <v>1.25</v>
       </c>
       <c r="AP166" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ166" t="n">
         <v>1</v>
@@ -36886,10 +36886,10 @@
         <v>1.78</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR167" t="n">
         <v>1.38</v>
@@ -37104,10 +37104,10 @@
         <v>1.44</v>
       </c>
       <c r="AP168" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR168" t="n">
         <v>1.26</v>
@@ -37322,7 +37322,7 @@
         <v>1</v>
       </c>
       <c r="AP169" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ169" t="n">
         <v>0.9</v>
@@ -37540,10 +37540,10 @@
         <v>1.56</v>
       </c>
       <c r="AP170" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR170" t="n">
         <v>1.41</v>
@@ -37761,7 +37761,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ171" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR171" t="n">
         <v>1.6</v>
@@ -37976,7 +37976,7 @@
         <v>1.11</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ172" t="n">
         <v>1</v>
@@ -38633,7 +38633,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR175" t="n">
         <v>1.46</v>
@@ -39799,6 +39799,1968 @@
       </c>
       <c r="BP180" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>8227803</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>46059.6875</v>
+      </c>
+      <c r="F181" t="n">
+        <v>21</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="n">
+        <v>2</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R181" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S181" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T181" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="V181" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X181" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL181" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM181" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN181" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO181" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="BP181" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>8227583</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>46060.47916666666</v>
+      </c>
+      <c r="F182" t="n">
+        <v>21</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="n">
+        <v>2</v>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="n">
+        <v>3</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>['35', '55']</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="R182" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S182" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="T182" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U182" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="V182" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X182" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BL182" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM182" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BN182" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO182" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP182" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>8227578</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>46060.47916666666</v>
+      </c>
+      <c r="F183" t="n">
+        <v>21</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="n">
+        <v>2</v>
+      </c>
+      <c r="N183" t="n">
+        <v>3</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>['38', '87']</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="R183" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S183" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T183" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U183" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="V183" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X183" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL183" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BM183" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BN183" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO183" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BP183" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>8227577</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>46060.47916666666</v>
+      </c>
+      <c r="F184" t="n">
+        <v>21</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>2</v>
+      </c>
+      <c r="N184" t="n">
+        <v>2</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['45+3', '78']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R184" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S184" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="T184" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="V184" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X184" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BL184" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BM184" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BN184" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO184" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="BP184" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>8227569</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>46060.47916666666</v>
+      </c>
+      <c r="F185" t="n">
+        <v>21</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="n">
+        <v>2</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N185" t="n">
+        <v>2</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['8', '80']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R185" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S185" t="n">
+        <v>4</v>
+      </c>
+      <c r="T185" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U185" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="V185" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X185" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BL185" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM185" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN185" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO185" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP185" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>8227553</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>46060.47916666666</v>
+      </c>
+      <c r="F186" t="n">
+        <v>21</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S186" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T186" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U186" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="V186" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X186" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BL186" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM186" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BN186" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO186" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP186" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>8227582</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>46060.60416666666</v>
+      </c>
+      <c r="F187" t="n">
+        <v>21</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Borussia M'gladbach</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="n">
+        <v>2</v>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="n">
+        <v>2</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="R187" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S187" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T187" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U187" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="V187" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X187" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL187" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM187" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN187" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO187" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BP187" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>8227587</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>46061.47916666666</v>
+      </c>
+      <c r="F188" t="n">
+        <v>21</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="n">
+        <v>2</v>
+      </c>
+      <c r="N188" t="n">
+        <v>3</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['29', '56']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R188" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S188" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="T188" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U188" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="V188" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X188" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BL188" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM188" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BN188" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO188" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP188" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>8227761</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>46061.5625</v>
+      </c>
+      <c r="F189" t="n">
+        <v>21</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>3</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="n">
+        <v>4</v>
+      </c>
+      <c r="L189" t="n">
+        <v>5</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>6</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['20', '45', '45+2', '62', '89']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R189" t="n">
+        <v>3</v>
+      </c>
+      <c r="S189" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T189" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U189" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="V189" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W189" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="X189" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL189" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN189" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO189" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP189" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP189"/>
+  <dimension ref="A1:BP190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4189,7 +4189,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.1</v>
@@ -7241,7 +7241,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR31" t="n">
         <v>1.1</v>
@@ -8546,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ37" t="n">
         <v>1</v>
@@ -11162,7 +11162,7 @@
         <v>2</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.64</v>
@@ -12255,7 +12255,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR54" t="n">
         <v>1.51</v>
@@ -15958,7 +15958,7 @@
         <v>1.75</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.9</v>
@@ -16397,7 +16397,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR73" t="n">
         <v>1.81</v>
@@ -20321,7 +20321,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR91" t="n">
         <v>1.57</v>
@@ -20972,7 +20972,7 @@
         <v>1.2</v>
       </c>
       <c r="AP94" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.45</v>
@@ -24245,7 +24245,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR109" t="n">
         <v>1.34</v>
@@ -26204,7 +26204,7 @@
         <v>2.33</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.91</v>
@@ -27951,7 +27951,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR126" t="n">
         <v>2.34</v>
@@ -28384,7 +28384,7 @@
         <v>1.67</v>
       </c>
       <c r="AP128" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.2</v>
@@ -31003,7 +31003,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR140" t="n">
         <v>1.34</v>
@@ -32308,7 +32308,7 @@
         <v>0.75</v>
       </c>
       <c r="AP146" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ146" t="n">
         <v>0.55</v>
@@ -34052,7 +34052,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP154" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ154" t="n">
         <v>0.45</v>
@@ -34491,7 +34491,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR156" t="n">
         <v>1.53</v>
@@ -38415,7 +38415,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR174" t="n">
         <v>1.93</v>
@@ -39720,7 +39720,7 @@
         <v>0.44</v>
       </c>
       <c r="AP180" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ180" t="n">
         <v>0.4</v>
@@ -41761,6 +41761,224 @@
       </c>
       <c r="BP189" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>8227589</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>46066.6875</v>
+      </c>
+      <c r="F190" t="n">
+        <v>22</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>3</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>3</v>
+      </c>
+      <c r="L190" t="n">
+        <v>4</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N190" t="n">
+        <v>4</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['10', '15', '42', '84']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="R190" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S190" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T190" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U190" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="V190" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X190" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL190" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM190" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN190" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO190" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BP190" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP190"/>
+  <dimension ref="A1:BP198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.55</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.91</v>
@@ -2445,7 +2445,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.27</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.7</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.27</v>
@@ -5061,7 +5061,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR21" t="n">
         <v>1.1</v>
@@ -6802,10 +6802,10 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR29" t="n">
         <v>1.54</v>
@@ -7020,10 +7020,10 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR30" t="n">
         <v>0.71</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.82</v>
@@ -7456,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR32" t="n">
         <v>1.42</v>
@@ -7674,10 +7674,10 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR33" t="n">
         <v>1.91</v>
@@ -7892,10 +7892,10 @@
         <v>2</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR34" t="n">
         <v>2</v>
@@ -8110,10 +8110,10 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR35" t="n">
         <v>1.95</v>
@@ -8328,10 +8328,10 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR36" t="n">
         <v>1.43</v>
@@ -10726,10 +10726,10 @@
         <v>1.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR47" t="n">
         <v>1.64</v>
@@ -10944,10 +10944,10 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR48" t="n">
         <v>1.54</v>
@@ -11380,7 +11380,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50" t="n">
         <v>1</v>
@@ -11598,10 +11598,10 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR51" t="n">
         <v>1.46</v>
@@ -11816,10 +11816,10 @@
         <v>3</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ52" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR52" t="n">
         <v>2.17</v>
@@ -12034,10 +12034,10 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR53" t="n">
         <v>1.74</v>
@@ -12252,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.82</v>
@@ -12473,7 +12473,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR55" t="n">
         <v>1.71</v>
@@ -12691,7 +12691,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR56" t="n">
         <v>1.39</v>
@@ -13778,7 +13778,7 @@
         <v>0.67</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.6</v>
@@ -14650,10 +14650,10 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR65" t="n">
         <v>1.49</v>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ66" t="n">
         <v>1</v>
@@ -15086,10 +15086,10 @@
         <v>0</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR67" t="n">
         <v>1.66</v>
@@ -15304,10 +15304,10 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR68" t="n">
         <v>1.67</v>
@@ -15522,7 +15522,7 @@
         <v>1.75</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.64</v>
@@ -15743,7 +15743,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ70" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR70" t="n">
         <v>1.58</v>
@@ -15961,7 +15961,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR71" t="n">
         <v>1.55</v>
@@ -16176,10 +16176,10 @@
         <v>1.33</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR72" t="n">
         <v>1.62</v>
@@ -16394,7 +16394,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.82</v>
@@ -16612,7 +16612,7 @@
         <v>1.75</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ74" t="n">
         <v>2</v>
@@ -17048,7 +17048,7 @@
         <v>1.5</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.45</v>
@@ -17487,7 +17487,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR78" t="n">
         <v>1.47</v>
@@ -17705,7 +17705,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR79" t="n">
         <v>1.51</v>
@@ -18574,7 +18574,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ83" t="n">
         <v>1</v>
@@ -18795,7 +18795,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR84" t="n">
         <v>1.39</v>
@@ -19010,10 +19010,10 @@
         <v>0</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR85" t="n">
         <v>1.68</v>
@@ -19228,7 +19228,7 @@
         <v>2</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.64</v>
@@ -19446,7 +19446,7 @@
         <v>2</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ87" t="n">
         <v>2</v>
@@ -19667,7 +19667,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR88" t="n">
         <v>1.3</v>
@@ -19885,7 +19885,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR89" t="n">
         <v>1.42</v>
@@ -20100,7 +20100,7 @@
         <v>1</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.7</v>
@@ -20318,7 +20318,7 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.82</v>
@@ -20754,7 +20754,7 @@
         <v>0.4</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.6</v>
@@ -21193,7 +21193,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR95" t="n">
         <v>1.43</v>
@@ -21629,7 +21629,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR97" t="n">
         <v>2.37</v>
@@ -22062,7 +22062,7 @@
         <v>1</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.55</v>
@@ -22283,7 +22283,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR100" t="n">
         <v>1.56</v>
@@ -22716,7 +22716,7 @@
         <v>0.8</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.7</v>
@@ -22937,7 +22937,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR103" t="n">
         <v>2.37</v>
@@ -23152,10 +23152,10 @@
         <v>1.17</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR104" t="n">
         <v>1.68</v>
@@ -23373,7 +23373,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR105" t="n">
         <v>1.38</v>
@@ -23588,7 +23588,7 @@
         <v>1.83</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ106" t="n">
         <v>2</v>
@@ -23806,7 +23806,7 @@
         <v>1.17</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.45</v>
@@ -24024,7 +24024,7 @@
         <v>1.2</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ108" t="n">
         <v>1</v>
@@ -24463,7 +24463,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR110" t="n">
         <v>1.47</v>
@@ -24681,7 +24681,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR111" t="n">
         <v>1.31</v>
@@ -24896,7 +24896,7 @@
         <v>2</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.7</v>
@@ -25114,10 +25114,10 @@
         <v>2.6</v>
       </c>
       <c r="AP113" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ113" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR113" t="n">
         <v>1.85</v>
@@ -25335,7 +25335,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR114" t="n">
         <v>1.73</v>
@@ -25553,7 +25553,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR115" t="n">
         <v>1.68</v>
@@ -25768,7 +25768,7 @@
         <v>1.83</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.27</v>
@@ -25986,7 +25986,7 @@
         <v>0.83</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.55</v>
@@ -26643,7 +26643,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR120" t="n">
         <v>1.54</v>
@@ -27076,7 +27076,7 @@
         <v>0.33</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.6</v>
@@ -27294,7 +27294,7 @@
         <v>0.67</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.7</v>
@@ -27512,10 +27512,10 @@
         <v>1.14</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR124" t="n">
         <v>1.81</v>
@@ -28166,7 +28166,7 @@
         <v>1</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.45</v>
@@ -28387,7 +28387,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR128" t="n">
         <v>1.73</v>
@@ -28605,7 +28605,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR129" t="n">
         <v>1.65</v>
@@ -28823,7 +28823,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR130" t="n">
         <v>1.57</v>
@@ -29038,7 +29038,7 @@
         <v>2</v>
       </c>
       <c r="AP131" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.91</v>
@@ -29256,7 +29256,7 @@
         <v>0.71</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.55</v>
@@ -29474,7 +29474,7 @@
         <v>1.57</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.27</v>
@@ -29692,7 +29692,7 @@
         <v>1.67</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.7</v>
@@ -29913,7 +29913,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR135" t="n">
         <v>1.41</v>
@@ -30131,7 +30131,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ136" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR136" t="n">
         <v>1.34</v>
@@ -30346,7 +30346,7 @@
         <v>1.88</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ137" t="n">
         <v>2</v>
@@ -30785,7 +30785,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR139" t="n">
         <v>1.26</v>
@@ -31218,7 +31218,7 @@
         <v>1.25</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.45</v>
@@ -31872,7 +31872,7 @@
         <v>1.5</v>
       </c>
       <c r="AP144" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.27</v>
@@ -32093,7 +32093,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR145" t="n">
         <v>1.4</v>
@@ -32529,7 +32529,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR147" t="n">
         <v>1.56</v>
@@ -32744,10 +32744,10 @@
         <v>1</v>
       </c>
       <c r="AP148" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR148" t="n">
         <v>1.93</v>
@@ -32965,7 +32965,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ149" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR149" t="n">
         <v>1.6</v>
@@ -33180,10 +33180,10 @@
         <v>1.43</v>
       </c>
       <c r="AP150" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR150" t="n">
         <v>1.61</v>
@@ -33398,10 +33398,10 @@
         <v>1.29</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR151" t="n">
         <v>1.43</v>
@@ -33616,7 +33616,7 @@
         <v>1.33</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.27</v>
@@ -33837,7 +33837,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR153" t="n">
         <v>1.56</v>
@@ -34055,7 +34055,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR154" t="n">
         <v>1.71</v>
@@ -34270,7 +34270,7 @@
         <v>1.86</v>
       </c>
       <c r="AP155" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.7</v>
@@ -34706,10 +34706,10 @@
         <v>1.25</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR157" t="n">
         <v>1.49</v>
@@ -34924,10 +34924,10 @@
         <v>2.75</v>
       </c>
       <c r="AP158" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ158" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR158" t="n">
         <v>1.96</v>
@@ -35142,10 +35142,10 @@
         <v>1.25</v>
       </c>
       <c r="AP159" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR159" t="n">
         <v>1.72</v>
@@ -35360,10 +35360,10 @@
         <v>0.89</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR160" t="n">
         <v>1.4</v>
@@ -35796,7 +35796,7 @@
         <v>1.88</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.91</v>
@@ -36232,7 +36232,7 @@
         <v>0.67</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ164" t="n">
         <v>0.55</v>
@@ -37325,7 +37325,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ169" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR169" t="n">
         <v>1.69</v>
@@ -37758,7 +37758,7 @@
         <v>2</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.91</v>
@@ -38194,10 +38194,10 @@
         <v>1.22</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR173" t="n">
         <v>1.68</v>
@@ -38412,7 +38412,7 @@
         <v>0.67</v>
       </c>
       <c r="AP174" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ174" t="n">
         <v>0.82</v>
@@ -38630,7 +38630,7 @@
         <v>1.63</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ175" t="n">
         <v>1.7</v>
@@ -38848,10 +38848,10 @@
         <v>1.22</v>
       </c>
       <c r="AP176" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR176" t="n">
         <v>1.73</v>
@@ -39066,10 +39066,10 @@
         <v>0.5</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR177" t="n">
         <v>1.4</v>
@@ -39284,10 +39284,10 @@
         <v>2.78</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ178" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR178" t="n">
         <v>1.63</v>
@@ -39502,10 +39502,10 @@
         <v>0.9</v>
       </c>
       <c r="AP179" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR179" t="n">
         <v>1.68</v>
@@ -39723,7 +39723,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR180" t="n">
         <v>1.69</v>
@@ -41915,13 +41915,13 @@
         <v>2.85</v>
       </c>
       <c r="AU190" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV190" t="n">
         <v>5</v>
       </c>
       <c r="AW190" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX190" t="n">
         <v>5</v>
@@ -41979,6 +41979,1750 @@
       </c>
       <c r="BP190" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>8227547</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>46067.47916666666</v>
+      </c>
+      <c r="F191" t="n">
+        <v>22</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>2</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
+      <c r="K191" t="n">
+        <v>3</v>
+      </c>
+      <c r="L191" t="n">
+        <v>3</v>
+      </c>
+      <c r="M191" t="n">
+        <v>2</v>
+      </c>
+      <c r="N191" t="n">
+        <v>5</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['35', '45+2', '82']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>['28', '89']</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R191" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S191" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="T191" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="V191" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X191" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL191" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM191" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN191" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO191" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP191" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>8227760</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>46067.47916666666</v>
+      </c>
+      <c r="F192" t="n">
+        <v>22</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Borussia M'gladbach</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>2</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>2</v>
+      </c>
+      <c r="L192" t="n">
+        <v>3</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="n">
+        <v>3</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['24', '34', '75']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="R192" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S192" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="T192" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U192" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V192" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X192" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL192" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM192" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN192" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO192" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP192" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>8227805</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>46067.47916666666</v>
+      </c>
+      <c r="F193" t="n">
+        <v>22</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>2</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>2</v>
+      </c>
+      <c r="L193" t="n">
+        <v>4</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N193" t="n">
+        <v>4</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['13', '14', '52', '78']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R193" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S193" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="T193" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U193" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="V193" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X193" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL193" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM193" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BN193" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO193" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BP193" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>8227704</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>46067.47916666666</v>
+      </c>
+      <c r="F194" t="n">
+        <v>22</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>3</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" t="n">
+        <v>3</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['46', '51', '90+5']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R194" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S194" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T194" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U194" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V194" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X194" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL194" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM194" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN194" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO194" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP194" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>8227705</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>46067.47916666666</v>
+      </c>
+      <c r="F195" t="n">
+        <v>22</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>2</v>
+      </c>
+      <c r="K195" t="n">
+        <v>2</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>3</v>
+      </c>
+      <c r="N195" t="n">
+        <v>3</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['22', '25', '70']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="R195" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S195" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T195" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="U195" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V195" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X195" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL195" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM195" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN195" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO195" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP195" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>8227689</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>46067.60416666666</v>
+      </c>
+      <c r="F196" t="n">
+        <v>22</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="n">
+        <v>3</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="n">
+        <v>4</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['15', '84', '90+2']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R196" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S196" t="n">
+        <v>5</v>
+      </c>
+      <c r="T196" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U196" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="V196" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X196" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL196" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BM196" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BN196" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO196" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BP196" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>8227707</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>46068.47916666666</v>
+      </c>
+      <c r="F197" t="n">
+        <v>22</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R197" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S197" t="n">
+        <v>4</v>
+      </c>
+      <c r="T197" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U197" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="V197" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X197" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL197" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM197" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN197" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO197" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BP197" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>8227709</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>46068.5625</v>
+      </c>
+      <c r="F198" t="n">
+        <v>22</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>2</v>
+      </c>
+      <c r="M198" t="n">
+        <v>2</v>
+      </c>
+      <c r="N198" t="n">
+        <v>4</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['70', '88']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>['52', '78']</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R198" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S198" t="n">
+        <v>5</v>
+      </c>
+      <c r="T198" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U198" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="V198" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="X198" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL198" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM198" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN198" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BO198" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BP198" t="n">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP198"/>
+  <dimension ref="A1:BP204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.64</v>
@@ -1137,7 +1137,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.45</v>
@@ -2009,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.82</v>
@@ -2663,7 +2663,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.36</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.82</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.75</v>
@@ -4843,7 +4843,7 @@
         <v>2</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR20" t="n">
         <v>0.96</v>
@@ -5058,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.82</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.64</v>
@@ -5497,7 +5497,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR23" t="n">
         <v>0.82</v>
@@ -5930,10 +5930,10 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR25" t="n">
         <v>0.85</v>
@@ -6148,10 +6148,10 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR26" t="n">
         <v>2.26</v>
@@ -6369,7 +6369,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR27" t="n">
         <v>1.61</v>
@@ -7892,7 +7892,7 @@
         <v>2</v>
       </c>
       <c r="AP34" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.82</v>
@@ -8764,7 +8764,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.55</v>
@@ -8985,7 +8985,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR39" t="n">
         <v>0.7</v>
@@ -9200,7 +9200,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.64</v>
@@ -9421,7 +9421,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR41" t="n">
         <v>1.62</v>
@@ -9636,10 +9636,10 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR42" t="n">
         <v>1.7</v>
@@ -9857,7 +9857,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR43" t="n">
         <v>1.84</v>
@@ -10075,7 +10075,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR44" t="n">
         <v>1.74</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.45</v>
@@ -10508,10 +10508,10 @@
         <v>0.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR46" t="n">
         <v>1.49</v>
@@ -12688,7 +12688,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.09</v>
@@ -13124,10 +13124,10 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR58" t="n">
         <v>1.7</v>
@@ -13342,10 +13342,10 @@
         <v>2</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR59" t="n">
         <v>1.47</v>
@@ -13560,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.45</v>
@@ -13778,10 +13778,10 @@
         <v>0.67</v>
       </c>
       <c r="AP61" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR61" t="n">
         <v>2.01</v>
@@ -13996,10 +13996,10 @@
         <v>2.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ62" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR62" t="n">
         <v>2.7</v>
@@ -14217,7 +14217,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR63" t="n">
         <v>1.39</v>
@@ -14435,7 +14435,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR64" t="n">
         <v>1.64</v>
@@ -16615,7 +16615,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR74" t="n">
         <v>1.45</v>
@@ -16830,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.55</v>
@@ -17048,7 +17048,7 @@
         <v>1.5</v>
       </c>
       <c r="AP76" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.45</v>
@@ -17269,7 +17269,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR77" t="n">
         <v>1.51</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.75</v>
@@ -17920,10 +17920,10 @@
         <v>2.33</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR80" t="n">
         <v>2.46</v>
@@ -18138,10 +18138,10 @@
         <v>0.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR81" t="n">
         <v>1.54</v>
@@ -18356,10 +18356,10 @@
         <v>2.5</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR82" t="n">
         <v>1.61</v>
@@ -18792,7 +18792,7 @@
         <v>3</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.64</v>
@@ -19449,7 +19449,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ87" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR87" t="n">
         <v>1.86</v>
@@ -20103,7 +20103,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR90" t="n">
         <v>1.86</v>
@@ -20536,10 +20536,10 @@
         <v>2.6</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR92" t="n">
         <v>1.43</v>
@@ -20757,7 +20757,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR93" t="n">
         <v>1.35</v>
@@ -21408,10 +21408,10 @@
         <v>1.75</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR96" t="n">
         <v>1.58</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.75</v>
@@ -21844,10 +21844,10 @@
         <v>1.6</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR98" t="n">
         <v>1.76</v>
@@ -22062,7 +22062,7 @@
         <v>1</v>
       </c>
       <c r="AP99" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.55</v>
@@ -22719,7 +22719,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR102" t="n">
         <v>1.61</v>
@@ -22934,7 +22934,7 @@
         <v>0.6</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.42</v>
@@ -23370,7 +23370,7 @@
         <v>0</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.36</v>
@@ -23591,7 +23591,7 @@
         <v>2</v>
       </c>
       <c r="AQ106" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR106" t="n">
         <v>1.85</v>
@@ -24460,7 +24460,7 @@
         <v>1.4</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.09</v>
@@ -24899,7 +24899,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR112" t="n">
         <v>1.39</v>
@@ -25332,7 +25332,7 @@
         <v>1.2</v>
       </c>
       <c r="AP114" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ114" t="n">
         <v>1</v>
@@ -25550,7 +25550,7 @@
         <v>0.5</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.42</v>
@@ -25768,10 +25768,10 @@
         <v>1.83</v>
       </c>
       <c r="AP116" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR116" t="n">
         <v>1.91</v>
@@ -26207,7 +26207,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR118" t="n">
         <v>1.86</v>
@@ -26422,7 +26422,7 @@
         <v>1.57</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.64</v>
@@ -27079,7 +27079,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR122" t="n">
         <v>1.63</v>
@@ -27297,7 +27297,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR123" t="n">
         <v>1.58</v>
@@ -27733,7 +27733,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ125" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR125" t="n">
         <v>1.54</v>
@@ -27948,7 +27948,7 @@
         <v>0.67</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.82</v>
@@ -28602,7 +28602,7 @@
         <v>1</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ129" t="n">
         <v>1</v>
@@ -28820,7 +28820,7 @@
         <v>0.71</v>
       </c>
       <c r="AP130" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ130" t="n">
         <v>0.75</v>
@@ -29041,7 +29041,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR131" t="n">
         <v>1.72</v>
@@ -29477,7 +29477,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR133" t="n">
         <v>1.56</v>
@@ -29692,10 +29692,10 @@
         <v>1.67</v>
       </c>
       <c r="AP134" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR134" t="n">
         <v>1.9</v>
@@ -29910,7 +29910,7 @@
         <v>0.57</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ135" t="n">
         <v>0.42</v>
@@ -30349,7 +30349,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ137" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR137" t="n">
         <v>1.54</v>
@@ -30567,7 +30567,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR138" t="n">
         <v>1.63</v>
@@ -31000,7 +31000,7 @@
         <v>0.71</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ140" t="n">
         <v>0.82</v>
@@ -31439,7 +31439,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR142" t="n">
         <v>1.24</v>
@@ -31654,7 +31654,7 @@
         <v>1.43</v>
       </c>
       <c r="AP143" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ143" t="n">
         <v>1</v>
@@ -31875,7 +31875,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR144" t="n">
         <v>1.63</v>
@@ -32090,7 +32090,7 @@
         <v>0.43</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ145" t="n">
         <v>0.36</v>
@@ -32526,7 +32526,7 @@
         <v>0.63</v>
       </c>
       <c r="AP147" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ147" t="n">
         <v>0.42</v>
@@ -32744,7 +32744,7 @@
         <v>1</v>
       </c>
       <c r="AP148" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.75</v>
@@ -32962,7 +32962,7 @@
         <v>2.71</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ149" t="n">
         <v>2.64</v>
@@ -33619,7 +33619,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR152" t="n">
         <v>1.61</v>
@@ -33834,7 +33834,7 @@
         <v>0.38</v>
       </c>
       <c r="AP153" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ153" t="n">
         <v>0.36</v>
@@ -34273,7 +34273,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR155" t="n">
         <v>1.7</v>
@@ -34488,7 +34488,7 @@
         <v>0.75</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ156" t="n">
         <v>0.82</v>
@@ -34924,7 +34924,7 @@
         <v>2.75</v>
       </c>
       <c r="AP158" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ158" t="n">
         <v>2.64</v>
@@ -35581,7 +35581,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ161" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR161" t="n">
         <v>1.48</v>
@@ -35799,7 +35799,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR162" t="n">
         <v>1.52</v>
@@ -36450,10 +36450,10 @@
         <v>0.5</v>
       </c>
       <c r="AP165" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ165" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR165" t="n">
         <v>2.38</v>
@@ -36668,7 +36668,7 @@
         <v>1.25</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ166" t="n">
         <v>1</v>
@@ -36886,10 +36886,10 @@
         <v>1.78</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ167" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR167" t="n">
         <v>1.38</v>
@@ -37761,7 +37761,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR171" t="n">
         <v>1.6</v>
@@ -37976,7 +37976,7 @@
         <v>1.11</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ172" t="n">
         <v>1</v>
@@ -38412,7 +38412,7 @@
         <v>0.67</v>
       </c>
       <c r="AP174" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ174" t="n">
         <v>0.82</v>
@@ -38633,7 +38633,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR175" t="n">
         <v>1.46</v>
@@ -39938,10 +39938,10 @@
         <v>1.3</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR181" t="n">
         <v>1.37</v>
@@ -40374,10 +40374,10 @@
         <v>1.9</v>
       </c>
       <c r="AP183" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ183" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR183" t="n">
         <v>1.56</v>
@@ -40595,7 +40595,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ184" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR184" t="n">
         <v>1.27</v>
@@ -40810,10 +40810,10 @@
         <v>0.78</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ185" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR185" t="n">
         <v>1.52</v>
@@ -41249,7 +41249,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR187" t="n">
         <v>1.25</v>
@@ -41464,7 +41464,7 @@
         <v>1.5</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.64</v>
@@ -41682,10 +41682,10 @@
         <v>2.1</v>
       </c>
       <c r="AP189" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR189" t="n">
         <v>2.33</v>
@@ -43644,7 +43644,7 @@
         <v>1</v>
       </c>
       <c r="AP198" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ198" t="n">
         <v>1</v>
@@ -43723,6 +43723,1314 @@
       </c>
       <c r="BP198" t="n">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>8227591</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>46073.6875</v>
+      </c>
+      <c r="F199" t="n">
+        <v>23</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="n">
+        <v>2</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R199" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S199" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T199" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U199" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V199" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X199" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL199" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM199" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BN199" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO199" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP199" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>8227806</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>46074.47916666666</v>
+      </c>
+      <c r="F200" t="n">
+        <v>23</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
+      <c r="K200" t="n">
+        <v>2</v>
+      </c>
+      <c r="L200" t="n">
+        <v>2</v>
+      </c>
+      <c r="M200" t="n">
+        <v>2</v>
+      </c>
+      <c r="N200" t="n">
+        <v>4</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['15', '63']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['45', '60']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="R200" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S200" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U200" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V200" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X200" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL200" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BM200" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BN200" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO200" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP200" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>8227706</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>46074.47916666666</v>
+      </c>
+      <c r="F201" t="n">
+        <v>23</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="R201" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S201" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T201" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U201" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="V201" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X201" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL201" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM201" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BN201" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO201" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BP201" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>8227593</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>46074.47916666666</v>
+      </c>
+      <c r="F202" t="n">
+        <v>23</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="n">
+        <v>2</v>
+      </c>
+      <c r="M202" t="n">
+        <v>3</v>
+      </c>
+      <c r="N202" t="n">
+        <v>5</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['41', '70']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['59', '87', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R202" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S202" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T202" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U202" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="V202" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X202" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL202" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BM202" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BN202" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO202" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BP202" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>8227712</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>46074.47916666666</v>
+      </c>
+      <c r="F203" t="n">
+        <v>23</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>2</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>2</v>
+      </c>
+      <c r="L203" t="n">
+        <v>3</v>
+      </c>
+      <c r="M203" t="n">
+        <v>2</v>
+      </c>
+      <c r="N203" t="n">
+        <v>5</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['16', '20', '68']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['77', '86']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R203" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="S203" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="T203" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U203" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="V203" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W203" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>17</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BL203" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM203" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BN203" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO203" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BP203" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>8227714</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>46074.60416666666</v>
+      </c>
+      <c r="F204" t="n">
+        <v>23</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>2</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>2</v>
+      </c>
+      <c r="L204" t="n">
+        <v>2</v>
+      </c>
+      <c r="M204" t="n">
+        <v>2</v>
+      </c>
+      <c r="N204" t="n">
+        <v>4</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['20', '39']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['50', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="R204" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S204" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="T204" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U204" t="n">
+        <v>4</v>
+      </c>
+      <c r="V204" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X204" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL204" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM204" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BN204" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO204" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BP204" t="n">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP204"/>
+  <dimension ref="A1:BP207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.91</v>
@@ -1355,7 +1355,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ6" t="n">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.92</v>
@@ -3317,7 +3317,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.92</v>
@@ -5712,10 +5712,10 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR24" t="n">
         <v>1.66</v>
@@ -6366,7 +6366,7 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.91</v>
@@ -6587,7 +6587,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR28" t="n">
         <v>1.83</v>
@@ -8331,7 +8331,7 @@
         <v>2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR36" t="n">
         <v>1.43</v>
@@ -8767,7 +8767,7 @@
         <v>2.58</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR38" t="n">
         <v>2.52</v>
@@ -8982,7 +8982,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.91</v>
@@ -9418,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.55</v>
@@ -10072,7 +10072,7 @@
         <v>3</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.83</v>
@@ -10293,7 +10293,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR45" t="n">
         <v>1.71</v>
@@ -12691,7 +12691,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR56" t="n">
         <v>1.39</v>
@@ -12906,10 +12906,10 @@
         <v>1</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR57" t="n">
         <v>0.91</v>
@@ -13563,7 +13563,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR60" t="n">
         <v>1.52</v>
@@ -14214,7 +14214,7 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.17</v>
@@ -14432,7 +14432,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.83</v>
@@ -16833,7 +16833,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR75" t="n">
         <v>1.43</v>
@@ -17051,7 +17051,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR76" t="n">
         <v>1.67</v>
@@ -17266,7 +17266,7 @@
         <v>1.75</v>
       </c>
       <c r="AP77" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.17</v>
@@ -17702,10 +17702,10 @@
         <v>0.33</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR79" t="n">
         <v>1.51</v>
@@ -19882,7 +19882,7 @@
         <v>0.75</v>
       </c>
       <c r="AP89" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.42</v>
@@ -20975,7 +20975,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR94" t="n">
         <v>1.9</v>
@@ -21190,10 +21190,10 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR95" t="n">
         <v>1.43</v>
@@ -22065,7 +22065,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR99" t="n">
         <v>1.72</v>
@@ -22280,7 +22280,7 @@
         <v>0.75</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ100" t="n">
         <v>1</v>
@@ -23809,7 +23809,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR107" t="n">
         <v>1.7</v>
@@ -24242,7 +24242,7 @@
         <v>0.8</v>
       </c>
       <c r="AP109" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.82</v>
@@ -24463,7 +24463,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR110" t="n">
         <v>1.47</v>
@@ -24678,7 +24678,7 @@
         <v>0.83</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ111" t="n">
         <v>0.75</v>
@@ -25989,7 +25989,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR117" t="n">
         <v>1.56</v>
@@ -26640,7 +26640,7 @@
         <v>0.5</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.36</v>
@@ -27730,7 +27730,7 @@
         <v>2</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.92</v>
@@ -28169,7 +28169,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR127" t="n">
         <v>1.68</v>
@@ -28387,7 +28387,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR128" t="n">
         <v>1.73</v>
@@ -29259,7 +29259,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR132" t="n">
         <v>1.4</v>
@@ -30128,7 +30128,7 @@
         <v>2.67</v>
       </c>
       <c r="AP136" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ136" t="n">
         <v>2.64</v>
@@ -30564,7 +30564,7 @@
         <v>0.29</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ138" t="n">
         <v>0.64</v>
@@ -30782,7 +30782,7 @@
         <v>1</v>
       </c>
       <c r="AP139" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ139" t="n">
         <v>0.82</v>
@@ -31221,7 +31221,7 @@
         <v>2</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR141" t="n">
         <v>1.83</v>
@@ -32311,7 +32311,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR146" t="n">
         <v>1.68</v>
@@ -33183,7 +33183,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR150" t="n">
         <v>1.61</v>
@@ -34709,7 +34709,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR157" t="n">
         <v>1.49</v>
@@ -35578,7 +35578,7 @@
         <v>0.25</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ161" t="n">
         <v>0.64</v>
@@ -36014,7 +36014,7 @@
         <v>1.38</v>
       </c>
       <c r="AP163" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ163" t="n">
         <v>1.64</v>
@@ -36235,7 +36235,7 @@
         <v>2</v>
       </c>
       <c r="AQ164" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR164" t="n">
         <v>1.81</v>
@@ -37107,7 +37107,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR168" t="n">
         <v>1.26</v>
@@ -37322,7 +37322,7 @@
         <v>1</v>
       </c>
       <c r="AP169" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ169" t="n">
         <v>0.82</v>
@@ -37540,7 +37540,7 @@
         <v>1.56</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.64</v>
@@ -38197,7 +38197,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR173" t="n">
         <v>1.68</v>
@@ -40156,10 +40156,10 @@
         <v>1.6</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR182" t="n">
         <v>1.35</v>
@@ -40592,7 +40592,7 @@
         <v>0.33</v>
       </c>
       <c r="AP184" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ184" t="n">
         <v>0.64</v>
@@ -41028,10 +41028,10 @@
         <v>0.6</v>
       </c>
       <c r="AP186" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ186" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR186" t="n">
         <v>1.67</v>
@@ -42339,7 +42339,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR192" t="n">
         <v>1.45</v>
@@ -44970,7 +44970,7 @@
         <v>3</v>
       </c>
       <c r="AV204" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW204" t="n">
         <v>10</v>
@@ -44982,16 +44982,16 @@
         <v>13</v>
       </c>
       <c r="AZ204" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA204" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB204" t="n">
         <v>2</v>
       </c>
       <c r="BC204" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD204" t="n">
         <v>1.95</v>
@@ -45031,6 +45031,660 @@
       </c>
       <c r="BP204" t="n">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>8227567</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>46075.47916666666</v>
+      </c>
+      <c r="F205" t="n">
+        <v>23</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Borussia M'gladbach</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="n">
+        <v>2</v>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="n">
+        <v>3</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['38', '74']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R205" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S205" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T205" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U205" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V205" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X205" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BL205" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BM205" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BN205" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO205" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BP205" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>8227713</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>46075.5625</v>
+      </c>
+      <c r="F206" t="n">
+        <v>23</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>2</v>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="n">
+        <v>3</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['55', '70']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="R206" t="n">
+        <v>2</v>
+      </c>
+      <c r="S206" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="T206" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="V206" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X206" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BL206" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM206" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN206" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO206" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP206" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>8227590</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>46075.64583333334</v>
+      </c>
+      <c r="F207" t="n">
+        <v>23</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>2</v>
+      </c>
+      <c r="J207" t="n">
+        <v>2</v>
+      </c>
+      <c r="K207" t="n">
+        <v>4</v>
+      </c>
+      <c r="L207" t="n">
+        <v>3</v>
+      </c>
+      <c r="M207" t="n">
+        <v>3</v>
+      </c>
+      <c r="N207" t="n">
+        <v>6</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['20', '34', '82']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['5', '44', '88']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="R207" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S207" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T207" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U207" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="V207" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X207" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL207" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM207" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BN207" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO207" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BP207" t="n">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Germany Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP207"/>
+  <dimension ref="A1:BP213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.83</v>
@@ -2445,7 +2445,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.64</v>
@@ -2881,7 +2881,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.17</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.55</v>
@@ -3753,7 +3753,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.17</v>
@@ -5061,7 +5061,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR21" t="n">
         <v>1.1</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.5</v>
@@ -6805,7 +6805,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR29" t="n">
         <v>1.54</v>
@@ -7023,7 +7023,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR30" t="n">
         <v>0.71</v>
@@ -7238,10 +7238,10 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR31" t="n">
         <v>1.1</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.75</v>
@@ -7674,10 +7674,10 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AR33" t="n">
         <v>1.91</v>
@@ -7895,7 +7895,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR34" t="n">
         <v>2</v>
@@ -8113,7 +8113,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR35" t="n">
         <v>1.95</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ36" t="n">
         <v>1</v>
@@ -8546,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ37" t="n">
         <v>1</v>
@@ -9854,7 +9854,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.17</v>
@@ -10726,10 +10726,10 @@
         <v>1.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR47" t="n">
         <v>1.64</v>
@@ -10944,10 +10944,10 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR48" t="n">
         <v>1.54</v>
@@ -11162,7 +11162,7 @@
         <v>2</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.64</v>
@@ -11380,7 +11380,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ50" t="n">
         <v>1</v>
@@ -11598,10 +11598,10 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR51" t="n">
         <v>1.46</v>
@@ -11819,7 +11819,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ52" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AR52" t="n">
         <v>2.17</v>
@@ -12037,7 +12037,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR53" t="n">
         <v>1.74</v>
@@ -12255,7 +12255,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR54" t="n">
         <v>1.51</v>
@@ -12470,7 +12470,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.75</v>
@@ -14650,10 +14650,10 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR65" t="n">
         <v>1.49</v>
@@ -15086,10 +15086,10 @@
         <v>0</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR67" t="n">
         <v>1.66</v>
@@ -15307,7 +15307,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR68" t="n">
         <v>1.67</v>
@@ -15522,7 +15522,7 @@
         <v>1.75</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.64</v>
@@ -15740,10 +15740,10 @@
         <v>3</v>
       </c>
       <c r="AP70" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ70" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AR70" t="n">
         <v>1.58</v>
@@ -15958,10 +15958,10 @@
         <v>1.75</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR71" t="n">
         <v>1.55</v>
@@ -16176,7 +16176,7 @@
         <v>1.33</v>
       </c>
       <c r="AP72" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.75</v>
@@ -16397,7 +16397,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR73" t="n">
         <v>1.81</v>
@@ -16612,7 +16612,7 @@
         <v>1.75</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.92</v>
@@ -18574,7 +18574,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ83" t="n">
         <v>1</v>
@@ -18795,7 +18795,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AR84" t="n">
         <v>1.39</v>
@@ -19010,10 +19010,10 @@
         <v>0</v>
       </c>
       <c r="AP85" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR85" t="n">
         <v>1.68</v>
@@ -19228,7 +19228,7 @@
         <v>2</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.64</v>
@@ -19664,10 +19664,10 @@
         <v>1.4</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR88" t="n">
         <v>1.3</v>
@@ -19885,7 +19885,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR89" t="n">
         <v>1.42</v>
@@ -20321,7 +20321,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR91" t="n">
         <v>1.57</v>
@@ -20754,7 +20754,7 @@
         <v>0.4</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.64</v>
@@ -20972,7 +20972,7 @@
         <v>1.2</v>
       </c>
       <c r="AP94" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.42</v>
@@ -22283,7 +22283,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR100" t="n">
         <v>1.56</v>
@@ -22498,7 +22498,7 @@
         <v>1.67</v>
       </c>
       <c r="AP101" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.64</v>
@@ -22716,7 +22716,7 @@
         <v>0.8</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.91</v>
@@ -22937,7 +22937,7 @@
         <v>2.58</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR103" t="n">
         <v>2.37</v>
@@ -23152,10 +23152,10 @@
         <v>1.17</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR104" t="n">
         <v>1.68</v>
@@ -23373,7 +23373,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR105" t="n">
         <v>1.38</v>
@@ -23588,7 +23588,7 @@
         <v>1.83</v>
       </c>
       <c r="AP106" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.92</v>
@@ -24245,7 +24245,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR109" t="n">
         <v>1.34</v>
@@ -24896,7 +24896,7 @@
         <v>2</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.55</v>
@@ -25117,7 +25117,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ113" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AR113" t="n">
         <v>1.85</v>
@@ -25335,7 +25335,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR114" t="n">
         <v>1.73</v>
@@ -25553,7 +25553,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR115" t="n">
         <v>1.68</v>
@@ -26204,7 +26204,7 @@
         <v>2.33</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.83</v>
@@ -26643,7 +26643,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR120" t="n">
         <v>1.54</v>
@@ -26858,7 +26858,7 @@
         <v>1.17</v>
       </c>
       <c r="AP121" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ121" t="n">
         <v>1</v>
@@ -27076,7 +27076,7 @@
         <v>0.33</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.64</v>
@@ -27512,10 +27512,10 @@
         <v>1.14</v>
       </c>
       <c r="AP124" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR124" t="n">
         <v>1.81</v>
@@ -27951,7 +27951,7 @@
         <v>2.58</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR126" t="n">
         <v>2.34</v>
@@ -28166,7 +28166,7 @@
         <v>1</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.42</v>
@@ -28384,7 +28384,7 @@
         <v>1.67</v>
       </c>
       <c r="AP128" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ128" t="n">
         <v>1</v>
@@ -28605,7 +28605,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR129" t="n">
         <v>1.65</v>
@@ -29256,7 +29256,7 @@
         <v>0.71</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.5</v>
@@ -29913,7 +29913,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR135" t="n">
         <v>1.41</v>
@@ -30131,7 +30131,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ136" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AR136" t="n">
         <v>1.34</v>
@@ -30785,7 +30785,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR139" t="n">
         <v>1.26</v>
@@ -31003,7 +31003,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR140" t="n">
         <v>1.34</v>
@@ -31218,7 +31218,7 @@
         <v>1.25</v>
       </c>
       <c r="AP141" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.42</v>
@@ -31436,7 +31436,7 @@
         <v>0.57</v>
       </c>
       <c r="AP142" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ142" t="n">
         <v>0.91</v>
@@ -32093,7 +32093,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR145" t="n">
         <v>1.4</v>
@@ -32308,7 +32308,7 @@
         <v>0.75</v>
       </c>
       <c r="AP146" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ146" t="n">
         <v>0.5</v>
@@ -32529,7 +32529,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR147" t="n">
         <v>1.56</v>
@@ -32965,7 +32965,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ149" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AR149" t="n">
         <v>1.6</v>
@@ -33180,7 +33180,7 @@
         <v>1.43</v>
       </c>
       <c r="AP150" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ150" t="n">
         <v>1</v>
@@ -33398,10 +33398,10 @@
         <v>1.29</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR151" t="n">
         <v>1.43</v>
@@ -33616,7 +33616,7 @@
         <v>1.33</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.17</v>
@@ -33837,7 +33837,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR153" t="n">
         <v>1.56</v>
@@ -34052,10 +34052,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP154" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR154" t="n">
         <v>1.71</v>
@@ -34270,7 +34270,7 @@
         <v>1.86</v>
       </c>
       <c r="AP155" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.55</v>
@@ -34491,7 +34491,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR156" t="n">
         <v>1.53</v>
@@ -34927,7 +34927,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ158" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AR158" t="n">
         <v>1.96</v>
@@ -35145,7 +35145,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR159" t="n">
         <v>1.72</v>
@@ -35360,7 +35360,7 @@
         <v>0.89</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ160" t="n">
         <v>0.75</v>
@@ -36232,7 +36232,7 @@
         <v>0.67</v>
       </c>
       <c r="AP164" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ164" t="n">
         <v>0.5</v>
@@ -37104,7 +37104,7 @@
         <v>1.44</v>
       </c>
       <c r="AP168" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.42</v>
@@ -37325,7 +37325,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ169" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR169" t="n">
         <v>1.69</v>
@@ -37758,7 +37758,7 @@
         <v>2</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.83</v>
@@ -38194,7 +38194,7 @@
         <v>1.22</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ173" t="n">
         <v>1</v>
@@ -38415,7 +38415,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR174" t="n">
         <v>1.93</v>
@@ -38848,10 +38848,10 @@
         <v>1.22</v>
       </c>
       <c r="AP176" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR176" t="n">
         <v>1.73</v>
@@ -39066,10 +39066,10 @@
         <v>0.5</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR177" t="n">
         <v>1.4</v>
@@ -39287,7 +39287,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ178" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AR178" t="n">
         <v>1.63</v>
@@ -39720,10 +39720,10 @@
         <v>0.44</v>
       </c>
       <c r="AP180" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR180" t="n">
         <v>1.69</v>
@@ -41246,7 +41246,7 @@
         <v>1.78</v>
       </c>
       <c r="AP187" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ187" t="n">
         <v>1.55</v>
@@ -41900,10 +41900,10 @@
         <v>0.9</v>
       </c>
       <c r="AP190" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ190" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR190" t="n">
         <v>1.71</v>
@@ -42121,7 +42121,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR191" t="n">
         <v>1.6</v>
@@ -42554,10 +42554,10 @@
         <v>0.45</v>
       </c>
       <c r="AP193" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR193" t="n">
         <v>1.76</v>
@@ -42772,7 +42772,7 @@
         <v>0.82</v>
       </c>
       <c r="AP194" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AQ194" t="n">
         <v>0.75</v>
@@ -42990,10 +42990,10 @@
         <v>2.6</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ195" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AR195" t="n">
         <v>1.72</v>
@@ -43211,7 +43211,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR196" t="n">
         <v>1.71</v>
@@ -43426,10 +43426,10 @@
         <v>0.4</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ197" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR197" t="n">
         <v>1.4</v>
@@ -45685,6 +45685,1314 @@
       </c>
       <c r="BP207" t="n">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>8227808</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>46080.6875</v>
+      </c>
+      <c r="F208" t="n">
+        <v>24</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
+        <v>2</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" t="n">
+        <v>2</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['55', '90+5']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="R208" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S208" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U208" t="n">
+        <v>3</v>
+      </c>
+      <c r="V208" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X208" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL208" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM208" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN208" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO208" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP208" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>8227804</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>46081.47916666666</v>
+      </c>
+      <c r="F209" t="n">
+        <v>24</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>2</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>2</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['57', '90+7']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R209" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S209" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T209" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U209" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V209" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X209" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL209" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM209" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN209" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO209" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP209" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>8227807</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>46081.47916666666</v>
+      </c>
+      <c r="F210" t="n">
+        <v>24</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Borussia M'gladbach</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R210" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S210" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="T210" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="V210" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X210" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BL210" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BM210" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BN210" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO210" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="BP210" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>8227594</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>46081.47916666666</v>
+      </c>
+      <c r="F211" t="n">
+        <v>24</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="n">
+        <v>2</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R211" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S211" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T211" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U211" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="V211" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X211" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BL211" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM211" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN211" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO211" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP211" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>8227597</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>46081.47916666666</v>
+      </c>
+      <c r="F212" t="n">
+        <v>24</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['45+4']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R212" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S212" t="n">
+        <v>6</v>
+      </c>
+      <c r="T212" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U212" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V212" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X212" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL212" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BM212" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN212" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO212" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP212" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>8227710</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>46081.60416666666</v>
+      </c>
+      <c r="F213" t="n">
+        <v>24</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="n">
+        <v>2</v>
+      </c>
+      <c r="M213" t="n">
+        <v>3</v>
+      </c>
+      <c r="N213" t="n">
+        <v>5</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>['26', '83']</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>['54', '70', '87']</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>4</v>
+      </c>
+      <c r="R213" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S213" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T213" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U213" t="n">
+        <v>4</v>
+      </c>
+      <c r="V213" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X213" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BL213" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BM213" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN213" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO213" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP213" t="n">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>
